--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -583,11 +583,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="4873184"/>
-        <c:axId val="12599736"/>
+        <c:axId val="106149600"/>
+        <c:axId val="244499256"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="4873184"/>
+        <c:axId val="106149600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,14 +630,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12599736"/>
+        <c:crossAx val="244499256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="12599736"/>
+        <c:axId val="244499256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +688,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4873184"/>
+        <c:crossAx val="106149600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1627,8 +1627,8 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -38,7 +38,7 @@
     <t>Выздоровело</t>
   </si>
   <si>
-    <t>Умерло</t>
+    <t>Умерло (всего)</t>
   </si>
 </sst>
 </file>
@@ -183,10 +183,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$30</c:f>
+              <c:f>Лист1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43905</c:v>
                 </c:pt>
@@ -273,16 +273,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$30</c:f>
+              <c:f>Лист1!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
@@ -360,6 +363,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,10 +397,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$30</c:f>
+              <c:f>Лист1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43905</c:v>
                 </c:pt>
@@ -481,16 +487,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$30</c:f>
+              <c:f>Лист1!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -567,6 +576,9 @@
                   <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>121</c:v>
                 </c:pt>
               </c:numCache>
@@ -583,11 +595,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="106149600"/>
-        <c:axId val="244499256"/>
+        <c:axId val="179187320"/>
+        <c:axId val="179187712"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="106149600"/>
+        <c:axId val="179187320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,14 +642,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244499256"/>
+        <c:crossAx val="179187712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="244499256"/>
+        <c:axId val="179187712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +700,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106149600"/>
+        <c:crossAx val="179187320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1355,7 +1367,7 @@
     <tableColumn id="2" name="Всего"/>
     <tableColumn id="3" name="Новых"/>
     <tableColumn id="4" name="Выздоровело"/>
-    <tableColumn id="5" name="Умерло"/>
+    <tableColumn id="5" name="Умерло (всего)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1628,7 +1640,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,7 +1887,7 @@
         <v>15</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1892,7 +1904,7 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1946,7 +1958,7 @@
         <v>7</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2037,6 +2049,18 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43934</v>
+      </c>
+      <c r="B31">
+        <v>799</v>
+      </c>
+      <c r="C31">
+        <v>121</v>
+      </c>
+      <c r="D31">
+        <v>85</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -595,11 +595,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="179187320"/>
-        <c:axId val="179187712"/>
+        <c:axId val="98861720"/>
+        <c:axId val="168243496"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="179187320"/>
+        <c:axId val="98861720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,14 +642,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179187712"/>
+        <c:crossAx val="168243496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179187712"/>
+        <c:axId val="168243496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +700,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179187320"/>
+        <c:crossAx val="98861720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1640,7 +1640,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,6 +2067,18 @@
       <c r="A32" s="1">
         <v>43935</v>
       </c>
+      <c r="B32">
+        <v>929</v>
+      </c>
+      <c r="C32">
+        <v>130</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -595,11 +595,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="98861720"/>
-        <c:axId val="168243496"/>
+        <c:axId val="200588672"/>
+        <c:axId val="141271336"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="98861720"/>
+        <c:axId val="200588672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,14 +642,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168243496"/>
+        <c:crossAx val="141271336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168243496"/>
+        <c:axId val="141271336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +700,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98861720"/>
+        <c:crossAx val="200588672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1640,7 +1640,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,7 +2077,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,10 +183,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$31</c:f>
+              <c:f>Лист1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43905</c:v>
                 </c:pt>
@@ -276,16 +276,22 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$31</c:f>
+              <c:f>Лист1!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
@@ -366,6 +372,12 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -397,10 +409,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$31</c:f>
+              <c:f>Лист1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43905</c:v>
                 </c:pt>
@@ -490,16 +502,22 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$31</c:f>
+              <c:f>Лист1!$C$2:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -580,6 +598,12 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,11 +619,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="200588672"/>
-        <c:axId val="141271336"/>
+        <c:axId val="318313072"/>
+        <c:axId val="318313464"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="200588672"/>
+        <c:axId val="318313072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,14 +666,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141271336"/>
+        <c:crossAx val="318313464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="141271336"/>
+        <c:axId val="318313464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +724,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200588672"/>
+        <c:crossAx val="318313072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1640,7 +1664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,82 +2104,94 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43936</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1083</v>
+      </c>
+      <c r="C33">
+        <v>154</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43937</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43938</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43939</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43940</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43941</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43942</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43943</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43944</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43946</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43947</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43948</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43949</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43950</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43951</v>
       </c>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,16 +29,16 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>Всего</t>
-  </si>
-  <si>
-    <t>Новых</t>
-  </si>
-  <si>
     <t>Выздоровело</t>
   </si>
   <si>
-    <t>Умерло (всего)</t>
+    <t>Умерло</t>
+  </si>
+  <si>
+    <t>Всего (на дату)</t>
+  </si>
+  <si>
+    <t>Новых (на дату)</t>
   </si>
 </sst>
 </file>
@@ -75,17 +75,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -153,382 +162,386 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$1</c:f>
+              <c:f>Лист1!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Всего</c:v>
+                  <c:v>Всего (на дату)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$33</c:f>
+              <c:f>Лист1!$A$5:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>43905</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43906</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43907</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43908</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43909</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43910</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43911</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43912</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43913</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43914</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43915</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43916</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43917</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43918</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43919</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43920</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43921</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43922</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43923</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43924</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43925</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43926</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43927</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43928</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43929</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43930</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43931</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43932</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43933</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43934</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43935</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43936</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$33</c:f>
+              <c:f>Лист1!$B$5:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>98</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>125</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>125</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>156</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>171</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>191</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>226</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>295</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>329</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>373</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>408</c:v>
+                  <c:v>678</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>488</c:v>
+                  <c:v>799</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>557</c:v>
+                  <c:v>929</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>678</c:v>
+                  <c:v>1083</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>799</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>929</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1083</c:v>
+                  <c:v>1507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$1</c:f>
+              <c:f>Лист1!$C$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Новых</c:v>
+                  <c:v>Новых (на дату)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$33</c:f>
+              <c:f>Лист1!$A$5:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>43905</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43906</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43907</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43908</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43909</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43910</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43911</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43912</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43913</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43914</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43915</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43916</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43917</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43918</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43919</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43920</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43921</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43922</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43923</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43924</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43925</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43926</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43927</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43928</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43929</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43930</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43931</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43932</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43933</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43934</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43935</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43936</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$33</c:f>
+              <c:f>Лист1!$C$5:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -537,77 +550,72 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>48</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>35</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>80</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>69</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>121</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>154</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -617,13 +625,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="318313072"/>
-        <c:axId val="318313464"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="107090088"/>
+        <c:axId val="107351640"/>
+      </c:lineChart>
       <c:dateAx>
-        <c:axId val="318313072"/>
+        <c:axId val="107090088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,14 +673,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318313464"/>
+        <c:crossAx val="107351640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="318313464"/>
+        <c:axId val="107351640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,7 +731,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318313072"/>
+        <c:crossAx val="107090088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1354,14 +1361,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104781</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1384,14 +1391,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E48" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E49" totalsRowCount="1" headerRowDxfId="2">
   <autoFilter ref="A1:E48"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Дата" dataDxfId="0"/>
-    <tableColumn id="2" name="Всего"/>
-    <tableColumn id="3" name="Новых"/>
-    <tableColumn id="4" name="Выздоровело"/>
-    <tableColumn id="5" name="Умерло (всего)"/>
+    <tableColumn id="1" name="Дата" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Всего (на дату)"/>
+    <tableColumn id="3" name="Новых (на дату)"/>
+    <tableColumn id="4" name="Выздоровело" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(D2:D48)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Умерло" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(E2:E48)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1660,18 +1671,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S23" sqref="S23"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1679,31 +1692,59 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43905</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43906</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43905</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>43907</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1716,6 +1757,12 @@
       <c r="C5">
         <v>0</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1727,6 +1774,12 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1738,6 +1791,12 @@
       <c r="C7">
         <v>4</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1749,6 +1808,12 @@
       <c r="C8">
         <v>2</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1760,15 +1825,27 @@
       <c r="C9">
         <v>0</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43913</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
     </row>
@@ -1780,7 +1857,13 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1794,7 +1877,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1807,6 +1893,12 @@
       <c r="C13">
         <v>0</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1818,6 +1910,12 @@
       <c r="C14">
         <v>0</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1829,6 +1927,12 @@
       <c r="C15">
         <v>5</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1840,6 +1944,12 @@
       <c r="C16">
         <v>8</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1851,6 +1961,12 @@
       <c r="C17">
         <v>48</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1894,10 +2010,10 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1911,7 +2027,7 @@
         <v>15</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1928,7 +2044,7 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1962,10 +2078,10 @@
         <v>69</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1999,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2084,7 +2200,7 @@
         <v>85</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2101,7 +2217,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2125,6 +2241,18 @@
       <c r="A34" s="1">
         <v>43937</v>
       </c>
+      <c r="B34">
+        <v>1507</v>
+      </c>
+      <c r="C34">
+        <v>424</v>
+      </c>
+      <c r="D34">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -2194,6 +2322,17 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43951</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="D49">
+        <f>SUM(D2:D48)</f>
+        <v>203</v>
+      </c>
+      <c r="E49">
+        <f>SUM(E2:E48)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -170,7 +170,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$1:$B$1</c:f>
+              <c:f>Лист1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -193,10 +193,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$5:$A$34</c:f>
+              <c:f>Лист1!$A$5:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43908</c:v>
                 </c:pt>
@@ -286,16 +286,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$5:$B$34</c:f>
+              <c:f>Лист1!$B$5:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -385,6 +388,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1507</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -396,7 +402,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$1:$C$1</c:f>
+              <c:f>Лист1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -419,10 +425,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$5:$A$34</c:f>
+              <c:f>Лист1!$A$5:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43908</c:v>
                 </c:pt>
@@ -512,16 +518,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$5:$C$34</c:f>
+              <c:f>Лист1!$C$5:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -611,6 +620,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,11 +638,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="107090088"/>
-        <c:axId val="107351640"/>
+        <c:axId val="168361240"/>
+        <c:axId val="168442432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="107090088"/>
+        <c:axId val="168361240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,14 +685,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107351640"/>
+        <c:crossAx val="168442432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="107351640"/>
+        <c:axId val="168442432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,7 +743,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107090088"/>
+        <c:crossAx val="168361240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1675,7 +1687,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,6 +2270,18 @@
       <c r="A35" s="1">
         <v>43938</v>
       </c>
+      <c r="B35">
+        <v>1646</v>
+      </c>
+      <c r="C35">
+        <v>139</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -2328,7 +2352,7 @@
       <c r="A49" s="1"/>
       <c r="D49">
         <f>SUM(D2:D48)</f>
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="E49">
         <f>SUM(E2:E48)</f>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -193,10 +193,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$5:$A$35</c:f>
+              <c:f>Лист1!$A$5:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43908</c:v>
                 </c:pt>
@@ -289,16 +289,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$5:$B$35</c:f>
+              <c:f>Лист1!$B$5:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -391,6 +394,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1646</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -425,10 +431,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$5:$A$35</c:f>
+              <c:f>Лист1!$A$5:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43908</c:v>
                 </c:pt>
@@ -521,16 +527,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$5:$C$35</c:f>
+              <c:f>Лист1!$C$5:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -623,6 +632,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -638,11 +650,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="168361240"/>
-        <c:axId val="168442432"/>
+        <c:axId val="159160232"/>
+        <c:axId val="159312344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="168361240"/>
+        <c:axId val="159160232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,14 +697,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168442432"/>
+        <c:crossAx val="159312344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168442432"/>
+        <c:axId val="159312344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,7 +755,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168361240"/>
+        <c:crossAx val="159160232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1687,7 +1699,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,6 +2299,18 @@
       <c r="A36" s="1">
         <v>43939</v>
       </c>
+      <c r="B36">
+        <v>1760</v>
+      </c>
+      <c r="C36">
+        <v>114</v>
+      </c>
+      <c r="D36">
+        <v>32</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -2352,11 +2376,11 @@
       <c r="A49" s="1"/>
       <c r="D49">
         <f>SUM(D2:D48)</f>
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="E49">
         <f>SUM(E2:E48)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -129,6 +129,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>COVID-19 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>в</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> Санкт-Петербурге, 2020</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -193,10 +227,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$5:$A$36</c:f>
+              <c:f>Лист1!$A$4:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43908</c:v>
                 </c:pt>
@@ -292,16 +326,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43940</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$5:$B$36</c:f>
+              <c:f>Лист1!$B$4:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -397,6 +434,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -431,10 +471,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$5:$A$36</c:f>
+              <c:f>Лист1!$A$4:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43908</c:v>
                 </c:pt>
@@ -530,16 +570,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43940</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$5:$C$36</c:f>
+              <c:f>Лист1!$C$4:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -635,6 +678,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,11 +696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="159160232"/>
-        <c:axId val="159312344"/>
+        <c:axId val="282646280"/>
+        <c:axId val="282819976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="159160232"/>
+        <c:axId val="282646280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,14 +743,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159312344"/>
+        <c:crossAx val="282819976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="159312344"/>
+        <c:axId val="282819976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,7 +801,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159160232"/>
+        <c:crossAx val="282646280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1385,13 +1431,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1415,17 +1461,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E49" totalsRowCount="1" headerRowDxfId="2">
-  <autoFilter ref="A1:E48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E48" totalsRowCount="1" headerRowDxfId="2">
+  <autoFilter ref="A1:E47"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Дата" dataDxfId="1" totalsRowDxfId="0"/>
     <tableColumn id="2" name="Всего (на дату)"/>
     <tableColumn id="3" name="Новых (на дату)"/>
     <tableColumn id="4" name="Выздоровело" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(D2:D48)</totalsRowFormula>
+      <totalsRowFormula>SUM(D2:D47)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" name="Умерло" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(E2:E48)</totalsRowFormula>
+      <totalsRowFormula>SUM(E2:E47)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1695,11 +1741,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W19" sqref="W19"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,56 +1776,64 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>43905</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+        <v>43906</v>
+      </c>
+      <c r="B2" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B3" s="4">
         <v>7</v>
       </c>
       <c r="C3" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>43907</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B4">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1790,13 +1844,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1807,13 +1861,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1824,13 +1878,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B8">
         <v>14</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1841,13 +1895,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1858,13 +1912,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B10">
         <v>19</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1875,16 +1929,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1892,7 +1946,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B12">
         <v>21</v>
@@ -1901,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1909,7 +1963,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B13">
         <v>21</v>
@@ -1926,13 +1980,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1943,13 +1997,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B15">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1960,13 +2014,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1977,16 +2031,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C17">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1994,95 +2048,98 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B18">
         <v>125</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B19">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B20">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B21">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B22">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B23">
-        <v>226</v>
+        <v>295</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2093,16 +2150,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B24">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="C24">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2110,50 +2167,50 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B25">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B26">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="C26">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B27">
-        <v>408</v>
+        <v>488</v>
       </c>
       <c r="C27">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2161,16 +2218,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B28">
-        <v>488</v>
+        <v>557</v>
       </c>
       <c r="C28">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2178,16 +2235,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B29">
-        <v>557</v>
+        <v>678</v>
       </c>
       <c r="C29">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2195,67 +2252,67 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B30">
-        <v>678</v>
+        <v>799</v>
       </c>
       <c r="C30">
         <v>121</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B31">
-        <v>799</v>
+        <v>929</v>
       </c>
       <c r="C31">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D31">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B32">
-        <v>929</v>
+        <v>1083</v>
       </c>
       <c r="C32">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B33">
-        <v>1083</v>
+        <v>1507</v>
       </c>
       <c r="C33">
-        <v>154</v>
+        <v>424</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2263,16 +2320,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B34">
-        <v>1507</v>
+        <v>1646</v>
       </c>
       <c r="C34">
-        <v>424</v>
+        <v>139</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2280,106 +2337,101 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B35">
-        <v>1646</v>
+        <v>1760</v>
       </c>
       <c r="C35">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B36">
-        <v>1760</v>
+        <v>1846</v>
       </c>
       <c r="C36">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D36">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43940</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43945</v>
+        <v>43946</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43946</v>
+        <v>43947</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43947</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>43951</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="D49">
-        <f>SUM(D2:D48)</f>
-        <v>256</v>
-      </c>
-      <c r="E49">
-        <f>SUM(E2:E48)</f>
+      <c r="A48" s="1"/>
+      <c r="D48">
+        <f>SUM(D2:D47)</f>
+        <v>264</v>
+      </c>
+      <c r="E48">
+        <f>SUM(E2:E47)</f>
         <v>8</v>
       </c>
     </row>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -696,11 +696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="282646280"/>
-        <c:axId val="282819976"/>
+        <c:axId val="186736000"/>
+        <c:axId val="186736392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="282646280"/>
+        <c:axId val="186736000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,14 +743,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282819976"/>
+        <c:crossAx val="186736392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="282819976"/>
+        <c:axId val="186736392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +801,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282646280"/>
+        <c:crossAx val="186736000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1744,8 +1744,8 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -696,11 +696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="186736000"/>
-        <c:axId val="186736392"/>
+        <c:axId val="171902048"/>
+        <c:axId val="171902432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="186736000"/>
+        <c:axId val="171902048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,14 +743,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186736392"/>
+        <c:crossAx val="171902432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="186736392"/>
+        <c:axId val="171902432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +801,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186736000"/>
+        <c:crossAx val="171902048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1745,7 +1745,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -227,141 +227,150 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$4:$A$36</c:f>
+              <c:f>Лист1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$4:$B$36</c:f>
+              <c:f>Лист1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>21</c:v>
@@ -370,73 +379,82 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>156</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>171</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>191</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>226</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>295</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>373</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>408</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>488</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>557</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>678</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>799</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>929</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>1083</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>1507</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>1646</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>1760</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>1846</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -471,141 +489,150 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$4:$A$36</c:f>
+              <c:f>Лист1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$4:$C$36</c:f>
+              <c:f>Лист1!$C$2:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -614,73 +641,82 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>154</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>424</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>139</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,11 +732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="171902048"/>
-        <c:axId val="171902432"/>
+        <c:axId val="105006296"/>
+        <c:axId val="2326288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="171902048"/>
+        <c:axId val="105006296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,14 +779,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171902432"/>
+        <c:crossAx val="2326288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="171902432"/>
+        <c:axId val="2326288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +837,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171902048"/>
+        <c:crossAx val="105006296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1744,8 +1780,8 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,7 +1951,7 @@
         <v>43914</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1938,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2023,7 +2059,7 @@
         <v>48</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2074,7 +2110,7 @@
         <v>9</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -2142,7 +2178,7 @@
         <v>69</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2281,7 +2317,7 @@
         <v>7</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2298,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2372,6 +2408,18 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43941</v>
+      </c>
+      <c r="B37">
+        <v>1973</v>
+      </c>
+      <c r="C37">
+        <v>127</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2428,11 +2476,11 @@
       <c r="A48" s="1"/>
       <c r="D48">
         <f>SUM(D2:D47)</f>
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E48">
         <f>SUM(E2:E47)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -732,11 +732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="105006296"/>
-        <c:axId val="2326288"/>
+        <c:axId val="107771544"/>
+        <c:axId val="108103960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105006296"/>
+        <c:axId val="107771544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,14 +779,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2326288"/>
+        <c:crossAx val="108103960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2326288"/>
+        <c:axId val="108103960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105006296"/>
+        <c:crossAx val="107771544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1781,7 +1781,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,6 +2426,18 @@
       <c r="A38" s="1">
         <v>43942</v>
       </c>
+      <c r="B38">
+        <v>2267</v>
+      </c>
+      <c r="C38">
+        <v>294</v>
+      </c>
+      <c r="D38">
+        <v>42</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -2476,11 +2488,11 @@
       <c r="A48" s="1"/>
       <c r="D48">
         <f>SUM(D2:D47)</f>
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="E48">
         <f>SUM(E2:E47)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -732,11 +732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="107771544"/>
-        <c:axId val="108103960"/>
+        <c:axId val="67869344"/>
+        <c:axId val="67874832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="107771544"/>
+        <c:axId val="67869344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,14 +779,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108103960"/>
+        <c:crossAx val="67874832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="108103960"/>
+        <c:axId val="67874832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107771544"/>
+        <c:crossAx val="67869344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -732,11 +732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="67869344"/>
-        <c:axId val="67874832"/>
+        <c:axId val="177231632"/>
+        <c:axId val="177232016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67869344"/>
+        <c:axId val="177231632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,14 +779,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67874832"/>
+        <c:crossAx val="177232016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67874832"/>
+        <c:axId val="177232016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +837,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67869344"/>
+        <c:crossAx val="177231632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -227,10 +227,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$37</c:f>
+              <c:f>Лист1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -338,16 +338,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$37</c:f>
+              <c:f>Лист1!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -455,6 +461,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2267</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -489,10 +501,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$37</c:f>
+              <c:f>Лист1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -600,16 +612,22 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$37</c:f>
+              <c:f>Лист1!$C$2:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -717,6 +735,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,11 +756,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="177231632"/>
-        <c:axId val="177232016"/>
+        <c:axId val="154280768"/>
+        <c:axId val="17748912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="177231632"/>
+        <c:axId val="154280768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,14 +803,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177232016"/>
+        <c:crossAx val="17748912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="177232016"/>
+        <c:axId val="17748912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +861,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177231632"/>
+        <c:crossAx val="154280768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1780,8 +1804,8 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,6 +2467,18 @@
       <c r="A39" s="1">
         <v>43943</v>
       </c>
+      <c r="B39">
+        <v>2458</v>
+      </c>
+      <c r="C39">
+        <v>191</v>
+      </c>
+      <c r="D39">
+        <v>72</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -2488,11 +2524,11 @@
       <c r="A48" s="1"/>
       <c r="D48">
         <f>SUM(D2:D47)</f>
-        <v>296</v>
+        <v>368</v>
       </c>
       <c r="E48">
         <f>SUM(E2:E47)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -227,10 +227,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$39</c:f>
+              <c:f>Лист1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -344,16 +344,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$39</c:f>
+              <c:f>Лист1!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -467,6 +470,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2458</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -501,10 +507,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$39</c:f>
+              <c:f>Лист1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -618,16 +624,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$39</c:f>
+              <c:f>Лист1!$C$2:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -741,6 +750,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,11 +768,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="154280768"/>
-        <c:axId val="17748912"/>
+        <c:axId val="164358672"/>
+        <c:axId val="164359064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="154280768"/>
+        <c:axId val="164358672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,14 +815,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17748912"/>
+        <c:crossAx val="164359064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="17748912"/>
+        <c:axId val="164359064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +873,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154280768"/>
+        <c:crossAx val="164358672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1805,7 +1817,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,6 +2496,18 @@
       <c r="A40" s="1">
         <v>43944</v>
       </c>
+      <c r="B40">
+        <v>2711</v>
+      </c>
+      <c r="C40">
+        <v>253</v>
+      </c>
+      <c r="D40">
+        <v>43</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -2524,11 +2548,11 @@
       <c r="A48" s="1"/>
       <c r="D48">
         <f>SUM(D2:D47)</f>
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="E48">
         <f>SUM(E2:E47)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -227,10 +227,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$40</c:f>
+              <c:f>Лист1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -347,16 +347,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$40</c:f>
+              <c:f>Лист1!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -473,6 +476,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2711</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,10 +513,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$40</c:f>
+              <c:f>Лист1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -627,16 +633,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$40</c:f>
+              <c:f>Лист1!$C$2:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -753,6 +762,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,11 +780,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="164358672"/>
-        <c:axId val="164359064"/>
+        <c:axId val="107945672"/>
+        <c:axId val="166343304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="164358672"/>
+        <c:axId val="107945672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,14 +827,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164359064"/>
+        <c:crossAx val="166343304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164359064"/>
+        <c:axId val="166343304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -873,7 +885,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164358672"/>
+        <c:crossAx val="107945672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1816,8 +1828,8 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2513,6 +2525,18 @@
       <c r="A41" s="1">
         <v>43945</v>
       </c>
+      <c r="B41">
+        <v>2996</v>
+      </c>
+      <c r="C41">
+        <v>215</v>
+      </c>
+      <c r="D41">
+        <v>49</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -2548,11 +2572,11 @@
       <c r="A48" s="1"/>
       <c r="D48">
         <f>SUM(D2:D47)</f>
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="E48">
         <f>SUM(E2:E47)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -227,10 +227,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$41</c:f>
+              <c:f>Лист1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -350,16 +350,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$41</c:f>
+              <c:f>Лист1!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -478,7 +481,10 @@
                   <c:v>2711</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2996</c:v>
+                  <c:v>2926</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -513,10 +519,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$41</c:f>
+              <c:f>Лист1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -636,16 +642,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$41</c:f>
+              <c:f>Лист1!$C$2:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -765,6 +774,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -780,11 +792,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="107945672"/>
-        <c:axId val="166343304"/>
+        <c:axId val="168347336"/>
+        <c:axId val="168333904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="107945672"/>
+        <c:axId val="168347336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,14 +839,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166343304"/>
+        <c:crossAx val="168333904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="166343304"/>
+        <c:axId val="168333904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,7 +897,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107945672"/>
+        <c:crossAx val="168347336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1828,8 +1840,8 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2526,7 +2538,7 @@
         <v>43945</v>
       </c>
       <c r="B41">
-        <v>2996</v>
+        <v>2926</v>
       </c>
       <c r="C41">
         <v>215</v>
@@ -2541,6 +2553,18 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43946</v>
+      </c>
+      <c r="B42">
+        <v>3077</v>
+      </c>
+      <c r="C42">
+        <v>151</v>
+      </c>
+      <c r="D42">
+        <v>29</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2572,11 +2596,11 @@
       <c r="A48" s="1"/>
       <c r="D48">
         <f>SUM(D2:D47)</f>
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="E48">
         <f>SUM(E2:E47)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -227,10 +227,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$42</c:f>
+              <c:f>Лист1!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -353,16 +353,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$42</c:f>
+              <c:f>Лист1!$B$2:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -485,6 +488,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3077</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,10 +525,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$42</c:f>
+              <c:f>Лист1!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -645,16 +651,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$42</c:f>
+              <c:f>Лист1!$C$2:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -777,6 +786,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,11 +804,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="168347336"/>
-        <c:axId val="168333904"/>
+        <c:axId val="293137200"/>
+        <c:axId val="293137592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="168347336"/>
+        <c:axId val="293137200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -839,14 +851,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168333904"/>
+        <c:crossAx val="293137592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168333904"/>
+        <c:axId val="293137592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,7 +909,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168347336"/>
+        <c:crossAx val="293137200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1840,8 +1852,8 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N40" sqref="N40"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,6 +2583,18 @@
       <c r="A43" s="1">
         <v>43947</v>
       </c>
+      <c r="B43">
+        <v>3238</v>
+      </c>
+      <c r="C43">
+        <v>161</v>
+      </c>
+      <c r="D43">
+        <v>29</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -2596,7 +2620,7 @@
       <c r="A48" s="1"/>
       <c r="D48">
         <f>SUM(D2:D47)</f>
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="E48">
         <f>SUM(E2:E47)</f>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -804,11 +804,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="293137200"/>
-        <c:axId val="293137592"/>
+        <c:axId val="110645920"/>
+        <c:axId val="177377416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="293137200"/>
+        <c:axId val="110645920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,14 +851,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293137592"/>
+        <c:crossAx val="177377416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="293137592"/>
+        <c:axId val="177377416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +909,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293137200"/>
+        <c:crossAx val="110645920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1852,8 +1852,8 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,6 +2600,18 @@
       <c r="A44" s="1">
         <v>43948</v>
       </c>
+      <c r="B44">
+        <v>3436</v>
+      </c>
+      <c r="C44">
+        <v>198</v>
+      </c>
+      <c r="D44">
+        <v>26</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -2620,7 +2632,7 @@
       <c r="A48" s="1"/>
       <c r="D48">
         <f>SUM(D2:D47)</f>
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="E48">
         <f>SUM(E2:E47)</f>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -227,10 +227,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$43</c:f>
+              <c:f>Лист1!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -356,16 +356,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$43</c:f>
+              <c:f>Лист1!$B$2:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -491,6 +497,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3238</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3436</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -525,10 +537,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$43</c:f>
+              <c:f>Лист1!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -654,16 +666,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$43</c:f>
+              <c:f>Лист1!$C$2:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -789,6 +807,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>290</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -804,11 +828,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="110645920"/>
-        <c:axId val="177377416"/>
+        <c:axId val="109193144"/>
+        <c:axId val="109716184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="110645920"/>
+        <c:axId val="109193144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,14 +875,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177377416"/>
+        <c:crossAx val="109716184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="177377416"/>
+        <c:axId val="109716184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +933,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110645920"/>
+        <c:crossAx val="109193144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1852,8 +1876,8 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,6 +2641,18 @@
       <c r="A45" s="1">
         <v>43949</v>
       </c>
+      <c r="B45">
+        <v>3726</v>
+      </c>
+      <c r="C45">
+        <v>290</v>
+      </c>
+      <c r="D45">
+        <v>164</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -2632,11 +2668,11 @@
       <c r="A48" s="1"/>
       <c r="D48">
         <f>SUM(D2:D47)</f>
-        <v>544</v>
+        <v>708</v>
       </c>
       <c r="E48">
         <f>SUM(E2:E47)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -227,10 +227,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$45</c:f>
+              <c:f>Лист1!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -362,16 +362,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$45</c:f>
+              <c:f>Лист1!$B$2:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -503,6 +506,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3726</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,10 +543,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$45</c:f>
+              <c:f>Лист1!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -672,16 +678,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$45</c:f>
+              <c:f>Лист1!$C$2:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -813,6 +822,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,11 +840,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="109193144"/>
-        <c:axId val="109716184"/>
+        <c:axId val="163242376"/>
+        <c:axId val="163242768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="109193144"/>
+        <c:axId val="163242376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,14 +887,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109716184"/>
+        <c:crossAx val="163242768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="109716184"/>
+        <c:axId val="163242768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,7 +945,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109193144"/>
+        <c:crossAx val="163242376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1876,8 +1888,8 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,6 +2670,18 @@
       <c r="A46" s="1">
         <v>43950</v>
       </c>
+      <c r="B46">
+        <v>4062</v>
+      </c>
+      <c r="C46">
+        <v>336</v>
+      </c>
+      <c r="D46">
+        <v>71</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -2668,7 +2692,7 @@
       <c r="A48" s="1"/>
       <c r="D48">
         <f>SUM(D2:D47)</f>
-        <v>708</v>
+        <v>779</v>
       </c>
       <c r="E48">
         <f>SUM(E2:E47)</f>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -227,10 +227,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$46</c:f>
+              <c:f>Лист1!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -365,16 +365,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$46</c:f>
+              <c:f>Лист1!$B$2:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -509,6 +512,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>4062</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -543,10 +549,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$46</c:f>
+              <c:f>Лист1!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -681,16 +687,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$46</c:f>
+              <c:f>Лист1!$C$2:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -825,6 +834,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,11 +852,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="163242376"/>
-        <c:axId val="163242768"/>
+        <c:axId val="50066448"/>
+        <c:axId val="50227552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="163242376"/>
+        <c:axId val="50066448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,14 +899,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163242768"/>
+        <c:crossAx val="50227552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="163242768"/>
+        <c:axId val="50227552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +957,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163242376"/>
+        <c:crossAx val="50066448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1605,17 +1617,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E48" totalsRowCount="1" headerRowDxfId="2">
-  <autoFilter ref="A1:E47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E79" totalsRowCount="1" headerRowDxfId="2">
+  <autoFilter ref="A1:E78"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Дата" dataDxfId="1" totalsRowDxfId="0"/>
     <tableColumn id="2" name="Всего (на дату)"/>
     <tableColumn id="3" name="Новых (на дату)"/>
     <tableColumn id="4" name="Выздоровело" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(D2:D47)</totalsRowFormula>
+      <totalsRowFormula>SUM(D2:D78)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" name="Умерло" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(E2:E47)</totalsRowFormula>
+      <totalsRowFormula>SUM(E2:E78)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1885,11 +1897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,17 +2699,187 @@
       <c r="A47" s="1">
         <v>43951</v>
       </c>
+      <c r="B47">
+        <v>4411</v>
+      </c>
+      <c r="C47">
+        <v>349</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="D48">
-        <f>SUM(D2:D47)</f>
+      <c r="A48" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43972</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="D79">
+        <f>SUM(D2:D78)</f>
         <v>779</v>
       </c>
-      <c r="E48">
-        <f>SUM(E2:E47)</f>
-        <v>29</v>
-      </c>
+      <c r="E79">
+        <f>SUM(E2:E78)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -227,10 +227,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$47</c:f>
+              <c:f>Лист1!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -368,16 +368,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$47</c:f>
+              <c:f>Лист1!$B$2:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -515,6 +518,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>4411</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -549,10 +555,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$47</c:f>
+              <c:f>Лист1!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -690,16 +696,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$47</c:f>
+              <c:f>Лист1!$C$2:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -837,6 +846,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,11 +864,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="50066448"/>
-        <c:axId val="50227552"/>
+        <c:axId val="105729496"/>
+        <c:axId val="167457736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="50066448"/>
+        <c:axId val="105729496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,14 +911,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50227552"/>
+        <c:crossAx val="167457736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="50227552"/>
+        <c:axId val="167457736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +969,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50066448"/>
+        <c:crossAx val="105729496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1901,7 +1913,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,6 +2728,18 @@
       <c r="A48" s="1">
         <v>43952</v>
       </c>
+      <c r="B48">
+        <v>4734</v>
+      </c>
+      <c r="C48">
+        <v>323</v>
+      </c>
+      <c r="D48">
+        <v>98</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -2871,7 +2895,7 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>779</v>
+        <v>877</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -227,10 +227,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$48</c:f>
+              <c:f>Лист1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -371,16 +371,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$48</c:f>
+              <c:f>Лист1!$B$2:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -521,6 +524,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>4734</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -555,10 +561,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$48</c:f>
+              <c:f>Лист1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -699,16 +705,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$48</c:f>
+              <c:f>Лист1!$C$2:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -849,6 +858,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,11 +876,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="105729496"/>
-        <c:axId val="167457736"/>
+        <c:axId val="174498496"/>
+        <c:axId val="174498880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105729496"/>
+        <c:axId val="174498496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,14 +923,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167457736"/>
+        <c:crossAx val="174498880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="167457736"/>
+        <c:axId val="174498880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,7 +981,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105729496"/>
+        <c:crossAx val="174498496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1913,7 +1925,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2741,82 +2753,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43953</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>5029</v>
+      </c>
+      <c r="C49">
+        <v>295</v>
+      </c>
+      <c r="D49">
+        <v>184</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43954</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43955</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43956</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43957</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43958</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43959</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43960</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43961</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43962</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43963</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43964</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43965</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43966</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43967</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43968</v>
       </c>
@@ -2895,11 +2919,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>877</v>
+        <v>1061</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -195,7 +195,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.706680294770846E-2"/>
+          <c:y val="9.8906666666666684E-2"/>
+          <c:w val="0.92631183121340599"/>
+          <c:h val="0.70946288713910766"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -227,10 +237,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$49</c:f>
+              <c:f>Лист1!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -374,16 +384,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$49</c:f>
+              <c:f>Лист1!$B$2:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -527,6 +540,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>5029</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,10 +577,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$49</c:f>
+              <c:f>Лист1!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -708,16 +724,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$49</c:f>
+              <c:f>Лист1!$C$2:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -861,6 +880,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,11 +898,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="174498496"/>
-        <c:axId val="174498880"/>
+        <c:axId val="171361080"/>
+        <c:axId val="171369656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="174498496"/>
+        <c:axId val="171361080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -923,14 +945,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174498880"/>
+        <c:crossAx val="171369656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="174498880"/>
+        <c:axId val="171369656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,7 +1003,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174498496"/>
+        <c:crossAx val="171361080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1924,8 +1946,8 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2774,6 +2796,18 @@
       <c r="A50" s="1">
         <v>43954</v>
       </c>
+      <c r="B50">
+        <v>5346</v>
+      </c>
+      <c r="C50">
+        <v>317</v>
+      </c>
+      <c r="D50">
+        <v>136</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -2919,11 +2953,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>1061</v>
+        <v>1197</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -237,10 +237,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$50</c:f>
+              <c:f>Лист1!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -387,16 +387,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$50</c:f>
+              <c:f>Лист1!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -543,6 +546,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>5346</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -577,10 +583,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$50</c:f>
+              <c:f>Лист1!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -727,16 +733,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$50</c:f>
+              <c:f>Лист1!$C$2:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -883,6 +892,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,11 +910,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="171361080"/>
-        <c:axId val="171369656"/>
+        <c:axId val="164097464"/>
+        <c:axId val="164599472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="171361080"/>
+        <c:axId val="164097464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,14 +957,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171369656"/>
+        <c:crossAx val="164599472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="171369656"/>
+        <c:axId val="164599472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,7 +1015,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171361080"/>
+        <c:crossAx val="164097464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1946,8 +1958,8 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2813,6 +2825,18 @@
       <c r="A51" s="1">
         <v>43955</v>
       </c>
+      <c r="B51">
+        <v>5572</v>
+      </c>
+      <c r="C51">
+        <v>226</v>
+      </c>
+      <c r="D51">
+        <v>271</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
@@ -2953,7 +2977,7 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>1197</v>
+        <v>1468</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -237,10 +237,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$51</c:f>
+              <c:f>Лист1!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -390,16 +390,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$51</c:f>
+              <c:f>Лист1!$B$2:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -549,6 +552,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>5572</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,10 +589,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$51</c:f>
+              <c:f>Лист1!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -736,16 +742,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$51</c:f>
+              <c:f>Лист1!$C$2:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -895,6 +904,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,11 +922,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="164097464"/>
-        <c:axId val="164599472"/>
+        <c:axId val="102221592"/>
+        <c:axId val="164695200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="164097464"/>
+        <c:axId val="102221592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,14 +969,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164599472"/>
+        <c:crossAx val="164695200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164599472"/>
+        <c:axId val="164695200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,7 +1027,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164097464"/>
+        <c:crossAx val="102221592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1959,7 +1971,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
+      <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,6 +2854,18 @@
       <c r="A52" s="1">
         <v>43956</v>
       </c>
+      <c r="B52">
+        <v>5884</v>
+      </c>
+      <c r="C52">
+        <v>312</v>
+      </c>
+      <c r="D52">
+        <v>64</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -2977,11 +3001,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>1468</v>
+        <v>1532</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -237,10 +237,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$52</c:f>
+              <c:f>Лист1!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -393,16 +393,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$52</c:f>
+              <c:f>Лист1!$B$2:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -555,6 +558,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>5884</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6190</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,10 +595,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$52</c:f>
+              <c:f>Лист1!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -745,16 +751,19 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$52</c:f>
+              <c:f>Лист1!$C$2:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -907,6 +916,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -922,11 +934,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="102221592"/>
-        <c:axId val="164695200"/>
+        <c:axId val="98905424"/>
+        <c:axId val="329987760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="102221592"/>
+        <c:axId val="98905424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,14 +981,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164695200"/>
+        <c:crossAx val="329987760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164695200"/>
+        <c:axId val="329987760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,7 +1039,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102221592"/>
+        <c:crossAx val="98905424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1971,7 +1983,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2871,6 +2883,18 @@
       <c r="A53" s="1">
         <v>43957</v>
       </c>
+      <c r="B53">
+        <v>6190</v>
+      </c>
+      <c r="C53">
+        <v>306</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -3001,11 +3025,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>1532</v>
+        <v>1552</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -237,10 +237,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$53</c:f>
+              <c:f>Лист1!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -396,16 +396,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$53</c:f>
+              <c:f>Лист1!$B$2:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -561,6 +564,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>6190</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,10 +601,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$53</c:f>
+              <c:f>Лист1!$A$2:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -754,16 +760,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$53</c:f>
+              <c:f>Лист1!$C$2:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -919,6 +928,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,11 +946,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="98905424"/>
-        <c:axId val="329987760"/>
+        <c:axId val="166261760"/>
+        <c:axId val="166263168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="98905424"/>
+        <c:axId val="166261760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,14 +993,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329987760"/>
+        <c:crossAx val="166263168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="329987760"/>
+        <c:axId val="166263168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1039,7 +1051,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98905424"/>
+        <c:crossAx val="166261760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1983,7 +1995,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2900,6 +2912,18 @@
       <c r="A54" s="1">
         <v>43958</v>
       </c>
+      <c r="B54">
+        <v>6565</v>
+      </c>
+      <c r="C54">
+        <v>375</v>
+      </c>
+      <c r="D54">
+        <v>45</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
@@ -3025,11 +3049,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>1552</v>
+        <v>1597</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -237,10 +237,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$54</c:f>
+              <c:f>Лист1!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -399,16 +399,19 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$54</c:f>
+              <c:f>Лист1!$B$2:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -567,6 +570,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>6565</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -601,10 +607,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$54</c:f>
+              <c:f>Лист1!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -763,16 +769,19 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$54</c:f>
+              <c:f>Лист1!$C$2:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -931,6 +940,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -946,11 +958,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="166261760"/>
-        <c:axId val="166263168"/>
+        <c:axId val="65544560"/>
+        <c:axId val="65544944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="166261760"/>
+        <c:axId val="65544560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,14 +1005,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166263168"/>
+        <c:crossAx val="65544944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="166263168"/>
+        <c:axId val="65544944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,7 +1063,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166261760"/>
+        <c:crossAx val="65544560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1994,8 +2006,8 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,6 +2941,18 @@
       <c r="A55" s="1">
         <v>43959</v>
       </c>
+      <c r="B55">
+        <v>6990</v>
+      </c>
+      <c r="C55">
+        <v>425</v>
+      </c>
+      <c r="D55">
+        <v>65</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -3049,11 +3073,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>1597</v>
+        <v>1662</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -237,10 +237,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$55</c:f>
+              <c:f>Лист1!$A$2:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -402,16 +402,19 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43960</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$55</c:f>
+              <c:f>Лист1!$B$2:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -573,6 +576,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>6990</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,10 +613,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$55</c:f>
+              <c:f>Лист1!$A$2:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -772,16 +778,19 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43960</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$55</c:f>
+              <c:f>Лист1!$C$2:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -943,6 +952,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,11 +970,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="65544560"/>
-        <c:axId val="65544944"/>
+        <c:axId val="101695032"/>
+        <c:axId val="102921984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="65544560"/>
+        <c:axId val="101695032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,14 +1017,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65544944"/>
+        <c:crossAx val="102921984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="65544944"/>
+        <c:axId val="102921984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1075,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65544560"/>
+        <c:crossAx val="101695032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2006,8 +2018,8 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2958,6 +2970,18 @@
       <c r="A56" s="1">
         <v>43960</v>
       </c>
+      <c r="B56">
+        <v>7404</v>
+      </c>
+      <c r="C56">
+        <v>414</v>
+      </c>
+      <c r="D56">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -3073,7 +3097,7 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>1662</v>
+        <v>1674</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -970,11 +970,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="101695032"/>
-        <c:axId val="102921984"/>
+        <c:axId val="284808048"/>
+        <c:axId val="284808440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="101695032"/>
+        <c:axId val="284808048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,14 +1017,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102921984"/>
+        <c:crossAx val="284808440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="102921984"/>
+        <c:axId val="284808440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1075,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101695032"/>
+        <c:crossAx val="284808048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2019,7 +2019,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2987,10 +2987,34 @@
       <c r="A57" s="1">
         <v>43961</v>
       </c>
+      <c r="B57">
+        <v>7711</v>
+      </c>
+      <c r="C57">
+        <v>307</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43962</v>
+      </c>
+      <c r="B58">
+        <v>8050</v>
+      </c>
+      <c r="C58">
+        <v>339</v>
+      </c>
+      <c r="D58">
+        <v>103</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3097,11 +3121,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>1674</v>
+        <v>1784</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -237,184 +237,196 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$56</c:f>
+              <c:f>Лист1!$A$3:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
-                  <c:v>43906</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43907</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43908</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43909</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43910</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43911</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43913</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43914</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43915</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43916</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43917</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43918</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43919</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43920</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43921</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43922</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43923</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43924</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43925</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43926</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43927</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43928</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43929</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43930</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43931</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43932</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43933</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43934</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43935</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43936</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43937</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43938</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43939</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43940</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43941</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43942</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43943</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43944</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43945</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43946</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43947</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43948</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43949</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43950</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43951</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43952</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43953</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43954</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43955</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43956</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43957</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43958</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43959</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43960</c:v>
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$56</c:f>
+              <c:f>Лист1!$B$3:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -422,22 +434,22 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>21</c:v>
@@ -449,136 +461,148 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>98</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>125</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>156</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>171</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>191</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>226</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>295</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>329</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>373</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>408</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>488</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>557</c:v>
+                  <c:v>678</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>678</c:v>
+                  <c:v>799</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>799</c:v>
+                  <c:v>929</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>929</c:v>
+                  <c:v>1083</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1083</c:v>
+                  <c:v>1507</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1507</c:v>
+                  <c:v>1646</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1646</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1760</c:v>
+                  <c:v>1846</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1846</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1973</c:v>
+                  <c:v>2267</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2267</c:v>
+                  <c:v>2458</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2458</c:v>
+                  <c:v>2711</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2711</c:v>
+                  <c:v>2926</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2926</c:v>
+                  <c:v>3077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3077</c:v>
+                  <c:v>3238</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3238</c:v>
+                  <c:v>3436</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3436</c:v>
+                  <c:v>3726</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3726</c:v>
+                  <c:v>4062</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4062</c:v>
+                  <c:v>4411</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4411</c:v>
+                  <c:v>4734</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4734</c:v>
+                  <c:v>5029</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5029</c:v>
+                  <c:v>5346</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5346</c:v>
+                  <c:v>5572</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5572</c:v>
+                  <c:v>5884</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5884</c:v>
+                  <c:v>6190</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6190</c:v>
+                  <c:v>6565</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6565</c:v>
+                  <c:v>6990</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6990</c:v>
+                  <c:v>7404</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7404</c:v>
+                  <c:v>7711</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8050</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8485</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8945</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -613,348 +637,1172 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$56</c:f>
+              <c:f>Лист1!$A$3:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
-                  <c:v>43906</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43907</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43908</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43909</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43910</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43911</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43913</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43914</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43915</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43916</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43917</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43918</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43919</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43920</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43921</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43922</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43923</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43924</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43925</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43926</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43927</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43928</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43929</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43930</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43931</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43932</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43933</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43934</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43935</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43936</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43937</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43938</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43939</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43940</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43941</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43942</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43943</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43944</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43945</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43946</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43947</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43948</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43949</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43950</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43951</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43952</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43953</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43954</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43955</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43956</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43957</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43958</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43959</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43960</c:v>
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$56</c:f>
+              <c:f>Лист1!$C$3:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>80</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>69</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>121</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>130</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>154</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>424</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>139</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>114</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>86</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>127</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>294</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>191</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>253</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>215</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>151</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>161</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>198</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>290</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>336</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>349</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>323</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>295</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>317</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>226</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>312</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>306</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>375</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>425</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>414</c:v>
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Выздоровело</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$3:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Умерло</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$3:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,11 +1818,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="284808048"/>
-        <c:axId val="284808440"/>
+        <c:axId val="172267592"/>
+        <c:axId val="172459872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="284808048"/>
+        <c:axId val="172267592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,14 +1865,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284808440"/>
+        <c:crossAx val="172459872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="284808440"/>
+        <c:axId val="172459872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1923,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284808048"/>
+        <c:crossAx val="172267592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2019,7 +2867,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,15 +3869,51 @@
       <c r="A59" s="1">
         <v>43963</v>
       </c>
+      <c r="B59">
+        <v>8485</v>
+      </c>
+      <c r="C59">
+        <v>435</v>
+      </c>
+      <c r="D59">
+        <v>64</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43964</v>
       </c>
+      <c r="B60">
+        <v>8945</v>
+      </c>
+      <c r="C60">
+        <v>460</v>
+      </c>
+      <c r="D60">
+        <v>51</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43965</v>
+      </c>
+      <c r="B61">
+        <v>10011</v>
+      </c>
+      <c r="C61">
+        <v>525</v>
+      </c>
+      <c r="D61">
+        <v>210</v>
+      </c>
+      <c r="E61">
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3121,11 +4005,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>1784</v>
+        <v>2109</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -237,196 +237,202 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$61</c:f>
+              <c:f>Лист1!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43907</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$3:$B$61</c:f>
+              <c:f>Лист1!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -434,22 +440,22 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>21</c:v>
@@ -461,148 +467,154 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>156</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>171</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>191</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>226</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>295</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>373</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>408</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>488</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>557</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>678</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>799</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>929</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>1083</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>1507</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>1646</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>1760</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>1846</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>1973</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>2267</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>2458</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>2711</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>2926</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>3077</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>3238</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>3436</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>3726</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>4062</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>4411</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>4734</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>5029</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>5346</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>5572</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>5884</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>6190</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>6565</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>6990</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>7404</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>7711</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>8050</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>8485</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>8945</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>10011</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -637,220 +649,226 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$61</c:f>
+              <c:f>Лист1!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43907</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$3:$C$61</c:f>
+              <c:f>Лист1!$C$2:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
@@ -861,148 +879,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>154</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>424</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>139</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>191</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>253</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>215</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>161</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>198</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>290</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>336</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>349</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>323</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>295</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>317</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>226</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>312</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>306</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>375</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>425</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>414</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>307</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>339</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>435</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>460</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,198 +1061,204 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$61</c:f>
+              <c:f>Лист1!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43907</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$3:$D$61</c:f>
+              <c:f>Лист1!$D$2:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1252,11 +1282,11 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1267,16 +1297,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4</c:v>
@@ -1285,124 +1315,130 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>164</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>184</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>271</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1437,196 +1473,202 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$61</c:f>
+              <c:f>Лист1!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43907</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$3:$E$61</c:f>
+              <c:f>Лист1!$E$2:$E$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1676,17 +1718,17 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1694,11 +1736,11 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1709,28 +1751,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3</c:v>
@@ -1745,64 +1787,70 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,11 +1866,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="172267592"/>
-        <c:axId val="172459872"/>
+        <c:axId val="193322280"/>
+        <c:axId val="193326760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="172267592"/>
+        <c:axId val="193322280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,14 +1913,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172459872"/>
+        <c:crossAx val="193326760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="172459872"/>
+        <c:axId val="193326760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1971,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172267592"/>
+        <c:crossAx val="193322280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2867,7 +2915,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3920,6 +3968,18 @@
       <c r="A62" s="1">
         <v>43966</v>
       </c>
+      <c r="B62">
+        <v>10462</v>
+      </c>
+      <c r="C62">
+        <v>451</v>
+      </c>
+      <c r="D62">
+        <v>66</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -4005,11 +4065,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>2109</v>
+        <v>2175</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -237,10 +237,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$62</c:f>
+              <c:f>Лист1!$A$2:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -423,16 +423,19 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$62</c:f>
+              <c:f>Лист1!$B$2:$B$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -615,6 +618,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>10462</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -649,10 +655,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$62</c:f>
+              <c:f>Лист1!$A$2:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -835,16 +841,19 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$62</c:f>
+              <c:f>Лист1!$C$2:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1027,6 +1036,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,10 +1073,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$62</c:f>
+              <c:f>Лист1!$A$2:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1247,16 +1259,19 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$62</c:f>
+              <c:f>Лист1!$D$2:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1439,6 +1454,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1473,10 +1491,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$62</c:f>
+              <c:f>Лист1!$A$2:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1659,16 +1677,19 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$62</c:f>
+              <c:f>Лист1!$E$2:$E$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1850,6 +1871,9 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="60">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1866,11 +1890,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="193322280"/>
-        <c:axId val="193326760"/>
+        <c:axId val="167707736"/>
+        <c:axId val="167712216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="193322280"/>
+        <c:axId val="167707736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,14 +1937,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193326760"/>
+        <c:crossAx val="167712216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="193326760"/>
+        <c:axId val="167712216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,7 +1995,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193322280"/>
+        <c:crossAx val="167707736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2915,7 +2939,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3985,6 +4009,18 @@
       <c r="A63" s="1">
         <v>43967</v>
       </c>
+      <c r="B63">
+        <v>10887</v>
+      </c>
+      <c r="C63">
+        <v>425</v>
+      </c>
+      <c r="D63">
+        <v>34</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -4065,11 +4101,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>2175</v>
+        <v>2209</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -237,10 +237,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$63</c:f>
+              <c:f>Лист1!$A$2:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -426,16 +426,19 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$63</c:f>
+              <c:f>Лист1!$B$2:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -621,6 +624,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>10887</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11340</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,10 +661,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$63</c:f>
+              <c:f>Лист1!$A$2:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -844,16 +850,19 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$63</c:f>
+              <c:f>Лист1!$C$2:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1039,6 +1048,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,10 +1085,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$63</c:f>
+              <c:f>Лист1!$A$2:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1262,16 +1274,19 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$63</c:f>
+              <c:f>Лист1!$D$2:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1457,6 +1472,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,10 +1509,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$63</c:f>
+              <c:f>Лист1!$A$2:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1680,16 +1698,19 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$63</c:f>
+              <c:f>Лист1!$E$2:$E$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1874,6 +1895,9 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1890,11 +1914,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="167707736"/>
-        <c:axId val="167712216"/>
+        <c:axId val="172631656"/>
+        <c:axId val="111669944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="167707736"/>
+        <c:axId val="172631656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,14 +1961,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167712216"/>
+        <c:crossAx val="111669944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="167712216"/>
+        <c:axId val="111669944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1995,7 +2019,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167707736"/>
+        <c:crossAx val="172631656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2939,7 +2963,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4026,6 +4050,18 @@
       <c r="A64" s="1">
         <v>43968</v>
       </c>
+      <c r="B64">
+        <v>11340</v>
+      </c>
+      <c r="C64">
+        <v>453</v>
+      </c>
+      <c r="D64">
+        <v>63</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -4101,11 +4137,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>2209</v>
+        <v>2272</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -435,10 +435,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$64</c:f>
+              <c:f>Лист1!$B$2:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -616,16 +616,16 @@
                 <c:pt idx="58">
                   <c:v>8945</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>10011</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>10462</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>10887</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>11340</c:v>
                 </c:pt>
               </c:numCache>
@@ -859,10 +859,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$64</c:f>
+              <c:f>Лист1!$C$2:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1040,16 +1040,16 @@
                 <c:pt idx="58">
                   <c:v>460</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>525</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>451</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>425</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>453</c:v>
                 </c:pt>
               </c:numCache>
@@ -1283,10 +1283,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$64</c:f>
+              <c:f>Лист1!$D$2:$D$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1464,16 +1464,16 @@
                 <c:pt idx="58">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>210</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
@@ -1707,10 +1707,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$64</c:f>
+              <c:f>Лист1!$E$2:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1888,16 +1888,16 @@
                 <c:pt idx="58">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1914,11 +1914,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="172631656"/>
-        <c:axId val="111669944"/>
+        <c:axId val="103708320"/>
+        <c:axId val="102463984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="172631656"/>
+        <c:axId val="103708320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,14 +1961,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111669944"/>
+        <c:crossAx val="102463984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="111669944"/>
+        <c:axId val="102463984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,7 +2019,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172631656"/>
+        <c:crossAx val="103708320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2963,7 +2963,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3999,34 +3999,22 @@
       <c r="A61" s="1">
         <v>43965</v>
       </c>
-      <c r="B61">
-        <v>10011</v>
-      </c>
-      <c r="C61">
-        <v>525</v>
-      </c>
-      <c r="D61">
-        <v>210</v>
-      </c>
-      <c r="E61">
-        <v>11</v>
-      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43966</v>
       </c>
       <c r="B62">
-        <v>10462</v>
+        <v>10011</v>
       </c>
       <c r="C62">
-        <v>451</v>
+        <v>525</v>
       </c>
       <c r="D62">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4034,13 +4022,13 @@
         <v>43967</v>
       </c>
       <c r="B63">
-        <v>10887</v>
+        <v>10462</v>
       </c>
       <c r="C63">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="D63">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E63">
         <v>5</v>
@@ -4051,13 +4039,13 @@
         <v>43968</v>
       </c>
       <c r="B64">
-        <v>11340</v>
+        <v>10887</v>
       </c>
       <c r="C64">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="D64">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E64">
         <v>5</v>
@@ -4067,10 +4055,34 @@
       <c r="A65" s="1">
         <v>43969</v>
       </c>
+      <c r="B65">
+        <v>11340</v>
+      </c>
+      <c r="C65">
+        <v>453</v>
+      </c>
+      <c r="D65">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43970</v>
+      </c>
+      <c r="B66">
+        <v>11795</v>
+      </c>
+      <c r="C66">
+        <v>455</v>
+      </c>
+      <c r="D66">
+        <v>208</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4137,11 +4149,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>2272</v>
+        <v>2480</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -237,10 +237,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$64</c:f>
+              <c:f>Лист1!$A$2:$A$67</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -429,6 +429,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -661,10 +670,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$64</c:f>
+              <c:f>Лист1!$A$2:$A$67</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -853,6 +862,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,10 +1103,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$64</c:f>
+              <c:f>Лист1!$A$2:$A$67</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1277,6 +1295,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,10 +1536,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$64</c:f>
+              <c:f>Лист1!$A$2:$A$67</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1701,6 +1728,15 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,11 +1950,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="103708320"/>
-        <c:axId val="102463984"/>
+        <c:axId val="172261888"/>
+        <c:axId val="171227184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103708320"/>
+        <c:axId val="172261888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,14 +1997,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102463984"/>
+        <c:crossAx val="171227184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="102463984"/>
+        <c:axId val="171227184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,7 +2055,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103708320"/>
+        <c:crossAx val="172261888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2963,7 +2999,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4089,6 +4125,18 @@
       <c r="A67" s="1">
         <v>43971</v>
       </c>
+      <c r="B67">
+        <v>12203</v>
+      </c>
+      <c r="C67">
+        <v>408</v>
+      </c>
+      <c r="D67">
+        <v>181</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -4149,11 +4197,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>2480</v>
+        <v>2661</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -237,10 +237,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$67</c:f>
+              <c:f>Лист1!$A$2:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -438,16 +438,49 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$65</c:f>
+              <c:f>Лист1!$B$2:$B$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -636,6 +669,18 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>11340</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11795</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12203</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12592</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,7 +704,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -670,10 +715,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$67</c:f>
+              <c:f>Лист1!$A$2:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -871,16 +916,49 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$65</c:f>
+              <c:f>Лист1!$C$2:$C$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1069,6 +1147,18 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,6 +1175,484 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Выздоровело</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Умерло</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1103,10 +1671,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$67</c:f>
+              <c:f>Лист1!$A$2:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1304,449 +1872,49 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$65</c:f>
+              <c:f>Лист1!$E$2:$E$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Умерло</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$2:$A$67</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="66"/>
-                <c:pt idx="0">
-                  <c:v>43906</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43907</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43925</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43926</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43927</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43928</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43929</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43930</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43931</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43932</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43933</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43934</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43935</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43936</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43937</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43938</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43939</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43940</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43941</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43942</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43943</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43944</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43945</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43946</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43947</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43948</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43949</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43950</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43951</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43952</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43953</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43954</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43955</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43956</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43957</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43958</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43959</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43960</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43961</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43962</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43963</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43964</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43965</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43966</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43967</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43968</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43969</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43970</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43971</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$E$2:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1935,6 +2103,18 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1950,11 +2130,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="172261888"/>
-        <c:axId val="171227184"/>
+        <c:axId val="165563984"/>
+        <c:axId val="165565904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="172261888"/>
+        <c:axId val="165563984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,14 +2177,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171227184"/>
+        <c:crossAx val="165565904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="171227184"/>
+        <c:axId val="165565904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2055,7 +2235,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172261888"/>
+        <c:crossAx val="165563984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2684,15 +2864,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2999,7 +3179,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4142,10 +4322,34 @@
       <c r="A68" s="1">
         <v>43972</v>
       </c>
+      <c r="B68">
+        <v>12592</v>
+      </c>
+      <c r="C68">
+        <v>389</v>
+      </c>
+      <c r="D68">
+        <v>220</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43973</v>
+      </c>
+      <c r="B69">
+        <v>12955</v>
+      </c>
+      <c r="C69">
+        <v>363</v>
+      </c>
+      <c r="D69">
+        <v>243</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4197,11 +4401,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>2661</v>
+        <v>3124</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -682,6 +682,9 @@
                 <c:pt idx="67">
                   <c:v>12955</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>13339</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1160,6 +1163,9 @@
                 <c:pt idx="67">
                   <c:v>363</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>384</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1638,6 +1644,9 @@
                 <c:pt idx="67">
                   <c:v>243</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>328</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2116,6 +2125,9 @@
                 <c:pt idx="67">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2130,11 +2142,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="165563984"/>
-        <c:axId val="165565904"/>
+        <c:axId val="165011048"/>
+        <c:axId val="165011832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="165563984"/>
+        <c:axId val="165011048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,14 +2189,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165565904"/>
+        <c:crossAx val="165011832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="165565904"/>
+        <c:axId val="165011832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,7 +2247,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165563984"/>
+        <c:crossAx val="165011048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3179,7 +3191,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4356,6 +4368,18 @@
       <c r="A70" s="1">
         <v>43974</v>
       </c>
+      <c r="B70">
+        <v>13339</v>
+      </c>
+      <c r="C70">
+        <v>384</v>
+      </c>
+      <c r="D70">
+        <v>328</v>
+      </c>
+      <c r="E70">
+        <v>20</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -4401,11 +4425,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>3124</v>
+        <v>3452</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -685,6 +685,9 @@
                 <c:pt idx="68">
                   <c:v>13339</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>13713</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1166,6 +1169,9 @@
                 <c:pt idx="68">
                   <c:v>384</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>374</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1647,6 +1653,9 @@
                 <c:pt idx="68">
                   <c:v>328</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>138</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2128,6 +2137,9 @@
                 <c:pt idx="68">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2142,11 +2154,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="165011048"/>
-        <c:axId val="165011832"/>
+        <c:axId val="104132712"/>
+        <c:axId val="171358400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="165011048"/>
+        <c:axId val="104132712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2189,14 +2201,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165011832"/>
+        <c:crossAx val="171358400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="165011832"/>
+        <c:axId val="171358400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,7 +2259,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165011048"/>
+        <c:crossAx val="104132712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4385,6 +4397,18 @@
       <c r="A71" s="1">
         <v>43975</v>
       </c>
+      <c r="B71">
+        <v>13713</v>
+      </c>
+      <c r="C71">
+        <v>374</v>
+      </c>
+      <c r="D71">
+        <v>138</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -4425,11 +4449,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>3452</v>
+        <v>3590</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -688,6 +688,9 @@
                 <c:pt idx="69">
                   <c:v>13713</c:v>
                 </c:pt>
+                <c:pt idx="70">
+                  <c:v>14076</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1172,6 +1175,9 @@
                 <c:pt idx="69">
                   <c:v>374</c:v>
                 </c:pt>
+                <c:pt idx="70">
+                  <c:v>363</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1656,6 +1662,9 @@
                 <c:pt idx="69">
                   <c:v>138</c:v>
                 </c:pt>
+                <c:pt idx="70">
+                  <c:v>154</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2140,6 +2149,9 @@
                 <c:pt idx="69">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="70">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2154,11 +2166,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="104132712"/>
-        <c:axId val="171358400"/>
+        <c:axId val="165689696"/>
+        <c:axId val="165690080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="104132712"/>
+        <c:axId val="165689696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,14 +2213,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171358400"/>
+        <c:crossAx val="165690080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="171358400"/>
+        <c:axId val="165690080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2271,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104132712"/>
+        <c:crossAx val="165689696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3202,8 +3214,8 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4414,6 +4426,18 @@
       <c r="A72" s="1">
         <v>43976</v>
       </c>
+      <c r="B72">
+        <v>14076</v>
+      </c>
+      <c r="C72">
+        <v>363</v>
+      </c>
+      <c r="D72">
+        <v>154</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -4449,11 +4473,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>3590</v>
+        <v>3744</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -691,6 +691,9 @@
                 <c:pt idx="70">
                   <c:v>14076</c:v>
                 </c:pt>
+                <c:pt idx="71">
+                  <c:v>14463</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1178,6 +1181,9 @@
                 <c:pt idx="70">
                   <c:v>363</c:v>
                 </c:pt>
+                <c:pt idx="71">
+                  <c:v>387</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1665,6 +1671,9 @@
                 <c:pt idx="70">
                   <c:v>154</c:v>
                 </c:pt>
+                <c:pt idx="71">
+                  <c:v>714</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2152,6 +2161,9 @@
                 <c:pt idx="70">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="71">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2166,11 +2178,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="165689696"/>
-        <c:axId val="165690080"/>
+        <c:axId val="234577848"/>
+        <c:axId val="234580984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="165689696"/>
+        <c:axId val="234577848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,14 +2225,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165690080"/>
+        <c:crossAx val="234580984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="165690080"/>
+        <c:axId val="234580984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,7 +2283,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165689696"/>
+        <c:crossAx val="234577848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3214,7 +3226,7 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -4443,6 +4455,18 @@
       <c r="A73" s="1">
         <v>43977</v>
       </c>
+      <c r="B73">
+        <v>14463</v>
+      </c>
+      <c r="C73">
+        <v>387</v>
+      </c>
+      <c r="D73">
+        <v>714</v>
+      </c>
+      <c r="E73">
+        <v>8</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -4473,11 +4497,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>3744</v>
+        <v>4458</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -694,6 +694,9 @@
                 <c:pt idx="71">
                   <c:v>14463</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>14846</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1184,6 +1187,9 @@
                 <c:pt idx="71">
                   <c:v>387</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>383</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1674,6 +1680,9 @@
                 <c:pt idx="71">
                   <c:v>714</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>325</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2164,6 +2173,9 @@
                 <c:pt idx="71">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2178,11 +2190,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="234577848"/>
-        <c:axId val="234580984"/>
+        <c:axId val="165485864"/>
+        <c:axId val="165488296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="234577848"/>
+        <c:axId val="165485864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,14 +2237,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234580984"/>
+        <c:crossAx val="165488296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="234580984"/>
+        <c:axId val="165488296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,7 +2295,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234577848"/>
+        <c:crossAx val="165485864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4472,6 +4484,18 @@
       <c r="A74" s="1">
         <v>43978</v>
       </c>
+      <c r="B74">
+        <v>14846</v>
+      </c>
+      <c r="C74">
+        <v>383</v>
+      </c>
+      <c r="D74">
+        <v>325</v>
+      </c>
+      <c r="E74">
+        <v>9</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -4497,11 +4521,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>4458</v>
+        <v>4783</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -697,6 +697,9 @@
                 <c:pt idx="72">
                   <c:v>14846</c:v>
                 </c:pt>
+                <c:pt idx="73">
+                  <c:v>15215</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1190,6 +1193,9 @@
                 <c:pt idx="72">
                   <c:v>383</c:v>
                 </c:pt>
+                <c:pt idx="73">
+                  <c:v>369</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1683,6 +1689,9 @@
                 <c:pt idx="72">
                   <c:v>325</c:v>
                 </c:pt>
+                <c:pt idx="73">
+                  <c:v>330</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2176,6 +2185,9 @@
                 <c:pt idx="72">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="73">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2190,11 +2202,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="165485864"/>
-        <c:axId val="165488296"/>
+        <c:axId val="16138560"/>
+        <c:axId val="169645488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="165485864"/>
+        <c:axId val="16138560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,14 +2249,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165488296"/>
+        <c:crossAx val="169645488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="165488296"/>
+        <c:axId val="169645488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2307,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165485864"/>
+        <c:crossAx val="16138560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4501,6 +4513,18 @@
       <c r="A75" s="1">
         <v>43979</v>
       </c>
+      <c r="B75">
+        <v>15215</v>
+      </c>
+      <c r="C75">
+        <v>369</v>
+      </c>
+      <c r="D75">
+        <v>330</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -4521,11 +4545,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>4783</v>
+        <v>5113</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -700,6 +700,9 @@
                 <c:pt idx="73">
                   <c:v>15215</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>15580</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1196,6 +1199,9 @@
                 <c:pt idx="73">
                   <c:v>369</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>365</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1692,6 +1698,9 @@
                 <c:pt idx="73">
                   <c:v>330</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>260</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2188,6 +2197,9 @@
                 <c:pt idx="73">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2202,11 +2214,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="16138560"/>
-        <c:axId val="169645488"/>
+        <c:axId val="169793248"/>
+        <c:axId val="169793632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="16138560"/>
+        <c:axId val="169793248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,14 +2261,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169645488"/>
+        <c:crossAx val="169793632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="169645488"/>
+        <c:axId val="169793632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,7 +2319,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16138560"/>
+        <c:crossAx val="169793248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4530,6 +4542,18 @@
       <c r="A76" s="1">
         <v>43980</v>
       </c>
+      <c r="B76">
+        <v>15580</v>
+      </c>
+      <c r="C76">
+        <v>365</v>
+      </c>
+      <c r="D76">
+        <v>260</v>
+      </c>
+      <c r="E76">
+        <v>13</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -4545,11 +4569,11 @@
       <c r="A79" s="1"/>
       <c r="D79">
         <f>SUM(D2:D78)</f>
-        <v>5113</v>
+        <v>5373</v>
       </c>
       <c r="E79">
         <f>SUM(E2:E78)</f>
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -237,10 +237,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$78</c:f>
+              <c:f>Лист1!$A$2:$A$88</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -471,16 +471,46 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$78</c:f>
+              <c:f>Лист1!$B$2:$B$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -702,6 +732,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>15580</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,10 +769,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$78</c:f>
+              <c:f>Лист1!$A$2:$A$88</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -970,16 +1003,46 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$78</c:f>
+              <c:f>Лист1!$C$2:$C$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1201,6 +1264,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1235,10 +1301,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$78</c:f>
+              <c:f>Лист1!$A$2:$A$88</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1469,16 +1535,46 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$78</c:f>
+              <c:f>Лист1!$D$2:$D$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1700,6 +1796,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,10 +1833,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$78</c:f>
+              <c:f>Лист1!$A$2:$A$88</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1968,16 +2067,46 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$78</c:f>
+              <c:f>Лист1!$E$2:$E$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2198,6 +2327,9 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
@@ -2214,11 +2346,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="169793248"/>
-        <c:axId val="169793632"/>
+        <c:axId val="168004224"/>
+        <c:axId val="168340424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="169793248"/>
+        <c:axId val="168004224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,14 +2393,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169793632"/>
+        <c:crossAx val="168340424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="169793632"/>
+        <c:axId val="168340424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2319,7 +2451,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169793248"/>
+        <c:crossAx val="168004224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2979,17 +3111,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E79" totalsRowCount="1" headerRowDxfId="2">
-  <autoFilter ref="A1:E78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E89" totalsRowCount="1" headerRowDxfId="2">
+  <autoFilter ref="A1:E88"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Дата" dataDxfId="1" totalsRowDxfId="0"/>
     <tableColumn id="2" name="Всего (на дату)"/>
     <tableColumn id="3" name="Новых (на дату)"/>
     <tableColumn id="4" name="Выздоровело" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(D2:D78)</totalsRowFormula>
+      <totalsRowFormula>SUM(D2:D88)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" name="Умерло" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(E2:E78)</totalsRowFormula>
+      <totalsRowFormula>SUM(E2:E88)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3259,7 +3391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4559,6 +4691,18 @@
       <c r="A77" s="1">
         <v>43981</v>
       </c>
+      <c r="B77">
+        <v>15949</v>
+      </c>
+      <c r="C77">
+        <v>369</v>
+      </c>
+      <c r="D77">
+        <v>307</v>
+      </c>
+      <c r="E77">
+        <v>13</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -4566,18 +4710,65 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="D79">
-        <f>SUM(D2:D78)</f>
-        <v>5373</v>
-      </c>
-      <c r="E79">
-        <f>SUM(E2:E78)</f>
-        <v>191</v>
+      <c r="A79" s="1">
+        <v>43983</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="D89">
+        <f>SUM(D2:D88)</f>
+        <v>5680</v>
+      </c>
+      <c r="E89">
+        <f>SUM(E2:E88)</f>
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -736,6 +736,9 @@
                 <c:pt idx="75">
                   <c:v>15949</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>16313</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1268,6 +1271,9 @@
                 <c:pt idx="75">
                   <c:v>369</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>364</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1800,6 +1806,9 @@
                 <c:pt idx="75">
                   <c:v>307</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>68</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2332,6 +2341,9 @@
                 <c:pt idx="75">
                   <c:v>13</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2346,11 +2358,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="168004224"/>
-        <c:axId val="168340424"/>
+        <c:axId val="172105720"/>
+        <c:axId val="172116344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="168004224"/>
+        <c:axId val="172105720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2393,14 +2405,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168340424"/>
+        <c:crossAx val="172116344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168340424"/>
+        <c:axId val="172116344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2463,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168004224"/>
+        <c:crossAx val="172105720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4708,6 +4720,18 @@
       <c r="A78" s="1">
         <v>43982</v>
       </c>
+      <c r="B78">
+        <v>16313</v>
+      </c>
+      <c r="C78">
+        <v>364</v>
+      </c>
+      <c r="D78">
+        <v>68</v>
+      </c>
+      <c r="E78">
+        <v>9</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -4763,11 +4787,11 @@
       <c r="A89" s="1"/>
       <c r="D89">
         <f>SUM(D2:D88)</f>
-        <v>5680</v>
+        <v>5748</v>
       </c>
       <c r="E89">
         <f>SUM(E2:E88)</f>
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -739,6 +739,9 @@
                 <c:pt idx="76">
                   <c:v>16313</c:v>
                 </c:pt>
+                <c:pt idx="77">
+                  <c:v>16689</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1274,6 +1277,9 @@
                 <c:pt idx="76">
                   <c:v>364</c:v>
                 </c:pt>
+                <c:pt idx="77">
+                  <c:v>376</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1809,6 +1815,9 @@
                 <c:pt idx="76">
                   <c:v>68</c:v>
                 </c:pt>
+                <c:pt idx="77">
+                  <c:v>260</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2344,6 +2353,9 @@
                 <c:pt idx="76">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="77">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2358,11 +2370,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="172105720"/>
-        <c:axId val="172116344"/>
+        <c:axId val="167086080"/>
+        <c:axId val="167086464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="172105720"/>
+        <c:axId val="167086080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,14 +2417,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172116344"/>
+        <c:crossAx val="167086464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="172116344"/>
+        <c:axId val="167086464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,7 +2475,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172105720"/>
+        <c:crossAx val="167086080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4737,6 +4749,18 @@
       <c r="A79" s="1">
         <v>43983</v>
       </c>
+      <c r="B79">
+        <v>16689</v>
+      </c>
+      <c r="C79">
+        <v>376</v>
+      </c>
+      <c r="D79">
+        <v>260</v>
+      </c>
+      <c r="E79">
+        <v>10</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
@@ -4787,11 +4811,11 @@
       <c r="A89" s="1"/>
       <c r="D89">
         <f>SUM(D2:D88)</f>
-        <v>5748</v>
+        <v>6008</v>
       </c>
       <c r="E89">
         <f>SUM(E2:E88)</f>
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -91,9 +91,12 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -742,6 +745,9 @@
                 <c:pt idx="77">
                   <c:v>16689</c:v>
                 </c:pt>
+                <c:pt idx="78">
+                  <c:v>17069</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1280,6 +1286,9 @@
                 <c:pt idx="77">
                   <c:v>376</c:v>
                 </c:pt>
+                <c:pt idx="78">
+                  <c:v>380</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1818,6 +1827,9 @@
                 <c:pt idx="77">
                   <c:v>260</c:v>
                 </c:pt>
+                <c:pt idx="78">
+                  <c:v>323</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2356,6 +2368,9 @@
                 <c:pt idx="77">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="78">
+                  <c:v>17</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2370,11 +2385,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="167086080"/>
-        <c:axId val="167086464"/>
+        <c:axId val="12027728"/>
+        <c:axId val="167376632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="167086080"/>
+        <c:axId val="12027728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2417,14 +2432,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167086464"/>
+        <c:crossAx val="167376632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="167086464"/>
+        <c:axId val="167376632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2475,7 +2490,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167086080"/>
+        <c:crossAx val="12027728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3135,11 +3150,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E89" totalsRowCount="1" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E89" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A1:E88"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Дата" dataDxfId="1" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="Всего (на дату)"/>
+    <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Всего (на дату)" dataDxfId="1"/>
     <tableColumn id="3" name="Новых (на дату)"/>
     <tableColumn id="4" name="Выздоровело" totalsRowFunction="custom">
       <totalsRowFormula>SUM(D2:D88)</totalsRowFormula>
@@ -3418,7 +3433,7 @@
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -4766,6 +4781,19 @@
       <c r="A80" s="1">
         <v>43984</v>
       </c>
+      <c r="B80">
+        <f>B79+Таблица1[[#This Row],[Новых (на дату)]]</f>
+        <v>17069</v>
+      </c>
+      <c r="C80">
+        <v>380</v>
+      </c>
+      <c r="D80">
+        <v>323</v>
+      </c>
+      <c r="E80">
+        <v>17</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
@@ -4811,11 +4839,11 @@
       <c r="A89" s="1"/>
       <c r="D89">
         <f>SUM(D2:D88)</f>
-        <v>6008</v>
+        <v>6331</v>
       </c>
       <c r="E89">
         <f>SUM(E2:E88)</f>
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -748,6 +748,9 @@
                 <c:pt idx="78">
                   <c:v>17069</c:v>
                 </c:pt>
+                <c:pt idx="79">
+                  <c:v>17444</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1289,6 +1292,9 @@
                 <c:pt idx="78">
                   <c:v>380</c:v>
                 </c:pt>
+                <c:pt idx="79">
+                  <c:v>375</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1830,6 +1836,9 @@
                 <c:pt idx="78">
                   <c:v>323</c:v>
                 </c:pt>
+                <c:pt idx="79">
+                  <c:v>364</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2371,6 +2380,9 @@
                 <c:pt idx="78">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="79">
+                  <c:v>24</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2385,11 +2397,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="12027728"/>
-        <c:axId val="167376632"/>
+        <c:axId val="168943400"/>
+        <c:axId val="168947880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="12027728"/>
+        <c:axId val="168943400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,14 +2444,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167376632"/>
+        <c:crossAx val="168947880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="167376632"/>
+        <c:axId val="168947880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2490,7 +2502,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12027728"/>
+        <c:crossAx val="168943400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3433,7 +3445,7 @@
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -4799,6 +4811,19 @@
       <c r="A81" s="1">
         <v>43985</v>
       </c>
+      <c r="B81">
+        <f>B80+Таблица1[[#This Row],[Новых (на дату)]]</f>
+        <v>17444</v>
+      </c>
+      <c r="C81">
+        <v>375</v>
+      </c>
+      <c r="D81">
+        <v>364</v>
+      </c>
+      <c r="E81">
+        <v>24</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
@@ -4839,11 +4864,11 @@
       <c r="A89" s="1"/>
       <c r="D89">
         <f>SUM(D2:D88)</f>
-        <v>6331</v>
+        <v>6695</v>
       </c>
       <c r="E89">
         <f>SUM(E2:E88)</f>
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -29,16 +29,20 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>Выздоровело</t>
+    <t>Выздоровело
+(за сутки)</t>
   </si>
   <si>
-    <t>Умерло</t>
+    <t>Умерло
+(за сутки)</t>
   </si>
   <si>
-    <t>Всего (на дату)</t>
+    <t>Новых
+ (за сутки)</t>
   </si>
   <si>
-    <t>Новых (на дату)</t>
+    <t>Всего
+(на дату)</t>
   </si>
 </sst>
 </file>
@@ -75,7 +79,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -87,6 +91,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -221,7 +226,8 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Всего (на дату)</c:v>
+                  <c:v>Всего
+(на дату)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -240,10 +246,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$88</c:f>
+              <c:f>Лист1!$A$2:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="107"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -504,16 +510,76 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$88</c:f>
+              <c:f>Лист1!$B$2:$B$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="107"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -691,6 +757,9 @@
                 <c:pt idx="58">
                   <c:v>8945</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>9486</c:v>
+                </c:pt>
                 <c:pt idx="60">
                   <c:v>10011</c:v>
                 </c:pt>
@@ -750,6 +819,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>17444</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>17822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,7 +837,8 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Новых (на дату)</c:v>
+                  <c:v>Новых
+ (за сутки)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -784,10 +857,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$88</c:f>
+              <c:f>Лист1!$A$2:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="107"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1048,16 +1121,76 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$88</c:f>
+              <c:f>Лист1!$C$2:$C$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="107"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1235,6 +1368,9 @@
                 <c:pt idx="58">
                   <c:v>460</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>541</c:v>
+                </c:pt>
                 <c:pt idx="60">
                   <c:v>525</c:v>
                 </c:pt>
@@ -1294,6 +1430,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,7 +1448,8 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Выздоровело</c:v>
+                  <c:v>Выздоровело
+(за сутки)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1328,10 +1468,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$88</c:f>
+              <c:f>Лист1!$A$2:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="107"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1592,16 +1732,76 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$88</c:f>
+              <c:f>Лист1!$D$2:$D$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="107"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1779,8 +1979,11 @@
                 <c:pt idx="58">
                   <c:v>51</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>110</c:v>
+                </c:pt>
                 <c:pt idx="60">
-                  <c:v>210</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>66</c:v>
@@ -1838,6 +2041,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1853,7 +2059,8 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Умерло</c:v>
+                  <c:v>Умерло
+(за сутки)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1872,10 +2079,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$88</c:f>
+              <c:f>Лист1!$A$2:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="107"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -2136,16 +2343,76 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$88</c:f>
+              <c:f>Лист1!$E$2:$E$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="107"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2323,8 +2590,11 @@
                 <c:pt idx="58">
                   <c:v>6</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
                 <c:pt idx="60">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>5</c:v>
@@ -2382,6 +2652,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,11 +2670,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="168943400"/>
-        <c:axId val="168947880"/>
+        <c:axId val="171221592"/>
+        <c:axId val="171224024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="168943400"/>
+        <c:axId val="171221592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,14 +2717,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168947880"/>
+        <c:crossAx val="171224024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168947880"/>
+        <c:axId val="171224024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,7 +2775,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168943400"/>
+        <c:crossAx val="171221592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3162,17 +3435,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E89" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A1:E88"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E109" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A1:E108"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="Всего (на дату)" dataDxfId="1"/>
-    <tableColumn id="3" name="Новых (на дату)"/>
-    <tableColumn id="4" name="Выздоровело" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(D2:D88)</totalsRowFormula>
+    <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="1"/>
+    <tableColumn id="3" name="Новых_x000a_ (за сутки)"/>
+    <tableColumn id="4" name="Выздоровело_x000a_(за сутки)" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(D2:D108)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Умерло" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(E2:E88)</totalsRowFormula>
+    <tableColumn id="5" name="Умерло_x000a_(за сутки)" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(E2:E108)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3442,7 +3715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3463,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -4482,6 +4755,18 @@
       <c r="A61" s="1">
         <v>43965</v>
       </c>
+      <c r="B61">
+        <v>9486</v>
+      </c>
+      <c r="C61">
+        <v>541</v>
+      </c>
+      <c r="D61">
+        <v>110</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -4494,10 +4779,10 @@
         <v>525</v>
       </c>
       <c r="D62">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="E62">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4794,7 +5079,8 @@
         <v>43984</v>
       </c>
       <c r="B80">
-        <f>B79+Таблица1[[#This Row],[Новых (на дату)]]</f>
+        <f>B79+Таблица1[[#This Row],[Новых
+ (за сутки)]]</f>
         <v>17069</v>
       </c>
       <c r="C80">
@@ -4812,7 +5098,8 @@
         <v>43985</v>
       </c>
       <c r="B81">
-        <f>B80+Таблица1[[#This Row],[Новых (на дату)]]</f>
+        <f>B80+Таблица1[[#This Row],[Новых
+ (за сутки)]]</f>
         <v>17444</v>
       </c>
       <c r="C81">
@@ -4829,6 +5116,21 @@
       <c r="A82" s="1">
         <v>43986</v>
       </c>
+      <c r="B82">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B81+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>17822</v>
+      </c>
+      <c r="C82">
+        <v>378</v>
+      </c>
+      <c r="D82">
+        <v>381</v>
+      </c>
+      <c r="E82">
+        <v>27</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
@@ -4861,15 +5163,159 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="D89">
-        <f>SUM(D2:D88)</f>
-        <v>6695</v>
-      </c>
-      <c r="E89">
-        <f>SUM(E2:E88)</f>
-        <v>264</v>
-      </c>
+      <c r="A89" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B105" s="5"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="D109">
+        <f>SUM(D2:D108)</f>
+        <v>7076</v>
+      </c>
+      <c r="E109">
+        <f>SUM(E2:E108)</f>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="5"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="5"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -823,6 +823,9 @@
                 <c:pt idx="80">
                   <c:v>17822</c:v>
                 </c:pt>
+                <c:pt idx="81">
+                  <c:v>18169</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1434,6 +1437,9 @@
                 <c:pt idx="80">
                   <c:v>378</c:v>
                 </c:pt>
+                <c:pt idx="81">
+                  <c:v>347</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2045,6 +2051,9 @@
                 <c:pt idx="80">
                   <c:v>381</c:v>
                 </c:pt>
+                <c:pt idx="81">
+                  <c:v>386</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2656,6 +2665,9 @@
                 <c:pt idx="80">
                   <c:v>27</c:v>
                 </c:pt>
+                <c:pt idx="81">
+                  <c:v>55</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2670,11 +2682,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="171221592"/>
-        <c:axId val="171224024"/>
+        <c:axId val="170329192"/>
+        <c:axId val="170333672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="171221592"/>
+        <c:axId val="170329192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,14 +2729,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171224024"/>
+        <c:crossAx val="170333672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="171224024"/>
+        <c:axId val="170333672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2775,7 +2787,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171221592"/>
+        <c:crossAx val="170329192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5136,6 +5148,21 @@
       <c r="A83" s="1">
         <v>43987</v>
       </c>
+      <c r="B83">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B82+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>18169</v>
+      </c>
+      <c r="C83">
+        <v>347</v>
+      </c>
+      <c r="D83">
+        <v>386</v>
+      </c>
+      <c r="E83">
+        <v>55</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -5286,11 +5313,11 @@
       <c r="A109" s="1"/>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>7076</v>
+        <v>7462</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>291</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -826,6 +826,12 @@
                 <c:pt idx="81">
                   <c:v>18169</c:v>
                 </c:pt>
+                <c:pt idx="82">
+                  <c:v>18509</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>18835</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1440,6 +1446,12 @@
                 <c:pt idx="81">
                   <c:v>347</c:v>
                 </c:pt>
+                <c:pt idx="82">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>326</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2054,6 +2066,12 @@
                 <c:pt idx="81">
                   <c:v>386</c:v>
                 </c:pt>
+                <c:pt idx="82">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>156</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2668,6 +2686,12 @@
                 <c:pt idx="81">
                   <c:v>55</c:v>
                 </c:pt>
+                <c:pt idx="82">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2682,11 +2706,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="170329192"/>
-        <c:axId val="170333672"/>
+        <c:axId val="156135120"/>
+        <c:axId val="156135504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="170329192"/>
+        <c:axId val="156135120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2729,14 +2753,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170333672"/>
+        <c:crossAx val="156135504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="170333672"/>
+        <c:axId val="156135504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2787,7 +2811,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170329192"/>
+        <c:crossAx val="156135120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5168,10 +5192,40 @@
       <c r="A84" s="1">
         <v>43988</v>
       </c>
+      <c r="B84">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B83+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>18509</v>
+      </c>
+      <c r="C84">
+        <v>340</v>
+      </c>
+      <c r="D84">
+        <v>297</v>
+      </c>
+      <c r="E84">
+        <v>31</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43989</v>
+      </c>
+      <c r="B85">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B84+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>18835</v>
+      </c>
+      <c r="C85">
+        <v>326</v>
+      </c>
+      <c r="D85">
+        <v>156</v>
+      </c>
+      <c r="E85">
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5313,11 +5367,11 @@
       <c r="A109" s="1"/>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>7462</v>
+        <v>7915</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>346</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -832,6 +832,9 @@
                 <c:pt idx="83">
                   <c:v>18835</c:v>
                 </c:pt>
+                <c:pt idx="84">
+                  <c:v>19153</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1452,6 +1455,9 @@
                 <c:pt idx="83">
                   <c:v>326</c:v>
                 </c:pt>
+                <c:pt idx="84">
+                  <c:v>318</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2072,6 +2078,9 @@
                 <c:pt idx="83">
                   <c:v>156</c:v>
                 </c:pt>
+                <c:pt idx="84">
+                  <c:v>186</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2692,6 +2701,9 @@
                 <c:pt idx="83">
                   <c:v>15</c:v>
                 </c:pt>
+                <c:pt idx="84">
+                  <c:v>41</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2706,11 +2718,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="156135120"/>
-        <c:axId val="156135504"/>
+        <c:axId val="4750904"/>
+        <c:axId val="165934000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="156135120"/>
+        <c:axId val="4750904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,14 +2765,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156135504"/>
+        <c:crossAx val="165934000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156135504"/>
+        <c:axId val="165934000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2811,7 +2823,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156135120"/>
+        <c:crossAx val="4750904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5232,6 +5244,21 @@
       <c r="A86" s="1">
         <v>43990</v>
       </c>
+      <c r="B86">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B85+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>19153</v>
+      </c>
+      <c r="C86">
+        <v>318</v>
+      </c>
+      <c r="D86">
+        <v>186</v>
+      </c>
+      <c r="E86">
+        <v>41</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
@@ -5367,11 +5394,11 @@
       <c r="A109" s="1"/>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>7915</v>
+        <v>8101</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>392</v>
+        <v>433</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -835,6 +835,12 @@
                 <c:pt idx="84">
                   <c:v>19153</c:v>
                 </c:pt>
+                <c:pt idx="85">
+                  <c:v>19466</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>19769</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1458,6 +1464,12 @@
                 <c:pt idx="84">
                   <c:v>318</c:v>
                 </c:pt>
+                <c:pt idx="85">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>303</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2081,6 +2093,12 @@
                 <c:pt idx="84">
                   <c:v>186</c:v>
                 </c:pt>
+                <c:pt idx="85">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>343</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2704,6 +2722,12 @@
                 <c:pt idx="84">
                   <c:v>41</c:v>
                 </c:pt>
+                <c:pt idx="85">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>38</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2718,11 +2742,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="4750904"/>
-        <c:axId val="165934000"/>
+        <c:axId val="165707240"/>
+        <c:axId val="165739104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="4750904"/>
+        <c:axId val="165707240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2765,14 +2789,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165934000"/>
+        <c:crossAx val="165739104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="165934000"/>
+        <c:axId val="165739104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2823,7 +2847,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4750904"/>
+        <c:crossAx val="165707240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3453,14 +3477,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>390524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5264,10 +5288,40 @@
       <c r="A87" s="1">
         <v>43991</v>
       </c>
+      <c r="B87">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B86+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>19466</v>
+      </c>
+      <c r="C87">
+        <v>313</v>
+      </c>
+      <c r="D87">
+        <v>420</v>
+      </c>
+      <c r="E87">
+        <v>49</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43992</v>
+      </c>
+      <c r="B88">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B87+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>19769</v>
+      </c>
+      <c r="C88">
+        <v>303</v>
+      </c>
+      <c r="D88">
+        <v>343</v>
+      </c>
+      <c r="E88">
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5394,11 +5448,11 @@
       <c r="A109" s="1"/>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>8101</v>
+        <v>8864</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>433</v>
+        <v>520</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -98,10 +99,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -841,6 +842,12 @@
                 <c:pt idx="86">
                   <c:v>19769</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>20043</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20305</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1470,6 +1477,12 @@
                 <c:pt idx="86">
                   <c:v>303</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>262</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2099,6 +2112,12 @@
                 <c:pt idx="86">
                   <c:v>343</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>285</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2728,6 +2747,12 @@
                 <c:pt idx="86">
                   <c:v>38</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2742,11 +2767,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="165707240"/>
-        <c:axId val="165739104"/>
+        <c:axId val="168123968"/>
+        <c:axId val="168126400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="165707240"/>
+        <c:axId val="168123968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2789,14 +2814,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165739104"/>
+        <c:crossAx val="168126400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="165739104"/>
+        <c:axId val="168126400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2847,7 +2872,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165707240"/>
+        <c:crossAx val="168123968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3510,8 +3535,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E109" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A1:E108"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="1"/>
+    <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="0"/>
     <tableColumn id="3" name="Новых_x000a_ (за сутки)"/>
     <tableColumn id="4" name="Выздоровело_x000a_(за сутки)" totalsRowFunction="custom">
       <totalsRowFormula>SUM(D2:D108)</totalsRowFormula>
@@ -3799,7 +3824,7 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5328,13 +5353,41 @@
       <c r="A89" s="1">
         <v>43993</v>
       </c>
-      <c r="B89" s="5"/>
+      <c r="B89">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B88+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>20043</v>
+      </c>
+      <c r="C89">
+        <v>274</v>
+      </c>
+      <c r="D89">
+        <v>412</v>
+      </c>
+      <c r="E89">
+        <v>41</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43994</v>
       </c>
-      <c r="B90" s="5"/>
+      <c r="B90">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B89+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>20305</v>
+      </c>
+      <c r="C90">
+        <v>262</v>
+      </c>
+      <c r="D90">
+        <v>285</v>
+      </c>
+      <c r="E90">
+        <v>8</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
@@ -5448,11 +5501,11 @@
       <c r="A109" s="1"/>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>8864</v>
+        <v>9561</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>520</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -5480,10 +5533,142 @@
       <c r="B115" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C108">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C698A69C-83A8-45D2-A837-6E1EF094BDA6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D108">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F3B7423B-FF62-465B-AA64-D42FBA1A5938}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E108">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6F3ABBF4-01C3-4350-80D4-DD6EEE19BBFB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C698A69C-83A8-45D2-A837-6E1EF094BDA6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F3B7423B-FF62-465B-AA64-D42FBA1A5938}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6F3ABBF4-01C3-4350-80D4-DD6EEE19BBFB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E108</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <conditionalFormatting sqref="B2:B32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5E3FDB19-0186-4F7F-8FD4-6F2452F3E237}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5E3FDB19-0186-4F7F-8FD4-6F2452F3E237}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -99,10 +99,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -848,6 +848,9 @@
                 <c:pt idx="88">
                   <c:v>20305</c:v>
                 </c:pt>
+                <c:pt idx="89">
+                  <c:v>20561</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1483,6 +1486,9 @@
                 <c:pt idx="88">
                   <c:v>262</c:v>
                 </c:pt>
+                <c:pt idx="89">
+                  <c:v>256</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2118,6 +2124,9 @@
                 <c:pt idx="88">
                   <c:v>285</c:v>
                 </c:pt>
+                <c:pt idx="89">
+                  <c:v>116</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2753,6 +2762,9 @@
                 <c:pt idx="88">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="89">
+                  <c:v>28</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2767,11 +2779,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="168123968"/>
-        <c:axId val="168126400"/>
+        <c:axId val="166129232"/>
+        <c:axId val="166960104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="168123968"/>
+        <c:axId val="166129232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2814,14 +2826,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168126400"/>
+        <c:crossAx val="166960104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168126400"/>
+        <c:axId val="166960104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2872,7 +2884,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168123968"/>
+        <c:crossAx val="166129232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3535,8 +3547,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E109" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A1:E108"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="0"/>
+    <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="1"/>
     <tableColumn id="3" name="Новых_x000a_ (за сутки)"/>
     <tableColumn id="4" name="Выздоровело_x000a_(за сутки)" totalsRowFunction="custom">
       <totalsRowFormula>SUM(D2:D108)</totalsRowFormula>
@@ -5393,7 +5405,21 @@
       <c r="A91" s="1">
         <v>43995</v>
       </c>
-      <c r="B91" s="5"/>
+      <c r="B91">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B90+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>20561</v>
+      </c>
+      <c r="C91">
+        <v>256</v>
+      </c>
+      <c r="D91">
+        <v>116</v>
+      </c>
+      <c r="E91">
+        <v>28</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
@@ -5501,11 +5527,11 @@
       <c r="A109" s="1"/>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>9561</v>
+        <v>9677</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>569</v>
+        <v>597</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -851,6 +851,9 @@
                 <c:pt idx="89">
                   <c:v>20561</c:v>
                 </c:pt>
+                <c:pt idx="90">
+                  <c:v>20813</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1489,6 +1492,9 @@
                 <c:pt idx="89">
                   <c:v>256</c:v>
                 </c:pt>
+                <c:pt idx="90">
+                  <c:v>252</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2127,6 +2133,9 @@
                 <c:pt idx="89">
                   <c:v>116</c:v>
                 </c:pt>
+                <c:pt idx="90">
+                  <c:v>62</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2765,6 +2774,9 @@
                 <c:pt idx="89">
                   <c:v>28</c:v>
                 </c:pt>
+                <c:pt idx="90">
+                  <c:v>38</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2779,11 +2791,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="166129232"/>
-        <c:axId val="166960104"/>
+        <c:axId val="168713816"/>
+        <c:axId val="168146416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="166129232"/>
+        <c:axId val="168713816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2826,14 +2838,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166960104"/>
+        <c:crossAx val="168146416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="166960104"/>
+        <c:axId val="168146416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2884,7 +2896,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166129232"/>
+        <c:crossAx val="168713816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5425,7 +5437,21 @@
       <c r="A92" s="1">
         <v>43996</v>
       </c>
-      <c r="B92" s="5"/>
+      <c r="B92">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B91+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>20813</v>
+      </c>
+      <c r="C92">
+        <v>252</v>
+      </c>
+      <c r="D92">
+        <v>62</v>
+      </c>
+      <c r="E92">
+        <v>38</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
@@ -5527,11 +5553,11 @@
       <c r="A109" s="1"/>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>9677</v>
+        <v>9739</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>597</v>
+        <v>635</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -99,10 +99,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -854,6 +854,9 @@
                 <c:pt idx="90">
                   <c:v>20813</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>21047</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1495,6 +1498,9 @@
                 <c:pt idx="90">
                   <c:v>252</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>234</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2136,6 +2142,9 @@
                 <c:pt idx="90">
                   <c:v>62</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>232</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2777,6 +2786,9 @@
                 <c:pt idx="90">
                   <c:v>38</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>54</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2791,11 +2803,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="168713816"/>
-        <c:axId val="168146416"/>
+        <c:axId val="106451592"/>
+        <c:axId val="167375920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="168713816"/>
+        <c:axId val="106451592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2838,14 +2850,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168146416"/>
+        <c:crossAx val="167375920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168146416"/>
+        <c:axId val="167375920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2896,7 +2908,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168713816"/>
+        <c:crossAx val="106451592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3559,9 +3571,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E109" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A1:E108"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="1"/>
-    <tableColumn id="3" name="Новых_x000a_ (за сутки)"/>
+    <tableColumn id="1" name="Дата" dataDxfId="1" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="0"/>
+    <tableColumn id="3" name="Новых_x000a_ (за сутки)" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(C2:C108)</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="4" name="Выздоровело_x000a_(за сутки)" totalsRowFunction="custom">
       <totalsRowFormula>SUM(D2:D108)</totalsRowFormula>
     </tableColumn>
@@ -5457,7 +5471,21 @@
       <c r="A93" s="1">
         <v>43997</v>
       </c>
-      <c r="B93" s="5"/>
+      <c r="B93">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B92+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>21047</v>
+      </c>
+      <c r="C93">
+        <v>234</v>
+      </c>
+      <c r="D93">
+        <v>232</v>
+      </c>
+      <c r="E93">
+        <v>54</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
@@ -5551,13 +5579,17 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
+      <c r="C109">
+        <f>SUM(C2:C108)</f>
+        <v>21003</v>
+      </c>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>9739</v>
+        <v>9971</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>635</v>
+        <v>689</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -99,10 +99,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -857,6 +857,9 @@
                 <c:pt idx="91">
                   <c:v>21047</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>21275</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1501,6 +1504,9 @@
                 <c:pt idx="91">
                   <c:v>234</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>228</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2145,6 +2151,9 @@
                 <c:pt idx="91">
                   <c:v>232</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>716</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2789,6 +2798,9 @@
                 <c:pt idx="91">
                   <c:v>54</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>38</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2803,11 +2815,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="106451592"/>
-        <c:axId val="167375920"/>
+        <c:axId val="166532112"/>
+        <c:axId val="166532496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106451592"/>
+        <c:axId val="166532112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2850,14 +2862,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167375920"/>
+        <c:crossAx val="166532496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="167375920"/>
+        <c:axId val="166532496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2908,7 +2920,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106451592"/>
+        <c:crossAx val="166532112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3571,8 +3583,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E109" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A1:E108"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Дата" dataDxfId="1" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="0"/>
+    <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="1"/>
     <tableColumn id="3" name="Новых_x000a_ (за сутки)" totalsRowFunction="custom">
       <totalsRowFormula>SUM(C2:C108)</totalsRowFormula>
     </tableColumn>
@@ -5491,7 +5503,21 @@
       <c r="A94" s="1">
         <v>43998</v>
       </c>
-      <c r="B94" s="5"/>
+      <c r="B94">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B93+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>21275</v>
+      </c>
+      <c r="C94">
+        <v>228</v>
+      </c>
+      <c r="D94">
+        <v>716</v>
+      </c>
+      <c r="E94">
+        <v>38</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
@@ -5581,15 +5607,15 @@
       <c r="A109" s="1"/>
       <c r="C109">
         <f>SUM(C2:C108)</f>
-        <v>21003</v>
+        <v>21231</v>
       </c>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>9971</v>
+        <v>10687</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>689</v>
+        <v>727</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -860,6 +860,9 @@
                 <c:pt idx="92">
                   <c:v>21275</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>21506</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1507,6 +1510,9 @@
                 <c:pt idx="92">
                   <c:v>228</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>231</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2154,6 +2160,9 @@
                 <c:pt idx="92">
                   <c:v>716</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>637</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2801,6 +2810,9 @@
                 <c:pt idx="92">
                   <c:v>38</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>29</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2815,11 +2827,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="166532112"/>
-        <c:axId val="166532496"/>
+        <c:axId val="164377528"/>
+        <c:axId val="987592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="166532112"/>
+        <c:axId val="164377528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2862,14 +2874,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166532496"/>
+        <c:crossAx val="987592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="166532496"/>
+        <c:axId val="987592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2920,7 +2932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166532112"/>
+        <c:crossAx val="164377528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5523,7 +5535,21 @@
       <c r="A95" s="1">
         <v>43999</v>
       </c>
-      <c r="B95" s="5"/>
+      <c r="B95">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B94+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>21506</v>
+      </c>
+      <c r="C95">
+        <v>231</v>
+      </c>
+      <c r="D95">
+        <v>637</v>
+      </c>
+      <c r="E95">
+        <v>29</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
@@ -5607,15 +5633,15 @@
       <c r="A109" s="1"/>
       <c r="C109">
         <f>SUM(C2:C108)</f>
-        <v>21231</v>
+        <v>21462</v>
       </c>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>10687</v>
+        <v>11324</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>727</v>
+        <v>756</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -210,664 +210,14 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.706680294770846E-2"/>
-          <c:y val="9.8906666666666684E-2"/>
+          <c:y val="6.2341227914581188E-2"/>
           <c:w val="0.92631183121340599"/>
-          <c:h val="0.70946288713910766"/>
+          <c:h val="0.74602831355189314"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Всего
-(на дату)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$2:$A$108</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="107"/>
-                <c:pt idx="0">
-                  <c:v>43906</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43907</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43925</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43926</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43927</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43928</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43929</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43930</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43931</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43932</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43933</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43934</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43935</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43936</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43937</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43938</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43939</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43940</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43941</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43942</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43943</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43944</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43945</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43946</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43947</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43948</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43949</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43950</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43951</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43952</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43953</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43954</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43955</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43956</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43957</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43958</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43959</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43960</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43961</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43962</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43963</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43964</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43965</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43966</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43967</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43968</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43969</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43970</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43971</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43972</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43973</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43974</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43975</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>43976</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43977</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43978</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>43979</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>43980</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>43981</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>43982</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>43984</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>43985</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>43986</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>43987</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>43988</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>43989</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>43990</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>43991</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>43992</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>43993</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>43994</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>43995</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>43996</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>43997</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>43998</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>43999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44002</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44003</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44004</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44005</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44006</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44007</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44008</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44009</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44010</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44011</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$B$2:$B$108</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="107"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>488</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>557</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>678</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>799</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>929</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1083</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1507</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1646</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1846</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1973</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2267</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2458</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2711</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2926</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3077</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3238</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3436</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3726</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4062</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4411</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4734</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5029</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5346</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5572</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5884</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6190</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6565</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6990</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7404</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7711</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8050</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8485</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8945</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9486</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>10011</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>10462</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>10887</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>11340</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>11795</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>12203</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>12592</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>12955</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>13339</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>13713</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>14076</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>14463</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>14846</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>15215</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>15580</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15949</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>16313</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>16689</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>17069</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>17444</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>17822</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>18169</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>18509</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>18835</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>19153</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>19466</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>19769</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>20043</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>20305</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>20561</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>20813</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>21047</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>21275</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>21506</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1513,6 +863,9 @@
                 <c:pt idx="93">
                   <c:v>231</c:v>
                 </c:pt>
+                <c:pt idx="94">
+                  <c:v>228</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2163,6 +1516,9 @@
                 <c:pt idx="93">
                   <c:v>637</c:v>
                 </c:pt>
+                <c:pt idx="94">
+                  <c:v>847</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2813,6 +2169,9 @@
                 <c:pt idx="93">
                   <c:v>29</c:v>
                 </c:pt>
+                <c:pt idx="94">
+                  <c:v>37</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2827,11 +2186,688 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="164377528"/>
-        <c:axId val="987592"/>
+        <c:axId val="166085528"/>
+        <c:axId val="166329096"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Всего
+(на дату)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$2:$A$108</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="107"/>
+                      <c:pt idx="0">
+                        <c:v>43906</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43907</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>43908</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43909</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>43910</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>43911</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>43912</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>43913</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>43914</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>43915</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>43916</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>43917</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>43918</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>43919</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>43920</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>43921</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>43922</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>43923</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>43924</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>43925</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>43926</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>43927</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>43928</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>43929</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>43930</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>43931</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>43932</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>43933</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>43934</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>43935</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>43936</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43937</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>43938</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>43939</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>43940</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>43941</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>43942</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>43943</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>43944</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>43945</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>43946</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>43947</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43948</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43949</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>43950</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>43951</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>43952</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>43953</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>43954</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>43955</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>43956</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>43957</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>43958</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>43959</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>43960</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>43961</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>43962</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>43963</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>43964</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>43965</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>43966</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>43967</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>43968</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>43969</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>43970</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>43971</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>43972</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>43973</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>43974</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>43975</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>43976</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>43977</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>43978</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>43979</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>43980</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>43981</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>43982</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>43983</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>43984</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>43985</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>43986</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>43987</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>43988</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>43989</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>43990</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>43991</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>43992</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>43993</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>43994</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>43995</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>43996</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>43997</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>43998</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>43999</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>44000</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>44001</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>44002</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>44003</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>44004</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>44005</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>44006</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>44007</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>44008</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>44009</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>44010</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>44011</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>44012</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$2:$B$108</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="107"/>
+                      <c:pt idx="0">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>156</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>171</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>191</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>226</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>295</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>329</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>373</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>408</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>488</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>557</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>678</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>799</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>929</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1083</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1507</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1646</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1760</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1846</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1973</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2267</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2458</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2711</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2926</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>3077</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>3238</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>3436</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>3726</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>4062</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>4411</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>4734</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>5029</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>5346</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>5572</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>5884</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>6190</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>6565</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>6990</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>7404</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>7711</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>8050</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>8485</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>8945</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>9486</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>10011</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>10462</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>10887</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>11340</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>11795</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>12203</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>12592</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>12955</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>13339</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>13713</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>14076</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>14463</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>14846</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>15215</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>15580</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>15949</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>16313</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>16689</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>17069</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>17444</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>17822</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>18169</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>18509</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>18835</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>19153</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>19466</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>19769</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>20043</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>20305</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>20561</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>20813</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>21047</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>21275</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>21506</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>21734</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="164377528"/>
+        <c:axId val="166085528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2874,14 +2910,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987592"/>
+        <c:crossAx val="166329096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="987592"/>
+        <c:axId val="166329096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2932,7 +2968,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164377528"/>
+        <c:crossAx val="166085528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3568,8 +3604,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5555,7 +5591,21 @@
       <c r="A96" s="1">
         <v>44000</v>
       </c>
-      <c r="B96" s="5"/>
+      <c r="B96">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B95+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>21734</v>
+      </c>
+      <c r="C96">
+        <v>228</v>
+      </c>
+      <c r="D96">
+        <v>847</v>
+      </c>
+      <c r="E96">
+        <v>37</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
@@ -5633,15 +5683,15 @@
       <c r="A109" s="1"/>
       <c r="C109">
         <f>SUM(C2:C108)</f>
-        <v>21462</v>
+        <v>21690</v>
       </c>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>11324</v>
+        <v>12171</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>756</v>
+        <v>793</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -866,6 +866,9 @@
                 <c:pt idx="94">
                   <c:v>228</c:v>
                 </c:pt>
+                <c:pt idx="95">
+                  <c:v>232</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1519,6 +1522,9 @@
                 <c:pt idx="94">
                   <c:v>847</c:v>
                 </c:pt>
+                <c:pt idx="95">
+                  <c:v>794</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2172,6 +2178,9 @@
                 <c:pt idx="94">
                   <c:v>37</c:v>
                 </c:pt>
+                <c:pt idx="95">
+                  <c:v>21</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2186,8 +2195,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="166085528"/>
-        <c:axId val="166329096"/>
+        <c:axId val="170327128"/>
+        <c:axId val="170405832"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2857,6 +2866,9 @@
                       <c:pt idx="94">
                         <c:v>21734</c:v>
                       </c:pt>
+                      <c:pt idx="95">
+                        <c:v>21966</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2867,7 +2879,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="166085528"/>
+        <c:axId val="170327128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2910,14 +2922,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166329096"/>
+        <c:crossAx val="170405832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="166329096"/>
+        <c:axId val="170405832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2980,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166085528"/>
+        <c:crossAx val="170327128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3604,8 +3616,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5611,7 +5623,21 @@
       <c r="A97" s="1">
         <v>44001</v>
       </c>
-      <c r="B97" s="5"/>
+      <c r="B97">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B96+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>21966</v>
+      </c>
+      <c r="C97">
+        <v>232</v>
+      </c>
+      <c r="D97">
+        <v>794</v>
+      </c>
+      <c r="E97">
+        <v>21</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
@@ -5683,15 +5709,15 @@
       <c r="A109" s="1"/>
       <c r="C109">
         <f>SUM(C2:C108)</f>
-        <v>21690</v>
+        <v>21922</v>
       </c>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>12171</v>
+        <v>12965</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>793</v>
+        <v>814</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -869,6 +869,9 @@
                 <c:pt idx="95">
                   <c:v>232</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>229</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1525,6 +1528,9 @@
                 <c:pt idx="95">
                   <c:v>794</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>498</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2181,6 +2187,9 @@
                 <c:pt idx="95">
                   <c:v>21</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>26</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2195,8 +2204,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="170327128"/>
-        <c:axId val="170405832"/>
+        <c:axId val="169887568"/>
+        <c:axId val="169909672"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2869,6 +2878,9 @@
                       <c:pt idx="95">
                         <c:v>21966</c:v>
                       </c:pt>
+                      <c:pt idx="96">
+                        <c:v>22195</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2879,7 +2891,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="170327128"/>
+        <c:axId val="169887568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2922,14 +2934,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170405832"/>
+        <c:crossAx val="169909672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="170405832"/>
+        <c:axId val="169909672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2980,7 +2992,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170327128"/>
+        <c:crossAx val="169887568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5643,7 +5655,21 @@
       <c r="A98" s="1">
         <v>44002</v>
       </c>
-      <c r="B98" s="5"/>
+      <c r="B98">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B97+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>22195</v>
+      </c>
+      <c r="C98">
+        <v>229</v>
+      </c>
+      <c r="D98">
+        <v>498</v>
+      </c>
+      <c r="E98">
+        <v>26</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
@@ -5709,15 +5735,15 @@
       <c r="A109" s="1"/>
       <c r="C109">
         <f>SUM(C2:C108)</f>
-        <v>21922</v>
+        <v>22151</v>
       </c>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>12965</v>
+        <v>13463</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>814</v>
+        <v>840</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -872,6 +872,15 @@
                 <c:pt idx="96">
                   <c:v>229</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>218</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1531,6 +1540,15 @@
                 <c:pt idx="96">
                   <c:v>498</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>643</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2190,6 +2208,15 @@
                 <c:pt idx="96">
                   <c:v>26</c:v>
                 </c:pt>
+                <c:pt idx="97">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>40</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2204,8 +2231,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="169887568"/>
-        <c:axId val="169909672"/>
+        <c:axId val="165042600"/>
+        <c:axId val="164660800"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2881,6 +2908,15 @@
                       <c:pt idx="96">
                         <c:v>22195</c:v>
                       </c:pt>
+                      <c:pt idx="97">
+                        <c:v>22412</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>22632</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>22850</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2891,7 +2927,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="169887568"/>
+        <c:axId val="165042600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2934,14 +2970,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169909672"/>
+        <c:crossAx val="164660800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="169909672"/>
+        <c:axId val="164660800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2992,7 +3028,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169887568"/>
+        <c:crossAx val="165042600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5675,19 +5711,61 @@
       <c r="A99" s="1">
         <v>44003</v>
       </c>
-      <c r="B99" s="5"/>
+      <c r="B99">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B98+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>22412</v>
+      </c>
+      <c r="C99">
+        <v>217</v>
+      </c>
+      <c r="D99">
+        <v>184</v>
+      </c>
+      <c r="E99">
+        <v>29</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44004</v>
       </c>
-      <c r="B100" s="5"/>
+      <c r="B100">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B99+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>22632</v>
+      </c>
+      <c r="C100">
+        <v>220</v>
+      </c>
+      <c r="D100">
+        <v>221</v>
+      </c>
+      <c r="E100">
+        <v>33</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44005</v>
       </c>
-      <c r="B101" s="5"/>
+      <c r="B101">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B100+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>22850</v>
+      </c>
+      <c r="C101">
+        <v>218</v>
+      </c>
+      <c r="D101">
+        <v>643</v>
+      </c>
+      <c r="E101">
+        <v>40</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
@@ -5735,15 +5813,15 @@
       <c r="A109" s="1"/>
       <c r="C109">
         <f>SUM(C2:C108)</f>
-        <v>22151</v>
+        <v>22806</v>
       </c>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>13463</v>
+        <v>14511</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>840</v>
+        <v>942</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -881,6 +881,12 @@
                 <c:pt idx="99">
                   <c:v>218</c:v>
                 </c:pt>
+                <c:pt idx="100">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>223</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1549,6 +1555,12 @@
                 <c:pt idx="99">
                   <c:v>643</c:v>
                 </c:pt>
+                <c:pt idx="100">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>395</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2217,6 +2229,12 @@
                 <c:pt idx="99">
                   <c:v>40</c:v>
                 </c:pt>
+                <c:pt idx="100">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>47</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2231,8 +2249,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="165042600"/>
-        <c:axId val="164660800"/>
+        <c:axId val="205170016"/>
+        <c:axId val="205181712"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2917,6 +2935,12 @@
                       <c:pt idx="99">
                         <c:v>22850</c:v>
                       </c:pt>
+                      <c:pt idx="100">
+                        <c:v>23071</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>23294</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2927,7 +2951,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="165042600"/>
+        <c:axId val="205170016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2970,14 +2994,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164660800"/>
+        <c:crossAx val="205181712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164660800"/>
+        <c:axId val="205181712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3028,7 +3052,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165042600"/>
+        <c:crossAx val="205170016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5771,13 +5795,41 @@
       <c r="A102" s="1">
         <v>44006</v>
       </c>
-      <c r="B102" s="5"/>
+      <c r="B102">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B101+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>23071</v>
+      </c>
+      <c r="C102">
+        <v>221</v>
+      </c>
+      <c r="D102">
+        <v>589</v>
+      </c>
+      <c r="E102">
+        <v>19</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44007</v>
       </c>
-      <c r="B103" s="5"/>
+      <c r="B103">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B102+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>23294</v>
+      </c>
+      <c r="C103">
+        <v>223</v>
+      </c>
+      <c r="D103">
+        <v>395</v>
+      </c>
+      <c r="E103">
+        <v>47</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -5813,15 +5865,15 @@
       <c r="A109" s="1"/>
       <c r="C109">
         <f>SUM(C2:C108)</f>
-        <v>22806</v>
+        <v>23250</v>
       </c>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>14511</v>
+        <v>15495</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>942</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -887,6 +887,12 @@
                 <c:pt idx="101">
                   <c:v>223</c:v>
                 </c:pt>
+                <c:pt idx="102">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>217</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1561,6 +1567,12 @@
                 <c:pt idx="101">
                   <c:v>395</c:v>
                 </c:pt>
+                <c:pt idx="102">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>598</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2235,6 +2247,12 @@
                 <c:pt idx="101">
                   <c:v>47</c:v>
                 </c:pt>
+                <c:pt idx="102">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>21</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2249,8 +2267,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="205170016"/>
-        <c:axId val="205181712"/>
+        <c:axId val="105451792"/>
+        <c:axId val="105203920"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2941,6 +2959,12 @@
                       <c:pt idx="101">
                         <c:v>23294</c:v>
                       </c:pt>
+                      <c:pt idx="102">
+                        <c:v>23518</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>23735</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2951,7 +2975,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="205170016"/>
+        <c:axId val="105451792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2994,14 +3018,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205181712"/>
+        <c:crossAx val="105203920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="205181712"/>
+        <c:axId val="105203920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3052,7 +3076,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205170016"/>
+        <c:crossAx val="105451792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3998,7 +4022,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5835,13 +5859,41 @@
       <c r="A104" s="1">
         <v>44008</v>
       </c>
-      <c r="B104" s="5"/>
+      <c r="B104">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B103+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>23518</v>
+      </c>
+      <c r="C104">
+        <v>224</v>
+      </c>
+      <c r="D104">
+        <v>716</v>
+      </c>
+      <c r="E104">
+        <v>57</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44009</v>
       </c>
-      <c r="B105" s="5"/>
+      <c r="B105">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B104+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>23735</v>
+      </c>
+      <c r="C105">
+        <v>217</v>
+      </c>
+      <c r="D105">
+        <v>598</v>
+      </c>
+      <c r="E105">
+        <v>21</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
@@ -5865,15 +5917,15 @@
       <c r="A109" s="1"/>
       <c r="C109">
         <f>SUM(C2:C108)</f>
-        <v>23250</v>
+        <v>23691</v>
       </c>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>15495</v>
+        <v>16809</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>1008</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -893,6 +893,9 @@
                 <c:pt idx="103">
                   <c:v>217</c:v>
                 </c:pt>
+                <c:pt idx="104">
+                  <c:v>219</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1573,6 +1576,9 @@
                 <c:pt idx="103">
                   <c:v>598</c:v>
                 </c:pt>
+                <c:pt idx="104">
+                  <c:v>247</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2253,6 +2259,9 @@
                 <c:pt idx="103">
                   <c:v>21</c:v>
                 </c:pt>
+                <c:pt idx="104">
+                  <c:v>19</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2267,8 +2276,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="105451792"/>
-        <c:axId val="105203920"/>
+        <c:axId val="133364504"/>
+        <c:axId val="115612680"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2965,6 +2974,9 @@
                       <c:pt idx="103">
                         <c:v>23735</c:v>
                       </c:pt>
+                      <c:pt idx="104">
+                        <c:v>23954</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2975,7 +2987,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105451792"/>
+        <c:axId val="133364504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3018,14 +3030,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105203920"/>
+        <c:crossAx val="115612680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105203920"/>
+        <c:axId val="115612680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3076,7 +3088,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105451792"/>
+        <c:crossAx val="133364504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4022,7 +4034,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5899,7 +5911,21 @@
       <c r="A106" s="1">
         <v>44010</v>
       </c>
-      <c r="B106" s="5"/>
+      <c r="B106">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B105+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>23954</v>
+      </c>
+      <c r="C106">
+        <v>219</v>
+      </c>
+      <c r="D106">
+        <v>247</v>
+      </c>
+      <c r="E106">
+        <v>19</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
@@ -5917,15 +5943,15 @@
       <c r="A109" s="1"/>
       <c r="C109">
         <f>SUM(C2:C108)</f>
-        <v>23691</v>
+        <v>23910</v>
       </c>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>16809</v>
+        <v>17056</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>1086</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -896,6 +896,9 @@
                 <c:pt idx="104">
                   <c:v>219</c:v>
                 </c:pt>
+                <c:pt idx="105">
+                  <c:v>253</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1579,6 +1582,9 @@
                 <c:pt idx="104">
                   <c:v>247</c:v>
                 </c:pt>
+                <c:pt idx="105">
+                  <c:v>254</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2262,6 +2268,9 @@
                 <c:pt idx="104">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="105">
+                  <c:v>31</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2276,8 +2285,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="133364504"/>
-        <c:axId val="115612680"/>
+        <c:axId val="108633072"/>
+        <c:axId val="169766584"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2977,6 +2986,9 @@
                       <c:pt idx="104">
                         <c:v>23954</c:v>
                       </c:pt>
+                      <c:pt idx="105">
+                        <c:v>24207</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2987,7 +2999,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="133364504"/>
+        <c:axId val="108633072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,14 +3042,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115612680"/>
+        <c:crossAx val="169766584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="115612680"/>
+        <c:axId val="169766584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3088,7 +3100,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133364504"/>
+        <c:crossAx val="108633072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5931,7 +5943,21 @@
       <c r="A107" s="1">
         <v>44011</v>
       </c>
-      <c r="B107" s="5"/>
+      <c r="B107">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B106+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>24207</v>
+      </c>
+      <c r="C107">
+        <v>253</v>
+      </c>
+      <c r="D107">
+        <v>254</v>
+      </c>
+      <c r="E107">
+        <v>31</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
@@ -5943,15 +5969,15 @@
       <c r="A109" s="1"/>
       <c r="C109">
         <f>SUM(C2:C108)</f>
-        <v>23910</v>
+        <v>24163</v>
       </c>
       <c r="D109">
         <f>SUM(D2:D108)</f>
-        <v>17056</v>
+        <v>17310</v>
       </c>
       <c r="E109">
         <f>SUM(E2:E108)</f>
-        <v>1105</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -247,10 +247,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$108</c:f>
+              <c:f>Лист1!$A$2:$A$112</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -571,16 +571,28 @@
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$108</c:f>
+              <c:f>Лист1!$C$2:$C$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -898,6 +910,9 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,10 +948,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$108</c:f>
+              <c:f>Лист1!$A$2:$A$112</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1257,16 +1272,28 @@
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$108</c:f>
+              <c:f>Лист1!$D$2:$D$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1584,6 +1611,9 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1619,10 +1649,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$108</c:f>
+              <c:f>Лист1!$A$2:$A$112</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1943,16 +1973,28 @@
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$108</c:f>
+              <c:f>Лист1!$E$2:$E$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2270,6 +2312,9 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2285,8 +2330,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="108633072"/>
-        <c:axId val="169766584"/>
+        <c:axId val="104362248"/>
+        <c:axId val="329359392"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2328,13 +2373,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$A$2:$A$108</c15:sqref>
+                          <c15:sqref>Лист1!$A$2:$A$112</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="107"/>
+                      <c:ptCount val="111"/>
                       <c:pt idx="0">
                         <c:v>43906</c:v>
                       </c:pt>
@@ -2655,6 +2700,18 @@
                       </c:pt>
                       <c:pt idx="106">
                         <c:v>44012</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>44013</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>44014</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>44015</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>44016</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2664,13 +2721,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$B$2:$B$108</c15:sqref>
+                          <c15:sqref>Лист1!$B$2:$B$112</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="107"/>
+                      <c:ptCount val="111"/>
                       <c:pt idx="0">
                         <c:v>7</c:v>
                       </c:pt>
@@ -2988,6 +3045,9 @@
                       </c:pt>
                       <c:pt idx="105">
                         <c:v>24207</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>24469</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2999,7 +3059,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="108633072"/>
+        <c:axId val="104362248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3042,14 +3102,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169766584"/>
+        <c:crossAx val="329359392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="169766584"/>
+        <c:axId val="329359392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3100,7 +3160,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108633072"/>
+        <c:crossAx val="104362248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3760,19 +3820,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E109" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A1:E108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E113" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A1:E112"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="1"/>
     <tableColumn id="3" name="Новых_x000a_ (за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(C2:C108)</totalsRowFormula>
+      <totalsRowFormula>SUM(C2:C112)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" name="Выздоровело_x000a_(за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(D2:D108)</totalsRowFormula>
+      <totalsRowFormula>SUM(D2:D112)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" name="Умерло_x000a_(за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(E2:E108)</totalsRowFormula>
+      <totalsRowFormula>SUM(E2:E112)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5963,49 +6023,71 @@
       <c r="A108" s="1">
         <v>44012</v>
       </c>
-      <c r="B108" s="5"/>
+      <c r="B108">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B107+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>24469</v>
+      </c>
+      <c r="C108">
+        <v>262</v>
+      </c>
+      <c r="D108">
+        <v>845</v>
+      </c>
+      <c r="E108">
+        <v>46</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="C109">
-        <f>SUM(C2:C108)</f>
-        <v>24163</v>
-      </c>
-      <c r="D109">
-        <f>SUM(D2:D108)</f>
-        <v>17310</v>
-      </c>
-      <c r="E109">
-        <f>SUM(E2:E108)</f>
-        <v>1136</v>
-      </c>
+      <c r="A109" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B109" s="5"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1">
+        <v>44014</v>
+      </c>
       <c r="B110" s="5"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1">
+        <v>44015</v>
+      </c>
       <c r="B111" s="5"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1">
+        <v>44016</v>
+      </c>
       <c r="B112" s="5"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="5"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <f>SUM(C2:C112)</f>
+        <v>24425</v>
+      </c>
+      <c r="D113">
+        <f>SUM(D2:D112)</f>
+        <v>18155</v>
+      </c>
+      <c r="E113">
+        <f>SUM(E2:E112)</f>
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="5"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C108">
+  <conditionalFormatting sqref="C2:C112">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -6019,7 +6101,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D108">
+  <conditionalFormatting sqref="D2:D112">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -6033,7 +6115,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E108">
+  <conditionalFormatting sqref="E2:E112">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -6066,7 +6148,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C108</xm:sqref>
+          <xm:sqref>C2:C112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F3B7423B-FF62-465B-AA64-D42FBA1A5938}">
@@ -6079,7 +6161,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D108</xm:sqref>
+          <xm:sqref>D2:D112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6F3ABBF4-01C3-4350-80D4-DD6EEE19BBFB}">
@@ -6090,7 +6172,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E108</xm:sqref>
+          <xm:sqref>E2:E112</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -914,6 +914,9 @@
                 <c:pt idx="106">
                   <c:v>262</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>258</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1615,6 +1618,9 @@
                 <c:pt idx="106">
                   <c:v>845</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>849</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2316,6 +2322,9 @@
                 <c:pt idx="106">
                   <c:v>46</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>45</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2330,8 +2339,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="104362248"/>
-        <c:axId val="329359392"/>
+        <c:axId val="171544240"/>
+        <c:axId val="171564424"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3049,6 +3058,9 @@
                       <c:pt idx="106">
                         <c:v>24469</c:v>
                       </c:pt>
+                      <c:pt idx="107">
+                        <c:v>24727</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3059,7 +3071,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="104362248"/>
+        <c:axId val="171544240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3102,14 +3114,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329359392"/>
+        <c:crossAx val="171564424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="329359392"/>
+        <c:axId val="171564424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3160,7 +3172,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104362248"/>
+        <c:crossAx val="171544240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6043,7 +6055,21 @@
       <c r="A109" s="1">
         <v>44013</v>
       </c>
-      <c r="B109" s="5"/>
+      <c r="B109">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B108+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>24727</v>
+      </c>
+      <c r="C109">
+        <v>258</v>
+      </c>
+      <c r="D109">
+        <v>849</v>
+      </c>
+      <c r="E109">
+        <v>45</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
@@ -6067,15 +6093,15 @@
       <c r="A113" s="1"/>
       <c r="C113">
         <f>SUM(C2:C112)</f>
-        <v>24425</v>
+        <v>24683</v>
       </c>
       <c r="D113">
         <f>SUM(D2:D112)</f>
-        <v>18155</v>
+        <v>19004</v>
       </c>
       <c r="E113">
         <f>SUM(E2:E112)</f>
-        <v>1182</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -917,6 +917,9 @@
                 <c:pt idx="107">
                   <c:v>258</c:v>
                 </c:pt>
+                <c:pt idx="108">
+                  <c:v>263</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1621,6 +1624,9 @@
                 <c:pt idx="107">
                   <c:v>849</c:v>
                 </c:pt>
+                <c:pt idx="108">
+                  <c:v>491</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2325,6 +2331,9 @@
                 <c:pt idx="107">
                   <c:v>45</c:v>
                 </c:pt>
+                <c:pt idx="108">
+                  <c:v>45</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2339,8 +2348,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="171544240"/>
-        <c:axId val="171564424"/>
+        <c:axId val="162957056"/>
+        <c:axId val="163847496"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3061,6 +3070,9 @@
                       <c:pt idx="107">
                         <c:v>24727</c:v>
                       </c:pt>
+                      <c:pt idx="108">
+                        <c:v>24990</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3071,7 +3083,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="171544240"/>
+        <c:axId val="162957056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3114,14 +3126,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171564424"/>
+        <c:crossAx val="163847496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="171564424"/>
+        <c:axId val="163847496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3172,7 +3184,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171544240"/>
+        <c:crossAx val="162957056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4118,7 +4130,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6075,7 +6087,21 @@
       <c r="A110" s="1">
         <v>44014</v>
       </c>
-      <c r="B110" s="5"/>
+      <c r="B110">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B109+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>24990</v>
+      </c>
+      <c r="C110">
+        <v>263</v>
+      </c>
+      <c r="D110">
+        <v>491</v>
+      </c>
+      <c r="E110">
+        <v>45</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
@@ -6093,15 +6119,15 @@
       <c r="A113" s="1"/>
       <c r="C113">
         <f>SUM(C2:C112)</f>
-        <v>24683</v>
+        <v>24946</v>
       </c>
       <c r="D113">
         <f>SUM(D2:D112)</f>
-        <v>19004</v>
+        <v>19495</v>
       </c>
       <c r="E113">
         <f>SUM(E2:E112)</f>
-        <v>1227</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -247,10 +247,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$112</c:f>
+              <c:f>Лист1!$A$2:$A$118</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="111"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -583,16 +583,34 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$112</c:f>
+              <c:f>Лист1!$C$2:$C$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="111"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -919,6 +937,12 @@
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,10 +978,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$112</c:f>
+              <c:f>Лист1!$A$2:$A$118</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="111"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1290,16 +1314,34 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$112</c:f>
+              <c:f>Лист1!$D$2:$D$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="111"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1626,6 +1668,12 @@
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1661,10 +1709,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$112</c:f>
+              <c:f>Лист1!$A$2:$A$118</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="111"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1997,16 +2045,34 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$112</c:f>
+              <c:f>Лист1!$E$2:$E$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="111"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2333,6 +2399,12 @@
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,8 +2420,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="162957056"/>
-        <c:axId val="163847496"/>
+        <c:axId val="166747536"/>
+        <c:axId val="166272248"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2391,13 +2463,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$A$2:$A$112</c15:sqref>
+                          <c15:sqref>Лист1!$A$2:$A$118</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="111"/>
+                      <c:ptCount val="117"/>
                       <c:pt idx="0">
                         <c:v>43906</c:v>
                       </c:pt>
@@ -2730,6 +2802,24 @@
                       </c:pt>
                       <c:pt idx="110">
                         <c:v>44016</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>44017</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>44018</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>44019</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>44020</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>44021</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>44022</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2739,13 +2829,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$B$2:$B$112</c15:sqref>
+                          <c15:sqref>Лист1!$B$2:$B$118</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="111"/>
+                      <c:ptCount val="117"/>
                       <c:pt idx="0">
                         <c:v>7</c:v>
                       </c:pt>
@@ -3072,6 +3162,12 @@
                       </c:pt>
                       <c:pt idx="108">
                         <c:v>24990</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>25261</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>25536</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3083,7 +3179,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="162957056"/>
+        <c:axId val="166747536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3126,14 +3222,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163847496"/>
+        <c:crossAx val="166272248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="163847496"/>
+        <c:axId val="166272248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3184,7 +3280,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162957056"/>
+        <c:crossAx val="166747536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3844,19 +3940,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E113" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A1:E112"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E119" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A1:E118"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="1"/>
     <tableColumn id="3" name="Новых_x000a_ (за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(C2:C112)</totalsRowFormula>
+      <totalsRowFormula>SUM(C2:C118)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" name="Выздоровело_x000a_(за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(D2:D112)</totalsRowFormula>
+      <totalsRowFormula>SUM(D2:D118)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" name="Умерло_x000a_(за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(E2:E112)</totalsRowFormula>
+      <totalsRowFormula>SUM(E2:E118)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4126,11 +4222,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6107,39 +6203,95 @@
       <c r="A111" s="1">
         <v>44015</v>
       </c>
-      <c r="B111" s="5"/>
+      <c r="B111">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B110+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>25261</v>
+      </c>
+      <c r="C111">
+        <v>271</v>
+      </c>
+      <c r="D111">
+        <v>251</v>
+      </c>
+      <c r="E111">
+        <v>43</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44016</v>
       </c>
-      <c r="B112" s="5"/>
+      <c r="B112">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B111+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>25536</v>
+      </c>
+      <c r="C112">
+        <v>275</v>
+      </c>
+      <c r="D112">
+        <v>248</v>
+      </c>
+      <c r="E112">
+        <v>30</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="C113">
-        <f>SUM(C2:C112)</f>
-        <v>24946</v>
-      </c>
-      <c r="D113">
-        <f>SUM(D2:D112)</f>
-        <v>19495</v>
-      </c>
-      <c r="E113">
-        <f>SUM(E2:E112)</f>
-        <v>1272</v>
-      </c>
+      <c r="A113" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B113" s="5"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1">
+        <v>44018</v>
+      </c>
       <c r="B114" s="5"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1">
+        <v>44019</v>
+      </c>
       <c r="B115" s="5"/>
     </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B116" s="5"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B117" s="5"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B118" s="5"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="C119">
+        <f>SUM(C2:C118)</f>
+        <v>25492</v>
+      </c>
+      <c r="D119">
+        <f>SUM(D2:D118)</f>
+        <v>19994</v>
+      </c>
+      <c r="E119">
+        <f>SUM(E2:E118)</f>
+        <v>1345</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C112">
+  <conditionalFormatting sqref="C2:C118">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -6153,7 +6305,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D112">
+  <conditionalFormatting sqref="D2:D118">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -6167,7 +6319,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E112">
+  <conditionalFormatting sqref="E2:E118">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -6200,7 +6352,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C112</xm:sqref>
+          <xm:sqref>C2:C118</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F3B7423B-FF62-465B-AA64-D42FBA1A5938}">
@@ -6213,7 +6365,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D112</xm:sqref>
+          <xm:sqref>D2:D118</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6F3ABBF4-01C3-4350-80D4-DD6EEE19BBFB}">
@@ -6224,7 +6376,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E112</xm:sqref>
+          <xm:sqref>E2:E118</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -944,6 +944,12 @@
                 <c:pt idx="110">
                   <c:v>275</c:v>
                 </c:pt>
+                <c:pt idx="111">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>278</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1675,6 +1681,12 @@
                 <c:pt idx="110">
                   <c:v>248</c:v>
                 </c:pt>
+                <c:pt idx="111">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>195</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2406,6 +2418,12 @@
                 <c:pt idx="110">
                   <c:v>30</c:v>
                 </c:pt>
+                <c:pt idx="111">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>48</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2420,8 +2438,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="166747536"/>
-        <c:axId val="166272248"/>
+        <c:axId val="164683944"/>
+        <c:axId val="164399032"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3169,6 +3187,12 @@
                       <c:pt idx="110">
                         <c:v>25536</c:v>
                       </c:pt>
+                      <c:pt idx="111">
+                        <c:v>25816</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>26094</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3179,7 +3203,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="166747536"/>
+        <c:axId val="164683944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3222,14 +3246,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166272248"/>
+        <c:crossAx val="164399032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="166272248"/>
+        <c:axId val="164399032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3280,7 +3304,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166747536"/>
+        <c:crossAx val="164683944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6243,13 +6267,41 @@
       <c r="A113" s="1">
         <v>44017</v>
       </c>
-      <c r="B113" s="5"/>
+      <c r="B113">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B112+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>25816</v>
+      </c>
+      <c r="C113">
+        <v>280</v>
+      </c>
+      <c r="D113">
+        <v>180</v>
+      </c>
+      <c r="E113">
+        <v>44</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44018</v>
       </c>
-      <c r="B114" s="5"/>
+      <c r="B114">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B113+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>26094</v>
+      </c>
+      <c r="C114">
+        <v>278</v>
+      </c>
+      <c r="D114">
+        <v>195</v>
+      </c>
+      <c r="E114">
+        <v>48</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
@@ -6279,15 +6331,15 @@
       <c r="A119" s="1"/>
       <c r="C119">
         <f>SUM(C2:C118)</f>
-        <v>25492</v>
+        <v>26050</v>
       </c>
       <c r="D119">
         <f>SUM(D2:D118)</f>
-        <v>19994</v>
+        <v>20369</v>
       </c>
       <c r="E119">
         <f>SUM(E2:E118)</f>
-        <v>1345</v>
+        <v>1437</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -950,6 +950,9 @@
                 <c:pt idx="112">
                   <c:v>278</c:v>
                 </c:pt>
+                <c:pt idx="113">
+                  <c:v>295</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1687,6 +1690,9 @@
                 <c:pt idx="112">
                   <c:v>195</c:v>
                 </c:pt>
+                <c:pt idx="113">
+                  <c:v>183</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2424,6 +2430,9 @@
                 <c:pt idx="112">
                   <c:v>48</c:v>
                 </c:pt>
+                <c:pt idx="113">
+                  <c:v>47</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2438,8 +2447,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="164683944"/>
-        <c:axId val="164399032"/>
+        <c:axId val="104577464"/>
+        <c:axId val="104749168"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3193,6 +3202,9 @@
                       <c:pt idx="112">
                         <c:v>26094</c:v>
                       </c:pt>
+                      <c:pt idx="113">
+                        <c:v>26389</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3203,7 +3215,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="164683944"/>
+        <c:axId val="104577464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3246,14 +3258,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164399032"/>
+        <c:crossAx val="104749168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164399032"/>
+        <c:axId val="104749168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3304,7 +3316,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164683944"/>
+        <c:crossAx val="104577464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6307,7 +6319,21 @@
       <c r="A115" s="1">
         <v>44019</v>
       </c>
-      <c r="B115" s="5"/>
+      <c r="B115">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B114+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>26389</v>
+      </c>
+      <c r="C115">
+        <v>295</v>
+      </c>
+      <c r="D115">
+        <v>183</v>
+      </c>
+      <c r="E115">
+        <v>47</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
@@ -6331,15 +6357,15 @@
       <c r="A119" s="1"/>
       <c r="C119">
         <f>SUM(C2:C118)</f>
-        <v>26050</v>
+        <v>26345</v>
       </c>
       <c r="D119">
         <f>SUM(D2:D118)</f>
-        <v>20369</v>
+        <v>20552</v>
       </c>
       <c r="E119">
         <f>SUM(E2:E118)</f>
-        <v>1437</v>
+        <v>1484</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -953,6 +953,9 @@
                 <c:pt idx="113">
                   <c:v>295</c:v>
                 </c:pt>
+                <c:pt idx="114">
+                  <c:v>292</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1693,6 +1696,9 @@
                 <c:pt idx="113">
                   <c:v>183</c:v>
                 </c:pt>
+                <c:pt idx="114">
+                  <c:v>182</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2433,6 +2439,9 @@
                 <c:pt idx="113">
                   <c:v>47</c:v>
                 </c:pt>
+                <c:pt idx="114">
+                  <c:v>36</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2447,8 +2456,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="104577464"/>
-        <c:axId val="104749168"/>
+        <c:axId val="171414728"/>
+        <c:axId val="171423304"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3205,6 +3214,9 @@
                       <c:pt idx="113">
                         <c:v>26389</c:v>
                       </c:pt>
+                      <c:pt idx="114">
+                        <c:v>26681</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3215,7 +3227,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="104577464"/>
+        <c:axId val="171414728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3258,14 +3270,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104749168"/>
+        <c:crossAx val="171423304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="104749168"/>
+        <c:axId val="171423304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3316,7 +3328,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104577464"/>
+        <c:crossAx val="171414728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6339,7 +6351,21 @@
       <c r="A116" s="1">
         <v>44020</v>
       </c>
-      <c r="B116" s="5"/>
+      <c r="B116">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B115+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>26681</v>
+      </c>
+      <c r="C116">
+        <v>292</v>
+      </c>
+      <c r="D116">
+        <v>182</v>
+      </c>
+      <c r="E116">
+        <v>36</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
@@ -6357,15 +6383,15 @@
       <c r="A119" s="1"/>
       <c r="C119">
         <f>SUM(C2:C118)</f>
-        <v>26345</v>
+        <v>26637</v>
       </c>
       <c r="D119">
         <f>SUM(D2:D118)</f>
-        <v>20552</v>
+        <v>20734</v>
       </c>
       <c r="E119">
         <f>SUM(E2:E118)</f>
-        <v>1484</v>
+        <v>1520</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -247,10 +247,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$118</c:f>
+              <c:f>Лист1!$A$2:$A$140</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="139"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -601,16 +601,82 @@
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44024</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$118</c:f>
+              <c:f>Лист1!$C$2:$C$140</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="139"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -955,6 +1021,12 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,10 +1062,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$118</c:f>
+              <c:f>Лист1!$A$2:$A$140</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="139"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1344,16 +1416,82 @@
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44024</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$118</c:f>
+              <c:f>Лист1!$D$2:$D$140</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="139"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1698,6 +1836,12 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1733,10 +1877,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$118</c:f>
+              <c:f>Лист1!$A$2:$A$140</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="139"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -2087,16 +2231,82 @@
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44024</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$118</c:f>
+              <c:f>Лист1!$E$2:$E$140</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="139"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2441,6 +2651,12 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2456,8 +2672,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="171414728"/>
-        <c:axId val="171423304"/>
+        <c:axId val="166978848"/>
+        <c:axId val="166979232"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2499,13 +2715,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$A$2:$A$118</c15:sqref>
+                          <c15:sqref>Лист1!$A$2:$A$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="117"/>
+                      <c:ptCount val="139"/>
                       <c:pt idx="0">
                         <c:v>43906</c:v>
                       </c:pt>
@@ -2856,6 +3072,72 @@
                       </c:pt>
                       <c:pt idx="116">
                         <c:v>44022</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>44023</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>44024</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>44025</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>44026</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>44027</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>44028</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>44029</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>44030</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>44031</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>44032</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>44033</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>44034</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>44035</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>44036</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>44037</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>44038</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44039</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>44040</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>44041</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>44042</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>44043</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>44044</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2865,13 +3147,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$B$2:$B$118</c15:sqref>
+                          <c15:sqref>Лист1!$B$2:$B$140</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="117"/>
+                      <c:ptCount val="139"/>
                       <c:pt idx="0">
                         <c:v>7</c:v>
                       </c:pt>
@@ -3216,6 +3498,12 @@
                       </c:pt>
                       <c:pt idx="114">
                         <c:v>26681</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>26981</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>27277</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3227,7 +3515,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="171414728"/>
+        <c:axId val="166978848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3270,14 +3558,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171423304"/>
+        <c:crossAx val="166979232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="171423304"/>
+        <c:axId val="166979232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,7 +3616,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171414728"/>
+        <c:crossAx val="166978848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3988,19 +4276,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E119" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A1:E118"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E141" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A1:E140"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="1"/>
     <tableColumn id="3" name="Новых_x000a_ (за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(C2:C118)</totalsRowFormula>
+      <totalsRowFormula>SUM(C2:C140)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" name="Выздоровело_x000a_(за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(D2:D118)</totalsRowFormula>
+      <totalsRowFormula>SUM(D2:D140)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" name="Умерло_x000a_(за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(E2:E118)</totalsRowFormula>
+      <totalsRowFormula>SUM(E2:E140)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4270,7 +4558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6371,31 +6659,191 @@
       <c r="A117" s="1">
         <v>44021</v>
       </c>
-      <c r="B117" s="5"/>
+      <c r="B117">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B116+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>26981</v>
+      </c>
+      <c r="C117">
+        <v>300</v>
+      </c>
+      <c r="D117">
+        <v>156</v>
+      </c>
+      <c r="E117">
+        <v>21</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44022</v>
       </c>
-      <c r="B118" s="5"/>
+      <c r="B118">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B117+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>27277</v>
+      </c>
+      <c r="C118">
+        <v>296</v>
+      </c>
+      <c r="D118">
+        <v>181</v>
+      </c>
+      <c r="E118">
+        <v>42</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="C119">
-        <f>SUM(C2:C118)</f>
-        <v>26637</v>
-      </c>
-      <c r="D119">
-        <f>SUM(D2:D118)</f>
-        <v>20734</v>
-      </c>
-      <c r="E119">
-        <f>SUM(E2:E118)</f>
-        <v>1520</v>
+      <c r="A119" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B119" s="5"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B126" s="5"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B127" s="5"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B128" s="5"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>44035</v>
+      </c>
+      <c r="B131" s="5"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B132" s="5"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B133" s="5"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>44039</v>
+      </c>
+      <c r="B135" s="5"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B136" s="5"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B139" s="5"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B140" s="5"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="C141">
+        <f>SUM(C2:C140)</f>
+        <v>27233</v>
+      </c>
+      <c r="D141">
+        <f>SUM(D2:D140)</f>
+        <v>21071</v>
+      </c>
+      <c r="E141">
+        <f>SUM(E2:E140)</f>
+        <v>1583</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C118">
+  <conditionalFormatting sqref="C2:C140">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -6409,7 +6857,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D118">
+  <conditionalFormatting sqref="D2:D140">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -6423,7 +6871,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E118">
+  <conditionalFormatting sqref="E2:E140">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -6456,7 +6904,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C118</xm:sqref>
+          <xm:sqref>C2:C140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F3B7423B-FF62-465B-AA64-D42FBA1A5938}">
@@ -6469,7 +6917,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D118</xm:sqref>
+          <xm:sqref>D2:D140</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6F3ABBF4-01C3-4350-80D4-DD6EEE19BBFB}">
@@ -6480,7 +6928,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E118</xm:sqref>
+          <xm:sqref>E2:E140</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1028,6 +1028,9 @@
                 <c:pt idx="116">
                   <c:v>296</c:v>
                 </c:pt>
+                <c:pt idx="117">
+                  <c:v>293</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1843,6 +1846,9 @@
                 <c:pt idx="116">
                   <c:v>181</c:v>
                 </c:pt>
+                <c:pt idx="117">
+                  <c:v>162</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2658,6 +2664,9 @@
                 <c:pt idx="116">
                   <c:v>42</c:v>
                 </c:pt>
+                <c:pt idx="117">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2672,8 +2681,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="166978848"/>
-        <c:axId val="166979232"/>
+        <c:axId val="168746344"/>
+        <c:axId val="97644736"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3505,6 +3514,9 @@
                       <c:pt idx="116">
                         <c:v>27277</c:v>
                       </c:pt>
+                      <c:pt idx="117">
+                        <c:v>27570</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3515,7 +3527,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="166978848"/>
+        <c:axId val="168746344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3558,14 +3570,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166979232"/>
+        <c:crossAx val="97644736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="166979232"/>
+        <c:axId val="97644736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3616,7 +3628,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166978848"/>
+        <c:crossAx val="168746344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6699,7 +6711,21 @@
       <c r="A119" s="1">
         <v>44023</v>
       </c>
-      <c r="B119" s="5"/>
+      <c r="B119">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B118+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>27570</v>
+      </c>
+      <c r="C119">
+        <v>293</v>
+      </c>
+      <c r="D119">
+        <v>162</v>
+      </c>
+      <c r="E119">
+        <v>20</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
@@ -6831,15 +6857,15 @@
       <c r="A141" s="1"/>
       <c r="C141">
         <f>SUM(C2:C140)</f>
-        <v>27233</v>
+        <v>27526</v>
       </c>
       <c r="D141">
         <f>SUM(D2:D140)</f>
-        <v>21071</v>
+        <v>21233</v>
       </c>
       <c r="E141">
         <f>SUM(E2:E140)</f>
-        <v>1583</v>
+        <v>1603</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1031,6 +1031,12 @@
                 <c:pt idx="117">
                   <c:v>293</c:v>
                 </c:pt>
+                <c:pt idx="118">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>281</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1849,6 +1855,12 @@
                 <c:pt idx="117">
                   <c:v>162</c:v>
                 </c:pt>
+                <c:pt idx="118">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>194</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2667,6 +2679,12 @@
                 <c:pt idx="117">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="118">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>31</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2681,8 +2699,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="168746344"/>
-        <c:axId val="97644736"/>
+        <c:axId val="285404408"/>
+        <c:axId val="285406368"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3517,6 +3535,12 @@
                       <c:pt idx="117">
                         <c:v>27570</c:v>
                       </c:pt>
+                      <c:pt idx="118">
+                        <c:v>27861</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>28142</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3527,7 +3551,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="168746344"/>
+        <c:axId val="285404408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3570,14 +3594,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97644736"/>
+        <c:crossAx val="285406368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97644736"/>
+        <c:axId val="285406368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3628,7 +3652,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168746344"/>
+        <c:crossAx val="285404408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4572,7 +4596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
@@ -6731,13 +6755,41 @@
       <c r="A120" s="1">
         <v>44024</v>
       </c>
-      <c r="B120" s="5"/>
+      <c r="B120">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B119+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>27861</v>
+      </c>
+      <c r="C120">
+        <v>291</v>
+      </c>
+      <c r="D120">
+        <v>152</v>
+      </c>
+      <c r="E120">
+        <v>23</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44025</v>
       </c>
-      <c r="B121" s="5"/>
+      <c r="B121">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B120+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>28142</v>
+      </c>
+      <c r="C121">
+        <v>281</v>
+      </c>
+      <c r="D121">
+        <v>194</v>
+      </c>
+      <c r="E121">
+        <v>31</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -6857,15 +6909,15 @@
       <c r="A141" s="1"/>
       <c r="C141">
         <f>SUM(C2:C140)</f>
-        <v>27526</v>
+        <v>28098</v>
       </c>
       <c r="D141">
         <f>SUM(D2:D140)</f>
-        <v>21233</v>
+        <v>21579</v>
       </c>
       <c r="E141">
         <f>SUM(E2:E140)</f>
-        <v>1603</v>
+        <v>1657</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1037,6 +1037,9 @@
                 <c:pt idx="119">
                   <c:v>281</c:v>
                 </c:pt>
+                <c:pt idx="120">
+                  <c:v>264</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1861,6 +1864,9 @@
                 <c:pt idx="119">
                   <c:v>194</c:v>
                 </c:pt>
+                <c:pt idx="120">
+                  <c:v>167</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2685,6 +2691,9 @@
                 <c:pt idx="119">
                   <c:v>31</c:v>
                 </c:pt>
+                <c:pt idx="120">
+                  <c:v>19</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2699,8 +2708,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="285404408"/>
-        <c:axId val="285406368"/>
+        <c:axId val="206875712"/>
+        <c:axId val="206876104"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3541,6 +3550,9 @@
                       <c:pt idx="119">
                         <c:v>28142</c:v>
                       </c:pt>
+                      <c:pt idx="120">
+                        <c:v>28406</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3551,7 +3563,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="285404408"/>
+        <c:axId val="206875712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3594,14 +3606,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285406368"/>
+        <c:crossAx val="206876104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="285406368"/>
+        <c:axId val="206876104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3652,7 +3664,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285404408"/>
+        <c:crossAx val="206875712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4596,7 +4608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
@@ -6795,7 +6807,21 @@
       <c r="A122" s="1">
         <v>44026</v>
       </c>
-      <c r="B122" s="5"/>
+      <c r="B122">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B121+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>28406</v>
+      </c>
+      <c r="C122">
+        <v>264</v>
+      </c>
+      <c r="D122">
+        <v>167</v>
+      </c>
+      <c r="E122">
+        <v>19</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
@@ -6909,15 +6935,15 @@
       <c r="A141" s="1"/>
       <c r="C141">
         <f>SUM(C2:C140)</f>
-        <v>28098</v>
+        <v>28362</v>
       </c>
       <c r="D141">
         <f>SUM(D2:D140)</f>
-        <v>21579</v>
+        <v>21746</v>
       </c>
       <c r="E141">
         <f>SUM(E2:E140)</f>
-        <v>1657</v>
+        <v>1676</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1040,6 +1040,9 @@
                 <c:pt idx="120">
                   <c:v>264</c:v>
                 </c:pt>
+                <c:pt idx="121">
+                  <c:v>256</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1867,6 +1870,9 @@
                 <c:pt idx="120">
                   <c:v>167</c:v>
                 </c:pt>
+                <c:pt idx="121">
+                  <c:v>149</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2694,6 +2700,9 @@
                 <c:pt idx="120">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="121">
+                  <c:v>22</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2708,8 +2717,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="206875712"/>
-        <c:axId val="206876104"/>
+        <c:axId val="229061296"/>
+        <c:axId val="229062080"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3553,6 +3562,9 @@
                       <c:pt idx="120">
                         <c:v>28406</c:v>
                       </c:pt>
+                      <c:pt idx="121">
+                        <c:v>28662</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3563,7 +3575,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="206875712"/>
+        <c:axId val="229061296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3606,14 +3618,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206876104"/>
+        <c:crossAx val="229062080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="206876104"/>
+        <c:axId val="229062080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3664,7 +3676,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206875712"/>
+        <c:crossAx val="229061296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6827,7 +6839,21 @@
       <c r="A123" s="1">
         <v>44027</v>
       </c>
-      <c r="B123" s="5"/>
+      <c r="B123">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B122+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>28662</v>
+      </c>
+      <c r="C123">
+        <v>256</v>
+      </c>
+      <c r="D123">
+        <v>149</v>
+      </c>
+      <c r="E123">
+        <v>22</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
@@ -6935,15 +6961,15 @@
       <c r="A141" s="1"/>
       <c r="C141">
         <f>SUM(C2:C140)</f>
-        <v>28362</v>
+        <v>28618</v>
       </c>
       <c r="D141">
         <f>SUM(D2:D140)</f>
-        <v>21746</v>
+        <v>21895</v>
       </c>
       <c r="E141">
         <f>SUM(E2:E140)</f>
-        <v>1676</v>
+        <v>1698</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1043,6 +1043,9 @@
                 <c:pt idx="121">
                   <c:v>256</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>244</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1873,6 +1876,9 @@
                 <c:pt idx="121">
                   <c:v>149</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>156</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2703,6 +2709,9 @@
                 <c:pt idx="121">
                   <c:v>22</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>30</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2717,8 +2726,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="229061296"/>
-        <c:axId val="229062080"/>
+        <c:axId val="161680952"/>
+        <c:axId val="162908360"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3565,6 +3574,9 @@
                       <c:pt idx="121">
                         <c:v>28662</c:v>
                       </c:pt>
+                      <c:pt idx="122">
+                        <c:v>28906</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3575,7 +3587,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="229061296"/>
+        <c:axId val="161680952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3618,14 +3630,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229062080"/>
+        <c:crossAx val="162908360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="229062080"/>
+        <c:axId val="162908360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3676,7 +3688,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229061296"/>
+        <c:crossAx val="161680952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6859,7 +6871,21 @@
       <c r="A124" s="1">
         <v>44028</v>
       </c>
-      <c r="B124" s="5"/>
+      <c r="B124">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B123+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>28906</v>
+      </c>
+      <c r="C124">
+        <v>244</v>
+      </c>
+      <c r="D124">
+        <v>156</v>
+      </c>
+      <c r="E124">
+        <v>30</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
@@ -6961,15 +6987,15 @@
       <c r="A141" s="1"/>
       <c r="C141">
         <f>SUM(C2:C140)</f>
-        <v>28618</v>
+        <v>28862</v>
       </c>
       <c r="D141">
         <f>SUM(D2:D140)</f>
-        <v>21895</v>
+        <v>22051</v>
       </c>
       <c r="E141">
         <f>SUM(E2:E140)</f>
-        <v>1698</v>
+        <v>1728</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1046,6 +1046,12 @@
                 <c:pt idx="122">
                   <c:v>244</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>202</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1879,6 +1885,12 @@
                 <c:pt idx="122">
                   <c:v>156</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>101</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2712,6 +2724,12 @@
                 <c:pt idx="122">
                   <c:v>30</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>26</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2726,8 +2744,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="161680952"/>
-        <c:axId val="162908360"/>
+        <c:axId val="165165144"/>
+        <c:axId val="165185320"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3577,6 +3595,12 @@
                       <c:pt idx="122">
                         <c:v>28906</c:v>
                       </c:pt>
+                      <c:pt idx="123">
+                        <c:v>29144</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>29346</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3587,7 +3611,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="161680952"/>
+        <c:axId val="165165144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3630,14 +3654,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162908360"/>
+        <c:crossAx val="165185320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162908360"/>
+        <c:axId val="165185320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3688,7 +3712,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161680952"/>
+        <c:crossAx val="165165144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6891,13 +6915,41 @@
       <c r="A125" s="1">
         <v>44029</v>
       </c>
-      <c r="B125" s="5"/>
+      <c r="B125">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B124+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>29144</v>
+      </c>
+      <c r="C125">
+        <v>238</v>
+      </c>
+      <c r="D125">
+        <v>161</v>
+      </c>
+      <c r="E125">
+        <v>27</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44030</v>
       </c>
-      <c r="B126" s="5"/>
+      <c r="B126">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B125+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>29346</v>
+      </c>
+      <c r="C126">
+        <v>202</v>
+      </c>
+      <c r="D126">
+        <v>101</v>
+      </c>
+      <c r="E126">
+        <v>26</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
@@ -6987,15 +7039,15 @@
       <c r="A141" s="1"/>
       <c r="C141">
         <f>SUM(C2:C140)</f>
-        <v>28862</v>
+        <v>29302</v>
       </c>
       <c r="D141">
         <f>SUM(D2:D140)</f>
-        <v>22051</v>
+        <v>22313</v>
       </c>
       <c r="E141">
         <f>SUM(E2:E140)</f>
-        <v>1728</v>
+        <v>1781</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1052,6 +1052,12 @@
                 <c:pt idx="124">
                   <c:v>202</c:v>
                 </c:pt>
+                <c:pt idx="125">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>189</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1891,6 +1897,12 @@
                 <c:pt idx="124">
                   <c:v>101</c:v>
                 </c:pt>
+                <c:pt idx="125">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>93</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2730,6 +2742,12 @@
                 <c:pt idx="124">
                   <c:v>26</c:v>
                 </c:pt>
+                <c:pt idx="125">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>27</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2744,8 +2762,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="165165144"/>
-        <c:axId val="165185320"/>
+        <c:axId val="160083344"/>
+        <c:axId val="160082560"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3601,6 +3619,12 @@
                       <c:pt idx="124">
                         <c:v>29346</c:v>
                       </c:pt>
+                      <c:pt idx="125">
+                        <c:v>29541</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>29730</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3611,7 +3635,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="165165144"/>
+        <c:axId val="160083344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3654,14 +3678,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165185320"/>
+        <c:crossAx val="160082560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="165185320"/>
+        <c:axId val="160082560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3712,7 +3736,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165165144"/>
+        <c:crossAx val="160083344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4656,9 +4680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6955,13 +6979,41 @@
       <c r="A127" s="1">
         <v>44031</v>
       </c>
-      <c r="B127" s="5"/>
+      <c r="B127">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B126+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>29541</v>
+      </c>
+      <c r="C127">
+        <v>195</v>
+      </c>
+      <c r="D127">
+        <v>112</v>
+      </c>
+      <c r="E127">
+        <v>26</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44032</v>
       </c>
-      <c r="B128" s="5"/>
+      <c r="B128">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B127+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>29730</v>
+      </c>
+      <c r="C128">
+        <v>189</v>
+      </c>
+      <c r="D128">
+        <v>93</v>
+      </c>
+      <c r="E128">
+        <v>27</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
@@ -7039,15 +7091,15 @@
       <c r="A141" s="1"/>
       <c r="C141">
         <f>SUM(C2:C140)</f>
-        <v>29302</v>
+        <v>29686</v>
       </c>
       <c r="D141">
         <f>SUM(D2:D140)</f>
-        <v>22313</v>
+        <v>22518</v>
       </c>
       <c r="E141">
         <f>SUM(E2:E140)</f>
-        <v>1781</v>
+        <v>1834</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1058,6 +1058,9 @@
                 <c:pt idx="126">
                   <c:v>189</c:v>
                 </c:pt>
+                <c:pt idx="127">
+                  <c:v>186</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1903,6 +1906,9 @@
                 <c:pt idx="126">
                   <c:v>93</c:v>
                 </c:pt>
+                <c:pt idx="127">
+                  <c:v>95</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2748,6 +2754,9 @@
                 <c:pt idx="126">
                   <c:v>27</c:v>
                 </c:pt>
+                <c:pt idx="127">
+                  <c:v>28</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2762,8 +2771,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="160083344"/>
-        <c:axId val="160082560"/>
+        <c:axId val="158885296"/>
+        <c:axId val="158903552"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3625,6 +3634,9 @@
                       <c:pt idx="126">
                         <c:v>29730</c:v>
                       </c:pt>
+                      <c:pt idx="127">
+                        <c:v>29916</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3635,7 +3647,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="160083344"/>
+        <c:axId val="158885296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3678,14 +3690,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160082560"/>
+        <c:crossAx val="158903552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160082560"/>
+        <c:axId val="158903552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3736,7 +3748,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160083344"/>
+        <c:crossAx val="158885296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4680,9 +4692,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7019,7 +7031,21 @@
       <c r="A129" s="1">
         <v>44033</v>
       </c>
-      <c r="B129" s="5"/>
+      <c r="B129">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B128+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>29916</v>
+      </c>
+      <c r="C129">
+        <v>186</v>
+      </c>
+      <c r="D129">
+        <v>95</v>
+      </c>
+      <c r="E129">
+        <v>28</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
@@ -7091,15 +7117,15 @@
       <c r="A141" s="1"/>
       <c r="C141">
         <f>SUM(C2:C140)</f>
-        <v>29686</v>
+        <v>29872</v>
       </c>
       <c r="D141">
         <f>SUM(D2:D140)</f>
-        <v>22518</v>
+        <v>22613</v>
       </c>
       <c r="E141">
         <f>SUM(E2:E140)</f>
-        <v>1834</v>
+        <v>1862</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1061,6 +1061,9 @@
                 <c:pt idx="127">
                   <c:v>186</c:v>
                 </c:pt>
+                <c:pt idx="128">
+                  <c:v>184</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1909,6 +1912,9 @@
                 <c:pt idx="127">
                   <c:v>95</c:v>
                 </c:pt>
+                <c:pt idx="128">
+                  <c:v>101</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2757,6 +2763,9 @@
                 <c:pt idx="127">
                   <c:v>28</c:v>
                 </c:pt>
+                <c:pt idx="128">
+                  <c:v>19</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2771,8 +2780,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="158885296"/>
-        <c:axId val="158903552"/>
+        <c:axId val="162739576"/>
+        <c:axId val="162739968"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3637,6 +3646,9 @@
                       <c:pt idx="127">
                         <c:v>29916</c:v>
                       </c:pt>
+                      <c:pt idx="128">
+                        <c:v>30100</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3647,7 +3659,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="158885296"/>
+        <c:axId val="162739576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3690,14 +3702,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158903552"/>
+        <c:crossAx val="162739968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="158903552"/>
+        <c:axId val="162739968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3748,7 +3760,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158885296"/>
+        <c:crossAx val="162739576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7051,7 +7063,21 @@
       <c r="A130" s="1">
         <v>44034</v>
       </c>
-      <c r="B130" s="5"/>
+      <c r="B130">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B129+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>30100</v>
+      </c>
+      <c r="C130">
+        <v>184</v>
+      </c>
+      <c r="D130">
+        <v>101</v>
+      </c>
+      <c r="E130">
+        <v>19</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
@@ -7117,15 +7143,15 @@
       <c r="A141" s="1"/>
       <c r="C141">
         <f>SUM(C2:C140)</f>
-        <v>29872</v>
+        <v>30056</v>
       </c>
       <c r="D141">
         <f>SUM(D2:D140)</f>
-        <v>22613</v>
+        <v>22714</v>
       </c>
       <c r="E141">
         <f>SUM(E2:E140)</f>
-        <v>1862</v>
+        <v>1881</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1064,6 +1064,9 @@
                 <c:pt idx="128">
                   <c:v>184</c:v>
                 </c:pt>
+                <c:pt idx="129">
+                  <c:v>181</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1915,6 +1918,9 @@
                 <c:pt idx="128">
                   <c:v>101</c:v>
                 </c:pt>
+                <c:pt idx="129">
+                  <c:v>93</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2766,6 +2772,9 @@
                 <c:pt idx="128">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="129">
+                  <c:v>27</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2780,8 +2789,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="162739576"/>
-        <c:axId val="162739968"/>
+        <c:axId val="164012440"/>
+        <c:axId val="164014872"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3649,6 +3658,9 @@
                       <c:pt idx="128">
                         <c:v>30100</c:v>
                       </c:pt>
+                      <c:pt idx="129">
+                        <c:v>30281</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3659,7 +3671,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="162739576"/>
+        <c:axId val="164012440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3702,14 +3714,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162739968"/>
+        <c:crossAx val="164014872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162739968"/>
+        <c:axId val="164014872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3760,7 +3772,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162739576"/>
+        <c:crossAx val="164012440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7083,7 +7095,21 @@
       <c r="A131" s="1">
         <v>44035</v>
       </c>
-      <c r="B131" s="5"/>
+      <c r="B131">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B130+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>30281</v>
+      </c>
+      <c r="C131">
+        <v>181</v>
+      </c>
+      <c r="D131">
+        <v>93</v>
+      </c>
+      <c r="E131">
+        <v>27</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
@@ -7143,15 +7169,15 @@
       <c r="A141" s="1"/>
       <c r="C141">
         <f>SUM(C2:C140)</f>
-        <v>30056</v>
+        <v>30237</v>
       </c>
       <c r="D141">
         <f>SUM(D2:D140)</f>
-        <v>22714</v>
+        <v>22807</v>
       </c>
       <c r="E141">
         <f>SUM(E2:E140)</f>
-        <v>1881</v>
+        <v>1908</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1067,6 +1067,9 @@
                 <c:pt idx="129">
                   <c:v>181</c:v>
                 </c:pt>
+                <c:pt idx="130">
+                  <c:v>179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1921,6 +1924,9 @@
                 <c:pt idx="129">
                   <c:v>93</c:v>
                 </c:pt>
+                <c:pt idx="130">
+                  <c:v>82</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2775,6 +2781,9 @@
                 <c:pt idx="129">
                   <c:v>27</c:v>
                 </c:pt>
+                <c:pt idx="130">
+                  <c:v>28</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2789,8 +2798,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="164012440"/>
-        <c:axId val="164014872"/>
+        <c:axId val="163414712"/>
+        <c:axId val="163882400"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3661,6 +3670,9 @@
                       <c:pt idx="129">
                         <c:v>30281</c:v>
                       </c:pt>
+                      <c:pt idx="130">
+                        <c:v>30460</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3671,7 +3683,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="164012440"/>
+        <c:axId val="163414712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3714,14 +3726,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164014872"/>
+        <c:crossAx val="163882400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164014872"/>
+        <c:axId val="163882400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3772,7 +3784,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164012440"/>
+        <c:crossAx val="163414712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7115,7 +7127,21 @@
       <c r="A132" s="1">
         <v>44036</v>
       </c>
-      <c r="B132" s="5"/>
+      <c r="B132">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B131+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>30460</v>
+      </c>
+      <c r="C132">
+        <v>179</v>
+      </c>
+      <c r="D132">
+        <v>82</v>
+      </c>
+      <c r="E132">
+        <v>28</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
@@ -7169,15 +7195,15 @@
       <c r="A141" s="1"/>
       <c r="C141">
         <f>SUM(C2:C140)</f>
-        <v>30237</v>
+        <v>30416</v>
       </c>
       <c r="D141">
         <f>SUM(D2:D140)</f>
-        <v>22807</v>
+        <v>22889</v>
       </c>
       <c r="E141">
         <f>SUM(E2:E140)</f>
-        <v>1908</v>
+        <v>1936</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -99,10 +99,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -2798,8 +2798,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="163414712"/>
-        <c:axId val="163882400"/>
+        <c:axId val="171855048"/>
+        <c:axId val="171855432"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3683,7 +3683,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="163414712"/>
+        <c:axId val="171855048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3726,14 +3726,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163882400"/>
+        <c:crossAx val="171855432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="163882400"/>
+        <c:axId val="171855432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3784,7 +3784,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163414712"/>
+        <c:crossAx val="171855048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4447,8 +4447,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E141" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A1:E140"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="1"/>
+    <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="0"/>
     <tableColumn id="3" name="Новых_x000a_ (за сутки)" totalsRowFunction="custom">
       <totalsRowFormula>SUM(C2:C140)</totalsRowFormula>
     </tableColumn>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,10 +99,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -1070,6 +1070,9 @@
                 <c:pt idx="130">
                   <c:v>179</c:v>
                 </c:pt>
+                <c:pt idx="131">
+                  <c:v>175</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1927,6 +1930,9 @@
                 <c:pt idx="130">
                   <c:v>82</c:v>
                 </c:pt>
+                <c:pt idx="131">
+                  <c:v>79</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2784,6 +2790,9 @@
                 <c:pt idx="130">
                   <c:v>28</c:v>
                 </c:pt>
+                <c:pt idx="131">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2798,8 +2807,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="171855048"/>
-        <c:axId val="171855432"/>
+        <c:axId val="164460952"/>
+        <c:axId val="164465432"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3673,6 +3682,9 @@
                       <c:pt idx="130">
                         <c:v>30460</c:v>
                       </c:pt>
+                      <c:pt idx="131">
+                        <c:v>30635</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3683,7 +3695,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="171855048"/>
+        <c:axId val="164460952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3726,14 +3738,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171855432"/>
+        <c:crossAx val="164465432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="171855432"/>
+        <c:axId val="164465432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3784,7 +3796,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171855048"/>
+        <c:crossAx val="164460952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4447,8 +4459,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E141" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A1:E140"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="0"/>
+    <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="1"/>
     <tableColumn id="3" name="Новых_x000a_ (за сутки)" totalsRowFunction="custom">
       <totalsRowFormula>SUM(C2:C140)</totalsRowFormula>
     </tableColumn>
@@ -7147,7 +7159,21 @@
       <c r="A133" s="1">
         <v>44037</v>
       </c>
-      <c r="B133" s="5"/>
+      <c r="B133">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B132+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>30635</v>
+      </c>
+      <c r="C133">
+        <v>175</v>
+      </c>
+      <c r="D133">
+        <v>79</v>
+      </c>
+      <c r="E133">
+        <v>9</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
@@ -7195,15 +7221,15 @@
       <c r="A141" s="1"/>
       <c r="C141">
         <f>SUM(C2:C140)</f>
-        <v>30416</v>
+        <v>30591</v>
       </c>
       <c r="D141">
         <f>SUM(D2:D140)</f>
-        <v>22889</v>
+        <v>22968</v>
       </c>
       <c r="E141">
         <f>SUM(E2:E140)</f>
-        <v>1936</v>
+        <v>1945</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1073,6 +1073,9 @@
                 <c:pt idx="131">
                   <c:v>175</c:v>
                 </c:pt>
+                <c:pt idx="132">
+                  <c:v>172</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1933,6 +1936,9 @@
                 <c:pt idx="131">
                   <c:v>79</c:v>
                 </c:pt>
+                <c:pt idx="132">
+                  <c:v>75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2793,6 +2799,9 @@
                 <c:pt idx="131">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="132">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2807,8 +2816,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="164460952"/>
-        <c:axId val="164465432"/>
+        <c:axId val="171549784"/>
+        <c:axId val="171554264"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3685,6 +3694,9 @@
                       <c:pt idx="131">
                         <c:v>30635</c:v>
                       </c:pt>
+                      <c:pt idx="132">
+                        <c:v>30807</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3695,7 +3707,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="164460952"/>
+        <c:axId val="171549784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3738,14 +3750,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164465432"/>
+        <c:crossAx val="171554264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164465432"/>
+        <c:axId val="171554264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3796,7 +3808,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164460952"/>
+        <c:crossAx val="171549784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7179,7 +7191,21 @@
       <c r="A134" s="1">
         <v>44038</v>
       </c>
-      <c r="B134" s="5"/>
+      <c r="B134">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B133+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>30807</v>
+      </c>
+      <c r="C134">
+        <v>172</v>
+      </c>
+      <c r="D134">
+        <v>75</v>
+      </c>
+      <c r="E134">
+        <v>10</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
@@ -7221,15 +7247,15 @@
       <c r="A141" s="1"/>
       <c r="C141">
         <f>SUM(C2:C140)</f>
-        <v>30591</v>
+        <v>30763</v>
       </c>
       <c r="D141">
         <f>SUM(D2:D140)</f>
-        <v>22968</v>
+        <v>23043</v>
       </c>
       <c r="E141">
         <f>SUM(E2:E140)</f>
-        <v>1945</v>
+        <v>1955</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1076,6 +1076,9 @@
                 <c:pt idx="132">
                   <c:v>172</c:v>
                 </c:pt>
+                <c:pt idx="133">
+                  <c:v>168</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1939,6 +1942,9 @@
                 <c:pt idx="132">
                   <c:v>75</c:v>
                 </c:pt>
+                <c:pt idx="133">
+                  <c:v>81</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2802,6 +2808,9 @@
                 <c:pt idx="132">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="133">
+                  <c:v>23</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2816,8 +2825,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="171549784"/>
-        <c:axId val="171554264"/>
+        <c:axId val="30900056"/>
+        <c:axId val="167473680"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3697,6 +3706,9 @@
                       <c:pt idx="132">
                         <c:v>30807</c:v>
                       </c:pt>
+                      <c:pt idx="133">
+                        <c:v>30975</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3707,7 +3719,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="171549784"/>
+        <c:axId val="30900056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3750,14 +3762,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171554264"/>
+        <c:crossAx val="167473680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="171554264"/>
+        <c:axId val="167473680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3808,7 +3820,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171549784"/>
+        <c:crossAx val="30900056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7211,7 +7223,21 @@
       <c r="A135" s="1">
         <v>44039</v>
       </c>
-      <c r="B135" s="5"/>
+      <c r="B135">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B134+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>30975</v>
+      </c>
+      <c r="C135">
+        <v>168</v>
+      </c>
+      <c r="D135">
+        <v>81</v>
+      </c>
+      <c r="E135">
+        <v>23</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
@@ -7247,15 +7273,15 @@
       <c r="A141" s="1"/>
       <c r="C141">
         <f>SUM(C2:C140)</f>
-        <v>30763</v>
+        <v>30931</v>
       </c>
       <c r="D141">
         <f>SUM(D2:D140)</f>
-        <v>23043</v>
+        <v>23124</v>
       </c>
       <c r="E141">
         <f>SUM(E2:E140)</f>
-        <v>1955</v>
+        <v>1978</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1079,6 +1079,9 @@
                 <c:pt idx="133">
                   <c:v>168</c:v>
                 </c:pt>
+                <c:pt idx="134">
+                  <c:v>165</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1945,6 +1948,9 @@
                 <c:pt idx="133">
                   <c:v>81</c:v>
                 </c:pt>
+                <c:pt idx="134">
+                  <c:v>75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2811,6 +2817,9 @@
                 <c:pt idx="133">
                   <c:v>23</c:v>
                 </c:pt>
+                <c:pt idx="134">
+                  <c:v>23</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2825,8 +2834,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="30900056"/>
-        <c:axId val="167473680"/>
+        <c:axId val="171739760"/>
+        <c:axId val="171771880"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3709,6 +3718,9 @@
                       <c:pt idx="133">
                         <c:v>30975</c:v>
                       </c:pt>
+                      <c:pt idx="134">
+                        <c:v>31140</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3719,7 +3731,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="30900056"/>
+        <c:axId val="171739760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3762,14 +3774,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167473680"/>
+        <c:crossAx val="171771880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="167473680"/>
+        <c:axId val="171771880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3820,7 +3832,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30900056"/>
+        <c:crossAx val="171739760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7243,7 +7255,21 @@
       <c r="A136" s="1">
         <v>44040</v>
       </c>
-      <c r="B136" s="5"/>
+      <c r="B136">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B135+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>31140</v>
+      </c>
+      <c r="C136">
+        <v>165</v>
+      </c>
+      <c r="D136">
+        <v>75</v>
+      </c>
+      <c r="E136">
+        <v>23</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
@@ -7273,15 +7299,15 @@
       <c r="A141" s="1"/>
       <c r="C141">
         <f>SUM(C2:C140)</f>
-        <v>30931</v>
+        <v>31096</v>
       </c>
       <c r="D141">
         <f>SUM(D2:D140)</f>
-        <v>23124</v>
+        <v>23199</v>
       </c>
       <c r="E141">
         <f>SUM(E2:E140)</f>
-        <v>1978</v>
+        <v>2001</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1082,6 +1082,9 @@
                 <c:pt idx="134">
                   <c:v>165</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>162</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1951,6 +1954,9 @@
                 <c:pt idx="134">
                   <c:v>75</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>93</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2820,6 +2826,9 @@
                 <c:pt idx="134">
                   <c:v>23</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>22</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2834,8 +2843,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="171739760"/>
-        <c:axId val="171771880"/>
+        <c:axId val="210203624"/>
+        <c:axId val="210205192"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3721,6 +3730,9 @@
                       <c:pt idx="134">
                         <c:v>31140</c:v>
                       </c:pt>
+                      <c:pt idx="135">
+                        <c:v>31302</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3731,7 +3743,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="171739760"/>
+        <c:axId val="210203624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3774,14 +3786,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171771880"/>
+        <c:crossAx val="210205192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="171771880"/>
+        <c:axId val="210205192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3832,7 +3844,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171739760"/>
+        <c:crossAx val="210203624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7275,7 +7287,21 @@
       <c r="A137" s="1">
         <v>44041</v>
       </c>
-      <c r="B137" s="5"/>
+      <c r="B137">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B136+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>31302</v>
+      </c>
+      <c r="C137">
+        <v>162</v>
+      </c>
+      <c r="D137">
+        <v>93</v>
+      </c>
+      <c r="E137">
+        <v>22</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
@@ -7299,15 +7325,15 @@
       <c r="A141" s="1"/>
       <c r="C141">
         <f>SUM(C2:C140)</f>
-        <v>31096</v>
+        <v>31258</v>
       </c>
       <c r="D141">
         <f>SUM(D2:D140)</f>
-        <v>23199</v>
+        <v>23292</v>
       </c>
       <c r="E141">
         <f>SUM(E2:E140)</f>
-        <v>2001</v>
+        <v>2023</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -247,10 +247,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$140</c:f>
+              <c:f>Лист1!$A$2:$A$154</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="153"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -667,16 +667,58 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$140</c:f>
+              <c:f>Лист1!$C$2:$C$154</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="153"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1084,6 +1126,9 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,10 +1164,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$140</c:f>
+              <c:f>Лист1!$A$2:$A$154</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="153"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1539,16 +1584,58 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$140</c:f>
+              <c:f>Лист1!$D$2:$D$154</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="153"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1956,6 +2043,9 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,10 +2081,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$140</c:f>
+              <c:f>Лист1!$A$2:$A$154</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="153"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -2411,16 +2501,58 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$140</c:f>
+              <c:f>Лист1!$E$2:$E$154</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="153"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2828,6 +2960,9 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2843,8 +2978,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="210203624"/>
-        <c:axId val="210205192"/>
+        <c:axId val="93404112"/>
+        <c:axId val="93298840"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2886,13 +3021,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$A$2:$A$140</c15:sqref>
+                          <c15:sqref>Лист1!$A$2:$A$154</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="139"/>
+                      <c:ptCount val="153"/>
                       <c:pt idx="0">
                         <c:v>43906</c:v>
                       </c:pt>
@@ -3309,6 +3444,48 @@
                       </c:pt>
                       <c:pt idx="138">
                         <c:v>44044</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>44045</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>44046</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>44047</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>44048</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>44049</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>44050</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>44051</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>44052</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>44053</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>44054</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>44055</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>44056</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>44057</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>44058</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3318,13 +3495,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$B$2:$B$140</c15:sqref>
+                          <c15:sqref>Лист1!$B$2:$B$154</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="139"/>
+                      <c:ptCount val="153"/>
                       <c:pt idx="0">
                         <c:v>7</c:v>
                       </c:pt>
@@ -3732,6 +3909,9 @@
                       </c:pt>
                       <c:pt idx="135">
                         <c:v>31302</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>31461</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3743,7 +3923,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="210203624"/>
+        <c:axId val="93404112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3786,14 +3966,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210205192"/>
+        <c:crossAx val="93298840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="210205192"/>
+        <c:axId val="93298840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3844,7 +4024,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210203624"/>
+        <c:crossAx val="93404112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4504,19 +4684,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E141" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A1:E140"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E155" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A1:E154"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="1"/>
     <tableColumn id="3" name="Новых_x000a_ (за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(C2:C140)</totalsRowFormula>
+      <totalsRowFormula>SUM(C2:C154)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" name="Выздоровело_x000a_(за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(D2:D140)</totalsRowFormula>
+      <totalsRowFormula>SUM(D2:D154)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" name="Умерло_x000a_(за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(E2:E140)</totalsRowFormula>
+      <totalsRowFormula>SUM(E2:E154)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4786,7 +4966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7307,7 +7487,21 @@
       <c r="A138" s="1">
         <v>44042</v>
       </c>
-      <c r="B138" s="5"/>
+      <c r="B138">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B137+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>31461</v>
+      </c>
+      <c r="C138">
+        <v>159</v>
+      </c>
+      <c r="D138">
+        <v>78</v>
+      </c>
+      <c r="E138">
+        <v>20</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
@@ -7322,22 +7516,106 @@
       <c r="B140" s="5"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="C141">
-        <f>SUM(C2:C140)</f>
-        <v>31258</v>
-      </c>
-      <c r="D141">
-        <f>SUM(D2:D140)</f>
-        <v>23292</v>
-      </c>
-      <c r="E141">
-        <f>SUM(E2:E140)</f>
-        <v>2023</v>
+      <c r="A141" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B141" s="5"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B142" s="5"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B143" s="5"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B144" s="5"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B145" s="5"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B146" s="5"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B147" s="5"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B148" s="5"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B149" s="5"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B150" s="5"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B151" s="5"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B152" s="5"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B153" s="5"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B154" s="5"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="C155">
+        <f>SUM(C2:C154)</f>
+        <v>31417</v>
+      </c>
+      <c r="D155">
+        <f>SUM(D2:D154)</f>
+        <v>23370</v>
+      </c>
+      <c r="E155">
+        <f>SUM(E2:E154)</f>
+        <v>2043</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C140">
+  <conditionalFormatting sqref="C2:C154">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -7351,7 +7629,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D140">
+  <conditionalFormatting sqref="D2:D154">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -7365,7 +7643,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E140">
+  <conditionalFormatting sqref="E2:E154">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -7398,7 +7676,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C140</xm:sqref>
+          <xm:sqref>C2:C154</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F3B7423B-FF62-465B-AA64-D42FBA1A5938}">
@@ -7411,7 +7689,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D140</xm:sqref>
+          <xm:sqref>D2:D154</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6F3ABBF4-01C3-4350-80D4-DD6EEE19BBFB}">
@@ -7422,7 +7700,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E140</xm:sqref>
+          <xm:sqref>E2:E154</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1130,6 +1130,9 @@
                 <c:pt idx="136">
                   <c:v>159</c:v>
                 </c:pt>
+                <c:pt idx="137">
+                  <c:v>161</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2047,6 +2050,9 @@
                 <c:pt idx="136">
                   <c:v>78</c:v>
                 </c:pt>
+                <c:pt idx="137">
+                  <c:v>96</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2964,6 +2970,9 @@
                 <c:pt idx="136">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="137">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2978,8 +2987,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="93404112"/>
-        <c:axId val="93298840"/>
+        <c:axId val="167994304"/>
+        <c:axId val="167994688"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3913,6 +3922,9 @@
                       <c:pt idx="136">
                         <c:v>31461</c:v>
                       </c:pt>
+                      <c:pt idx="137">
+                        <c:v>31622</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3923,7 +3935,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93404112"/>
+        <c:axId val="167994304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3966,14 +3978,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93298840"/>
+        <c:crossAx val="167994688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93298840"/>
+        <c:axId val="167994688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4024,7 +4036,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93404112"/>
+        <c:crossAx val="167994304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7507,7 +7519,21 @@
       <c r="A139" s="1">
         <v>44043</v>
       </c>
-      <c r="B139" s="5"/>
+      <c r="B139">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B138+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>31622</v>
+      </c>
+      <c r="C139">
+        <v>161</v>
+      </c>
+      <c r="D139">
+        <v>96</v>
+      </c>
+      <c r="E139">
+        <v>9</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
@@ -7603,15 +7629,15 @@
       <c r="A155" s="1"/>
       <c r="C155">
         <f>SUM(C2:C154)</f>
-        <v>31417</v>
+        <v>31578</v>
       </c>
       <c r="D155">
         <f>SUM(D2:D154)</f>
-        <v>23370</v>
+        <v>23466</v>
       </c>
       <c r="E155">
         <f>SUM(E2:E154)</f>
-        <v>2043</v>
+        <v>2052</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1133,6 +1133,9 @@
                 <c:pt idx="137">
                   <c:v>161</c:v>
                 </c:pt>
+                <c:pt idx="138">
+                  <c:v>163</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2053,6 +2056,9 @@
                 <c:pt idx="137">
                   <c:v>96</c:v>
                 </c:pt>
+                <c:pt idx="138">
+                  <c:v>86</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2973,6 +2979,9 @@
                 <c:pt idx="137">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="138">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2987,8 +2996,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="167994304"/>
-        <c:axId val="167994688"/>
+        <c:axId val="2623392"/>
+        <c:axId val="105213696"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3925,6 +3934,9 @@
                       <c:pt idx="137">
                         <c:v>31622</c:v>
                       </c:pt>
+                      <c:pt idx="138">
+                        <c:v>31785</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3935,7 +3947,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="167994304"/>
+        <c:axId val="2623392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3978,14 +3990,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167994688"/>
+        <c:crossAx val="105213696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="167994688"/>
+        <c:axId val="105213696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4036,7 +4048,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167994304"/>
+        <c:crossAx val="2623392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7539,7 +7551,21 @@
       <c r="A140" s="1">
         <v>44044</v>
       </c>
-      <c r="B140" s="5"/>
+      <c r="B140">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B139+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>31785</v>
+      </c>
+      <c r="C140">
+        <v>163</v>
+      </c>
+      <c r="D140">
+        <v>86</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -7629,15 +7655,15 @@
       <c r="A155" s="1"/>
       <c r="C155">
         <f>SUM(C2:C154)</f>
-        <v>31578</v>
+        <v>31741</v>
       </c>
       <c r="D155">
         <f>SUM(D2:D154)</f>
-        <v>23466</v>
+        <v>23552</v>
       </c>
       <c r="E155">
         <f>SUM(E2:E154)</f>
-        <v>2052</v>
+        <v>2056</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1136,6 +1136,9 @@
                 <c:pt idx="138">
                   <c:v>163</c:v>
                 </c:pt>
+                <c:pt idx="139">
+                  <c:v>160</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2059,6 +2062,9 @@
                 <c:pt idx="138">
                   <c:v>86</c:v>
                 </c:pt>
+                <c:pt idx="139">
+                  <c:v>75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2982,6 +2988,9 @@
                 <c:pt idx="138">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="139">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2996,8 +3005,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2623392"/>
-        <c:axId val="105213696"/>
+        <c:axId val="225059136"/>
+        <c:axId val="223696688"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3937,6 +3946,9 @@
                       <c:pt idx="138">
                         <c:v>31785</c:v>
                       </c:pt>
+                      <c:pt idx="139">
+                        <c:v>31945</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3947,7 +3959,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2623392"/>
+        <c:axId val="225059136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3990,14 +4002,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105213696"/>
+        <c:crossAx val="223696688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105213696"/>
+        <c:axId val="223696688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4048,7 +4060,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2623392"/>
+        <c:crossAx val="225059136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7571,7 +7583,21 @@
       <c r="A141" s="1">
         <v>44045</v>
       </c>
-      <c r="B141" s="5"/>
+      <c r="B141">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B140+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>31945</v>
+      </c>
+      <c r="C141">
+        <v>160</v>
+      </c>
+      <c r="D141">
+        <v>75</v>
+      </c>
+      <c r="E141">
+        <v>6</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
@@ -7655,15 +7681,15 @@
       <c r="A155" s="1"/>
       <c r="C155">
         <f>SUM(C2:C154)</f>
-        <v>31741</v>
+        <v>31901</v>
       </c>
       <c r="D155">
         <f>SUM(D2:D154)</f>
-        <v>23552</v>
+        <v>23627</v>
       </c>
       <c r="E155">
         <f>SUM(E2:E154)</f>
-        <v>2056</v>
+        <v>2062</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1139,6 +1139,9 @@
                 <c:pt idx="139">
                   <c:v>160</c:v>
                 </c:pt>
+                <c:pt idx="140">
+                  <c:v>158</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2065,6 +2068,9 @@
                 <c:pt idx="139">
                   <c:v>75</c:v>
                 </c:pt>
+                <c:pt idx="140">
+                  <c:v>85</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2991,6 +2997,9 @@
                 <c:pt idx="139">
                   <c:v>6</c:v>
                 </c:pt>
+                <c:pt idx="140">
+                  <c:v>22</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3005,8 +3014,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="225059136"/>
-        <c:axId val="223696688"/>
+        <c:axId val="232831624"/>
+        <c:axId val="232832016"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3949,6 +3958,9 @@
                       <c:pt idx="139">
                         <c:v>31945</c:v>
                       </c:pt>
+                      <c:pt idx="140">
+                        <c:v>32103</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3959,7 +3971,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="225059136"/>
+        <c:axId val="232831624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4002,14 +4014,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223696688"/>
+        <c:crossAx val="232832016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="223696688"/>
+        <c:axId val="232832016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4060,7 +4072,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225059136"/>
+        <c:crossAx val="232831624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5004,7 +5016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
@@ -7603,7 +7615,21 @@
       <c r="A142" s="1">
         <v>44046</v>
       </c>
-      <c r="B142" s="5"/>
+      <c r="B142">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B141+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>32103</v>
+      </c>
+      <c r="C142">
+        <v>158</v>
+      </c>
+      <c r="D142">
+        <v>85</v>
+      </c>
+      <c r="E142">
+        <v>22</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
@@ -7681,15 +7707,15 @@
       <c r="A155" s="1"/>
       <c r="C155">
         <f>SUM(C2:C154)</f>
-        <v>31901</v>
+        <v>32059</v>
       </c>
       <c r="D155">
         <f>SUM(D2:D154)</f>
-        <v>23627</v>
+        <v>23712</v>
       </c>
       <c r="E155">
         <f>SUM(E2:E154)</f>
-        <v>2062</v>
+        <v>2084</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1142,6 +1142,12 @@
                 <c:pt idx="140">
                   <c:v>158</c:v>
                 </c:pt>
+                <c:pt idx="141">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>159</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2071,6 +2077,12 @@
                 <c:pt idx="140">
                   <c:v>85</c:v>
                 </c:pt>
+                <c:pt idx="141">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>84</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3000,6 +3012,12 @@
                 <c:pt idx="140">
                   <c:v>22</c:v>
                 </c:pt>
+                <c:pt idx="141">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3014,8 +3032,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="232831624"/>
-        <c:axId val="232832016"/>
+        <c:axId val="164565928"/>
+        <c:axId val="164568360"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3961,6 +3979,12 @@
                       <c:pt idx="140">
                         <c:v>32103</c:v>
                       </c:pt>
+                      <c:pt idx="141">
+                        <c:v>32259</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>32418</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3971,7 +3995,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="232831624"/>
+        <c:axId val="164565928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4014,14 +4038,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232832016"/>
+        <c:crossAx val="164568360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="232832016"/>
+        <c:axId val="164568360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4072,7 +4096,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232831624"/>
+        <c:crossAx val="164565928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5016,7 +5040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
@@ -7635,13 +7659,41 @@
       <c r="A143" s="1">
         <v>44047</v>
       </c>
-      <c r="B143" s="5"/>
+      <c r="B143">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B142+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>32259</v>
+      </c>
+      <c r="C143">
+        <v>156</v>
+      </c>
+      <c r="D143">
+        <v>37</v>
+      </c>
+      <c r="E143">
+        <v>18</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44048</v>
       </c>
-      <c r="B144" s="5"/>
+      <c r="B144">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B143+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>32418</v>
+      </c>
+      <c r="C144">
+        <v>159</v>
+      </c>
+      <c r="D144">
+        <v>84</v>
+      </c>
+      <c r="E144">
+        <v>16</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
@@ -7707,15 +7759,15 @@
       <c r="A155" s="1"/>
       <c r="C155">
         <f>SUM(C2:C154)</f>
-        <v>32059</v>
+        <v>32374</v>
       </c>
       <c r="D155">
         <f>SUM(D2:D154)</f>
-        <v>23712</v>
+        <v>23833</v>
       </c>
       <c r="E155">
         <f>SUM(E2:E154)</f>
-        <v>2084</v>
+        <v>2118</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1148,6 +1148,12 @@
                 <c:pt idx="142">
                   <c:v>159</c:v>
                 </c:pt>
+                <c:pt idx="143">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>155</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2083,6 +2089,12 @@
                 <c:pt idx="142">
                   <c:v>84</c:v>
                 </c:pt>
+                <c:pt idx="143">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>83</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3018,6 +3030,12 @@
                 <c:pt idx="142">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="143">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3032,8 +3050,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="164565928"/>
-        <c:axId val="164568360"/>
+        <c:axId val="104820504"/>
+        <c:axId val="105893472"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3985,6 +4003,12 @@
                       <c:pt idx="142">
                         <c:v>32418</c:v>
                       </c:pt>
+                      <c:pt idx="143">
+                        <c:v>32575</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>32730</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3995,7 +4019,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="164565928"/>
+        <c:axId val="104820504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4038,14 +4062,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164568360"/>
+        <c:crossAx val="105893472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164568360"/>
+        <c:axId val="105893472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4096,7 +4120,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164565928"/>
+        <c:crossAx val="104820504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7699,13 +7723,41 @@
       <c r="A145" s="1">
         <v>44049</v>
       </c>
-      <c r="B145" s="5"/>
+      <c r="B145">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B144+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>32575</v>
+      </c>
+      <c r="C145">
+        <v>157</v>
+      </c>
+      <c r="D145">
+        <v>93</v>
+      </c>
+      <c r="E145">
+        <v>18</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44050</v>
       </c>
-      <c r="B146" s="5"/>
+      <c r="B146">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B145+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>32730</v>
+      </c>
+      <c r="C146">
+        <v>155</v>
+      </c>
+      <c r="D146">
+        <v>83</v>
+      </c>
+      <c r="E146">
+        <v>10</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
@@ -7759,15 +7811,15 @@
       <c r="A155" s="1"/>
       <c r="C155">
         <f>SUM(C2:C154)</f>
-        <v>32374</v>
+        <v>32686</v>
       </c>
       <c r="D155">
         <f>SUM(D2:D154)</f>
-        <v>23833</v>
+        <v>24009</v>
       </c>
       <c r="E155">
         <f>SUM(E2:E154)</f>
-        <v>2118</v>
+        <v>2146</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1154,6 +1154,12 @@
                 <c:pt idx="144">
                   <c:v>155</c:v>
                 </c:pt>
+                <c:pt idx="145">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>157</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2095,6 +2101,12 @@
                 <c:pt idx="144">
                   <c:v>83</c:v>
                 </c:pt>
+                <c:pt idx="145">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>45</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3036,6 +3048,12 @@
                 <c:pt idx="144">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="145">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3050,8 +3068,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="104820504"/>
-        <c:axId val="105893472"/>
+        <c:axId val="172233040"/>
+        <c:axId val="172233424"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4009,6 +4027,12 @@
                       <c:pt idx="144">
                         <c:v>32730</c:v>
                       </c:pt>
+                      <c:pt idx="145">
+                        <c:v>32890</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>33047</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4019,7 +4043,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="104820504"/>
+        <c:axId val="172233040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4062,14 +4086,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105893472"/>
+        <c:crossAx val="172233424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105893472"/>
+        <c:axId val="172233424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4120,7 +4144,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104820504"/>
+        <c:crossAx val="172233040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7763,13 +7787,41 @@
       <c r="A147" s="1">
         <v>44051</v>
       </c>
-      <c r="B147" s="5"/>
+      <c r="B147">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B146+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>32890</v>
+      </c>
+      <c r="C147">
+        <v>160</v>
+      </c>
+      <c r="D147">
+        <v>33</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44052</v>
       </c>
-      <c r="B148" s="5"/>
+      <c r="B148">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B147+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>33047</v>
+      </c>
+      <c r="C148">
+        <v>157</v>
+      </c>
+      <c r="D148">
+        <v>45</v>
+      </c>
+      <c r="E148">
+        <v>7</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
@@ -7811,15 +7863,15 @@
       <c r="A155" s="1"/>
       <c r="C155">
         <f>SUM(C2:C154)</f>
-        <v>32686</v>
+        <v>33003</v>
       </c>
       <c r="D155">
         <f>SUM(D2:D154)</f>
-        <v>24009</v>
+        <v>24087</v>
       </c>
       <c r="E155">
         <f>SUM(E2:E154)</f>
-        <v>2146</v>
+        <v>2156</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1160,6 +1160,9 @@
                 <c:pt idx="146">
                   <c:v>157</c:v>
                 </c:pt>
+                <c:pt idx="147">
+                  <c:v>157</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2107,6 +2110,9 @@
                 <c:pt idx="146">
                   <c:v>45</c:v>
                 </c:pt>
+                <c:pt idx="147">
+                  <c:v>78</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3054,6 +3060,9 @@
                 <c:pt idx="146">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="147">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3068,8 +3077,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="172233040"/>
-        <c:axId val="172233424"/>
+        <c:axId val="105790656"/>
+        <c:axId val="174534120"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4033,6 +4042,9 @@
                       <c:pt idx="146">
                         <c:v>33047</c:v>
                       </c:pt>
+                      <c:pt idx="147">
+                        <c:v>33204</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4043,7 +4055,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="172233040"/>
+        <c:axId val="105790656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4086,14 +4098,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172233424"/>
+        <c:crossAx val="174534120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="172233424"/>
+        <c:axId val="174534120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4144,7 +4156,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172233040"/>
+        <c:crossAx val="105790656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7827,7 +7839,21 @@
       <c r="A149" s="1">
         <v>44053</v>
       </c>
-      <c r="B149" s="5"/>
+      <c r="B149">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B148+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>33204</v>
+      </c>
+      <c r="C149">
+        <v>157</v>
+      </c>
+      <c r="D149">
+        <v>78</v>
+      </c>
+      <c r="E149">
+        <v>20</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
@@ -7863,15 +7889,15 @@
       <c r="A155" s="1"/>
       <c r="C155">
         <f>SUM(C2:C154)</f>
-        <v>33003</v>
+        <v>33160</v>
       </c>
       <c r="D155">
         <f>SUM(D2:D154)</f>
-        <v>24087</v>
+        <v>24165</v>
       </c>
       <c r="E155">
         <f>SUM(E2:E154)</f>
-        <v>2156</v>
+        <v>2176</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -247,10 +247,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$154</c:f>
+              <c:f>Лист1!$A$2:$A$174</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -709,16 +709,76 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$154</c:f>
+              <c:f>Лист1!$C$2:$C$174</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1162,6 +1222,9 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1197,10 +1260,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$154</c:f>
+              <c:f>Лист1!$A$2:$A$174</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1659,16 +1722,76 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$154</c:f>
+              <c:f>Лист1!$D$2:$D$174</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2112,6 +2235,9 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2147,10 +2273,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$154</c:f>
+              <c:f>Лист1!$A$2:$A$174</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -2609,16 +2735,76 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$154</c:f>
+              <c:f>Лист1!$E$2:$E$174</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3062,6 +3248,9 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,8 +3266,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="105790656"/>
-        <c:axId val="174534120"/>
+        <c:axId val="171437360"/>
+        <c:axId val="171441840"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3120,13 +3309,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$A$2:$A$154</c15:sqref>
+                          <c15:sqref>Лист1!$A$2:$A$174</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="153"/>
+                      <c:ptCount val="173"/>
                       <c:pt idx="0">
                         <c:v>43906</c:v>
                       </c:pt>
@@ -3585,6 +3774,66 @@
                       </c:pt>
                       <c:pt idx="152">
                         <c:v>44058</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>44059</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>44060</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>44061</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>44062</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>44063</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>44064</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>44065</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>44066</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>44067</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>44068</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>44069</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>44070</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>44071</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>44072</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>44073</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>44074</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>44075</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>44076</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>44077</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>44078</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3594,13 +3843,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$B$2:$B$154</c15:sqref>
+                          <c15:sqref>Лист1!$B$2:$B$174</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="153"/>
+                      <c:ptCount val="173"/>
                       <c:pt idx="0">
                         <c:v>7</c:v>
                       </c:pt>
@@ -4044,6 +4293,9 @@
                       </c:pt>
                       <c:pt idx="147">
                         <c:v>33204</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>33365</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4055,7 +4307,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105790656"/>
+        <c:axId val="171437360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4098,14 +4350,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174534120"/>
+        <c:crossAx val="171441840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="174534120"/>
+        <c:axId val="171441840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4156,7 +4408,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105790656"/>
+        <c:crossAx val="171437360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4816,19 +5068,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E155" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A1:E154"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E175" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A1:E174"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="1"/>
     <tableColumn id="3" name="Новых_x000a_ (за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(C2:C154)</totalsRowFormula>
+      <totalsRowFormula>SUM(C2:C174)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" name="Выздоровело_x000a_(за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(D2:D154)</totalsRowFormula>
+      <totalsRowFormula>SUM(D2:D174)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" name="Умерло_x000a_(за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(E2:E154)</totalsRowFormula>
+      <totalsRowFormula>SUM(E2:E174)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5098,7 +5350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7859,7 +8111,21 @@
       <c r="A150" s="1">
         <v>44054</v>
       </c>
-      <c r="B150" s="5"/>
+      <c r="B150">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B149+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>33365</v>
+      </c>
+      <c r="C150">
+        <v>161</v>
+      </c>
+      <c r="D150">
+        <v>93</v>
+      </c>
+      <c r="E150">
+        <v>12</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
@@ -7886,22 +8152,142 @@
       <c r="B154" s="5"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="C155">
-        <f>SUM(C2:C154)</f>
-        <v>33160</v>
-      </c>
-      <c r="D155">
-        <f>SUM(D2:D154)</f>
-        <v>24165</v>
-      </c>
-      <c r="E155">
-        <f>SUM(E2:E154)</f>
-        <v>2176</v>
+      <c r="A155" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B155" s="5"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B156" s="5"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B157" s="5"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B158" s="5"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B159" s="5"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B160" s="5"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B161" s="5"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B162" s="5"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B163" s="5"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B164" s="5"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B165" s="5"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B166" s="5"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B167" s="5"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B168" s="5"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B169" s="5"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B170" s="5"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B171" s="5"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B172" s="5"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B173" s="5"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B174" s="5"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="C175">
+        <f>SUM(C2:C174)</f>
+        <v>33321</v>
+      </c>
+      <c r="D175">
+        <f>SUM(D2:D174)</f>
+        <v>24258</v>
+      </c>
+      <c r="E175">
+        <f>SUM(E2:E174)</f>
+        <v>2188</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C154">
+  <conditionalFormatting sqref="C2:C174">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -7915,7 +8301,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D154">
+  <conditionalFormatting sqref="D2:D174">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -7929,7 +8315,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E154">
+  <conditionalFormatting sqref="E2:E174">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -7962,7 +8348,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C154</xm:sqref>
+          <xm:sqref>C2:C174</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F3B7423B-FF62-465B-AA64-D42FBA1A5938}">
@@ -7975,7 +8361,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D154</xm:sqref>
+          <xm:sqref>D2:D174</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6F3ABBF4-01C3-4350-80D4-DD6EEE19BBFB}">
@@ -7986,7 +8372,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E154</xm:sqref>
+          <xm:sqref>E2:E174</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1226,6 +1226,9 @@
                 <c:pt idx="148">
                   <c:v>161</c:v>
                 </c:pt>
+                <c:pt idx="149">
+                  <c:v>160</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2239,6 +2242,9 @@
                 <c:pt idx="148">
                   <c:v>93</c:v>
                 </c:pt>
+                <c:pt idx="149">
+                  <c:v>96</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3252,6 +3258,9 @@
                 <c:pt idx="148">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="149">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3266,8 +3275,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="171437360"/>
-        <c:axId val="171441840"/>
+        <c:axId val="171130944"/>
+        <c:axId val="171132352"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4297,6 +4306,9 @@
                       <c:pt idx="148">
                         <c:v>33365</c:v>
                       </c:pt>
+                      <c:pt idx="149">
+                        <c:v>33525</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4307,7 +4319,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="171437360"/>
+        <c:axId val="171130944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4350,14 +4362,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171441840"/>
+        <c:crossAx val="171132352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="171441840"/>
+        <c:axId val="171132352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4408,7 +4420,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171437360"/>
+        <c:crossAx val="171130944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8131,7 +8143,21 @@
       <c r="A151" s="1">
         <v>44055</v>
       </c>
-      <c r="B151" s="5"/>
+      <c r="B151">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B150+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>33525</v>
+      </c>
+      <c r="C151">
+        <v>160</v>
+      </c>
+      <c r="D151">
+        <v>96</v>
+      </c>
+      <c r="E151">
+        <v>15</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -8275,15 +8301,15 @@
       <c r="A175" s="1"/>
       <c r="C175">
         <f>SUM(C2:C174)</f>
-        <v>33321</v>
+        <v>33481</v>
       </c>
       <c r="D175">
         <f>SUM(D2:D174)</f>
-        <v>24258</v>
+        <v>24354</v>
       </c>
       <c r="E175">
         <f>SUM(E2:E174)</f>
-        <v>2188</v>
+        <v>2203</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1229,6 +1229,15 @@
                 <c:pt idx="149">
                   <c:v>160</c:v>
                 </c:pt>
+                <c:pt idx="150">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>163</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2245,6 +2254,15 @@
                 <c:pt idx="149">
                   <c:v>96</c:v>
                 </c:pt>
+                <c:pt idx="150">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>53</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3261,6 +3279,15 @@
                 <c:pt idx="149">
                   <c:v>15</c:v>
                 </c:pt>
+                <c:pt idx="150">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3275,8 +3302,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="171130944"/>
-        <c:axId val="171132352"/>
+        <c:axId val="108209200"/>
+        <c:axId val="108208296"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4309,6 +4336,15 @@
                       <c:pt idx="149">
                         <c:v>33525</c:v>
                       </c:pt>
+                      <c:pt idx="150">
+                        <c:v>33684</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>33846</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>34009</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4319,7 +4355,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="171130944"/>
+        <c:axId val="108209200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4362,14 +4398,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171132352"/>
+        <c:crossAx val="108208296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="171132352"/>
+        <c:axId val="108208296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4420,7 +4456,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171130944"/>
+        <c:crossAx val="108209200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8163,19 +8199,61 @@
       <c r="A152" s="1">
         <v>44056</v>
       </c>
-      <c r="B152" s="5"/>
+      <c r="B152">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B151+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>33684</v>
+      </c>
+      <c r="C152">
+        <v>159</v>
+      </c>
+      <c r="D152">
+        <v>72</v>
+      </c>
+      <c r="E152">
+        <v>20</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44057</v>
       </c>
-      <c r="B153" s="5"/>
+      <c r="B153">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B152+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>33846</v>
+      </c>
+      <c r="C153">
+        <v>162</v>
+      </c>
+      <c r="D153">
+        <v>76</v>
+      </c>
+      <c r="E153">
+        <v>22</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44058</v>
       </c>
-      <c r="B154" s="5"/>
+      <c r="B154">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B153+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>34009</v>
+      </c>
+      <c r="C154">
+        <v>163</v>
+      </c>
+      <c r="D154">
+        <v>53</v>
+      </c>
+      <c r="E154">
+        <v>10</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
@@ -8301,15 +8379,15 @@
       <c r="A175" s="1"/>
       <c r="C175">
         <f>SUM(C2:C174)</f>
-        <v>33481</v>
+        <v>33965</v>
       </c>
       <c r="D175">
         <f>SUM(D2:D174)</f>
-        <v>24354</v>
+        <v>24555</v>
       </c>
       <c r="E175">
         <f>SUM(E2:E174)</f>
-        <v>2203</v>
+        <v>2255</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1238,6 +1238,9 @@
                 <c:pt idx="152">
                   <c:v>163</c:v>
                 </c:pt>
+                <c:pt idx="153">
+                  <c:v>159</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2263,6 +2266,9 @@
                 <c:pt idx="152">
                   <c:v>53</c:v>
                 </c:pt>
+                <c:pt idx="153">
+                  <c:v>69</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3288,6 +3294,9 @@
                 <c:pt idx="152">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="153">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3302,8 +3311,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="108209200"/>
-        <c:axId val="108208296"/>
+        <c:axId val="162850048"/>
+        <c:axId val="162850432"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4345,6 +4354,9 @@
                       <c:pt idx="152">
                         <c:v>34009</c:v>
                       </c:pt>
+                      <c:pt idx="153">
+                        <c:v>34168</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4355,7 +4367,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="108209200"/>
+        <c:axId val="162850048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4398,14 +4410,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108208296"/>
+        <c:crossAx val="162850432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="108208296"/>
+        <c:axId val="162850432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4456,7 +4468,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108209200"/>
+        <c:crossAx val="162850048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8259,7 +8271,21 @@
       <c r="A155" s="1">
         <v>44059</v>
       </c>
-      <c r="B155" s="5"/>
+      <c r="B155">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B154+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>34168</v>
+      </c>
+      <c r="C155">
+        <v>159</v>
+      </c>
+      <c r="D155">
+        <v>69</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
@@ -8379,15 +8405,15 @@
       <c r="A175" s="1"/>
       <c r="C175">
         <f>SUM(C2:C174)</f>
-        <v>33965</v>
+        <v>34124</v>
       </c>
       <c r="D175">
         <f>SUM(D2:D174)</f>
-        <v>24555</v>
+        <v>24624</v>
       </c>
       <c r="E175">
         <f>SUM(E2:E174)</f>
-        <v>2255</v>
+        <v>2257</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1241,6 +1241,9 @@
                 <c:pt idx="153">
                   <c:v>159</c:v>
                 </c:pt>
+                <c:pt idx="154">
+                  <c:v>157</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2269,6 +2272,9 @@
                 <c:pt idx="153">
                   <c:v>69</c:v>
                 </c:pt>
+                <c:pt idx="154">
+                  <c:v>83</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3297,6 +3303,9 @@
                 <c:pt idx="153">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="154">
+                  <c:v>19</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3311,8 +3320,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="162850048"/>
-        <c:axId val="162850432"/>
+        <c:axId val="319601936"/>
+        <c:axId val="319601544"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4357,6 +4366,9 @@
                       <c:pt idx="153">
                         <c:v>34168</c:v>
                       </c:pt>
+                      <c:pt idx="154">
+                        <c:v>34325</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4367,7 +4379,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="162850048"/>
+        <c:axId val="319601936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4410,14 +4422,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162850432"/>
+        <c:crossAx val="319601544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162850432"/>
+        <c:axId val="319601544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4468,7 +4480,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162850048"/>
+        <c:crossAx val="319601936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8291,7 +8303,21 @@
       <c r="A156" s="1">
         <v>44060</v>
       </c>
-      <c r="B156" s="5"/>
+      <c r="B156">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B155+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>34325</v>
+      </c>
+      <c r="C156">
+        <v>157</v>
+      </c>
+      <c r="D156">
+        <v>83</v>
+      </c>
+      <c r="E156">
+        <v>19</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
@@ -8405,15 +8431,15 @@
       <c r="A175" s="1"/>
       <c r="C175">
         <f>SUM(C2:C174)</f>
-        <v>34124</v>
+        <v>34281</v>
       </c>
       <c r="D175">
         <f>SUM(D2:D174)</f>
-        <v>24624</v>
+        <v>24707</v>
       </c>
       <c r="E175">
         <f>SUM(E2:E174)</f>
-        <v>2257</v>
+        <v>2276</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike.TO-18\Projects\CoronaVirus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik\MyProjects\CoronaVirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1244,6 +1244,12 @@
                 <c:pt idx="154">
                   <c:v>157</c:v>
                 </c:pt>
+                <c:pt idx="155">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>160</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2275,6 +2281,12 @@
                 <c:pt idx="154">
                   <c:v>83</c:v>
                 </c:pt>
+                <c:pt idx="155">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>83</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3306,6 +3318,12 @@
                 <c:pt idx="154">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="155">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3320,8 +3338,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="319601936"/>
-        <c:axId val="319601544"/>
+        <c:axId val="105859344"/>
+        <c:axId val="106795296"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4369,6 +4387,12 @@
                       <c:pt idx="154">
                         <c:v>34325</c:v>
                       </c:pt>
+                      <c:pt idx="155">
+                        <c:v>34487</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>34647</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4379,7 +4403,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="319601936"/>
+        <c:axId val="105859344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4422,14 +4446,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319601544"/>
+        <c:crossAx val="106795296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="319601544"/>
+        <c:axId val="106795296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4480,7 +4504,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319601936"/>
+        <c:crossAx val="105859344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8323,13 +8347,41 @@
       <c r="A157" s="1">
         <v>44061</v>
       </c>
-      <c r="B157" s="5"/>
+      <c r="B157">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B156+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>34487</v>
+      </c>
+      <c r="C157">
+        <v>162</v>
+      </c>
+      <c r="D157">
+        <v>86</v>
+      </c>
+      <c r="E157">
+        <v>17</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44062</v>
       </c>
-      <c r="B158" s="5"/>
+      <c r="B158">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B157+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>34647</v>
+      </c>
+      <c r="C158">
+        <v>160</v>
+      </c>
+      <c r="D158">
+        <v>83</v>
+      </c>
+      <c r="E158">
+        <v>15</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -8431,15 +8483,15 @@
       <c r="A175" s="1"/>
       <c r="C175">
         <f>SUM(C2:C174)</f>
-        <v>34281</v>
+        <v>34603</v>
       </c>
       <c r="D175">
         <f>SUM(D2:D174)</f>
-        <v>24707</v>
+        <v>24876</v>
       </c>
       <c r="E175">
         <f>SUM(E2:E174)</f>
-        <v>2276</v>
+        <v>2308</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1250,6 +1250,12 @@
                 <c:pt idx="156">
                   <c:v>160</c:v>
                 </c:pt>
+                <c:pt idx="157">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>183</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2287,6 +2293,12 @@
                 <c:pt idx="156">
                   <c:v>83</c:v>
                 </c:pt>
+                <c:pt idx="157">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>110</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3324,6 +3336,12 @@
                 <c:pt idx="156">
                   <c:v>15</c:v>
                 </c:pt>
+                <c:pt idx="157">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>18</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3338,8 +3356,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="105859344"/>
-        <c:axId val="106795296"/>
+        <c:axId val="108297944"/>
+        <c:axId val="332179160"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4393,6 +4411,12 @@
                       <c:pt idx="156">
                         <c:v>34647</c:v>
                       </c:pt>
+                      <c:pt idx="157">
+                        <c:v>34828</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>35011</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4403,7 +4427,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105859344"/>
+        <c:axId val="108297944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4446,14 +4470,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106795296"/>
+        <c:crossAx val="332179160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="106795296"/>
+        <c:axId val="332179160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4504,7 +4528,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105859344"/>
+        <c:crossAx val="108297944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8387,13 +8411,41 @@
       <c r="A159" s="1">
         <v>44063</v>
       </c>
-      <c r="B159" s="5"/>
+      <c r="B159">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B158+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>34828</v>
+      </c>
+      <c r="C159">
+        <v>181</v>
+      </c>
+      <c r="D159">
+        <v>101</v>
+      </c>
+      <c r="E159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44064</v>
       </c>
-      <c r="B160" s="5"/>
+      <c r="B160">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B159+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>35011</v>
+      </c>
+      <c r="C160">
+        <v>183</v>
+      </c>
+      <c r="D160">
+        <v>110</v>
+      </c>
+      <c r="E160">
+        <v>18</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
@@ -8483,15 +8535,15 @@
       <c r="A175" s="1"/>
       <c r="C175">
         <f>SUM(C2:C174)</f>
-        <v>34603</v>
+        <v>34967</v>
       </c>
       <c r="D175">
         <f>SUM(D2:D174)</f>
-        <v>24876</v>
+        <v>25087</v>
       </c>
       <c r="E175">
         <f>SUM(E2:E174)</f>
-        <v>2308</v>
+        <v>2332</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1256,6 +1256,9 @@
                 <c:pt idx="158">
                   <c:v>183</c:v>
                 </c:pt>
+                <c:pt idx="159">
+                  <c:v>180</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2299,6 +2302,9 @@
                 <c:pt idx="158">
                   <c:v>110</c:v>
                 </c:pt>
+                <c:pt idx="159">
+                  <c:v>63</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3342,6 +3348,9 @@
                 <c:pt idx="158">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="159">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3356,8 +3365,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="108297944"/>
-        <c:axId val="332179160"/>
+        <c:axId val="240731672"/>
+        <c:axId val="240756736"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4417,6 +4426,9 @@
                       <c:pt idx="158">
                         <c:v>35011</c:v>
                       </c:pt>
+                      <c:pt idx="159">
+                        <c:v>35191</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4427,7 +4439,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="108297944"/>
+        <c:axId val="240731672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4470,14 +4482,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332179160"/>
+        <c:crossAx val="240756736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="332179160"/>
+        <c:axId val="240756736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4528,7 +4540,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108297944"/>
+        <c:crossAx val="240731672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8451,7 +8463,21 @@
       <c r="A161" s="1">
         <v>44065</v>
       </c>
-      <c r="B161" s="5"/>
+      <c r="B161">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B160+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>35191</v>
+      </c>
+      <c r="C161">
+        <v>180</v>
+      </c>
+      <c r="D161">
+        <v>63</v>
+      </c>
+      <c r="E161">
+        <v>10</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
@@ -8535,15 +8561,15 @@
       <c r="A175" s="1"/>
       <c r="C175">
         <f>SUM(C2:C174)</f>
-        <v>34967</v>
+        <v>35147</v>
       </c>
       <c r="D175">
         <f>SUM(D2:D174)</f>
-        <v>25087</v>
+        <v>25150</v>
       </c>
       <c r="E175">
         <f>SUM(E2:E174)</f>
-        <v>2332</v>
+        <v>2342</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1259,6 +1259,9 @@
                 <c:pt idx="159">
                   <c:v>180</c:v>
                 </c:pt>
+                <c:pt idx="160">
+                  <c:v>182</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2305,6 +2308,9 @@
                 <c:pt idx="159">
                   <c:v>63</c:v>
                 </c:pt>
+                <c:pt idx="160">
+                  <c:v>65</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3351,6 +3357,9 @@
                 <c:pt idx="159">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3365,8 +3374,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="240731672"/>
-        <c:axId val="240756736"/>
+        <c:axId val="107695848"/>
+        <c:axId val="107697416"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4429,6 +4438,9 @@
                       <c:pt idx="159">
                         <c:v>35191</c:v>
                       </c:pt>
+                      <c:pt idx="160">
+                        <c:v>35373</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4439,7 +4451,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="240731672"/>
+        <c:axId val="107695848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4482,14 +4494,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240756736"/>
+        <c:crossAx val="107697416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="240756736"/>
+        <c:axId val="107697416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4540,7 +4552,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240731672"/>
+        <c:crossAx val="107695848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8483,7 +8495,21 @@
       <c r="A162" s="1">
         <v>44066</v>
       </c>
-      <c r="B162" s="5"/>
+      <c r="B162">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B161+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>35373</v>
+      </c>
+      <c r="C162">
+        <v>182</v>
+      </c>
+      <c r="D162">
+        <v>65</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
@@ -8561,11 +8587,11 @@
       <c r="A175" s="1"/>
       <c r="C175">
         <f>SUM(C2:C174)</f>
-        <v>35147</v>
+        <v>35329</v>
       </c>
       <c r="D175">
         <f>SUM(D2:D174)</f>
-        <v>25150</v>
+        <v>25215</v>
       </c>
       <c r="E175">
         <f>SUM(E2:E174)</f>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1262,6 +1262,9 @@
                 <c:pt idx="160">
                   <c:v>182</c:v>
                 </c:pt>
+                <c:pt idx="161">
+                  <c:v>179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2311,6 +2314,9 @@
                 <c:pt idx="160">
                   <c:v>65</c:v>
                 </c:pt>
+                <c:pt idx="161">
+                  <c:v>89</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3360,6 +3366,9 @@
                 <c:pt idx="160">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="161">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3374,8 +3383,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="107695848"/>
-        <c:axId val="107697416"/>
+        <c:axId val="168022528"/>
+        <c:axId val="168022912"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4441,6 +4450,9 @@
                       <c:pt idx="160">
                         <c:v>35373</c:v>
                       </c:pt>
+                      <c:pt idx="161">
+                        <c:v>35552</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4451,7 +4463,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="107695848"/>
+        <c:axId val="168022528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4494,14 +4506,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107697416"/>
+        <c:crossAx val="168022912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="107697416"/>
+        <c:axId val="168022912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4552,7 +4564,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107695848"/>
+        <c:crossAx val="168022528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8515,7 +8527,21 @@
       <c r="A163" s="1">
         <v>44067</v>
       </c>
-      <c r="B163" s="5"/>
+      <c r="B163">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B162+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>35552</v>
+      </c>
+      <c r="C163">
+        <v>179</v>
+      </c>
+      <c r="D163">
+        <v>89</v>
+      </c>
+      <c r="E163">
+        <v>15</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
@@ -8587,15 +8613,15 @@
       <c r="A175" s="1"/>
       <c r="C175">
         <f>SUM(C2:C174)</f>
-        <v>35329</v>
+        <v>35508</v>
       </c>
       <c r="D175">
         <f>SUM(D2:D174)</f>
-        <v>25215</v>
+        <v>25304</v>
       </c>
       <c r="E175">
         <f>SUM(E2:E174)</f>
-        <v>2342</v>
+        <v>2357</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1265,6 +1265,12 @@
                 <c:pt idx="161">
                   <c:v>179</c:v>
                 </c:pt>
+                <c:pt idx="162">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>184</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2317,6 +2323,12 @@
                 <c:pt idx="161">
                   <c:v>89</c:v>
                 </c:pt>
+                <c:pt idx="162">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>65</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3369,6 +3381,12 @@
                 <c:pt idx="161">
                   <c:v>15</c:v>
                 </c:pt>
+                <c:pt idx="162">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>17</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3383,8 +3401,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="168022528"/>
-        <c:axId val="168022912"/>
+        <c:axId val="167796592"/>
+        <c:axId val="167796976"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4453,6 +4471,12 @@
                       <c:pt idx="161">
                         <c:v>35552</c:v>
                       </c:pt>
+                      <c:pt idx="162">
+                        <c:v>35733</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>35917</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4463,7 +4487,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="168022528"/>
+        <c:axId val="167796592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4506,14 +4530,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168022912"/>
+        <c:crossAx val="167796976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168022912"/>
+        <c:axId val="167796976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4564,7 +4588,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168022528"/>
+        <c:crossAx val="167796592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8547,13 +8571,41 @@
       <c r="A164" s="1">
         <v>44068</v>
       </c>
-      <c r="B164" s="5"/>
+      <c r="B164">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B163+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>35733</v>
+      </c>
+      <c r="C164">
+        <v>181</v>
+      </c>
+      <c r="D164">
+        <v>75</v>
+      </c>
+      <c r="E164">
+        <v>18</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44069</v>
       </c>
-      <c r="B165" s="5"/>
+      <c r="B165">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B164+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>35917</v>
+      </c>
+      <c r="C165">
+        <v>184</v>
+      </c>
+      <c r="D165">
+        <v>65</v>
+      </c>
+      <c r="E165">
+        <v>17</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
@@ -8613,15 +8665,15 @@
       <c r="A175" s="1"/>
       <c r="C175">
         <f>SUM(C2:C174)</f>
-        <v>35508</v>
+        <v>35873</v>
       </c>
       <c r="D175">
         <f>SUM(D2:D174)</f>
-        <v>25304</v>
+        <v>25444</v>
       </c>
       <c r="E175">
         <f>SUM(E2:E174)</f>
-        <v>2357</v>
+        <v>2392</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -247,10 +247,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$174</c:f>
+              <c:f>Лист1!$A$2:$A$186</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="185"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -769,16 +769,52 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44090</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$174</c:f>
+              <c:f>Лист1!$C$2:$C$186</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="185"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1270,6 +1306,51 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,10 +1386,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$174</c:f>
+              <c:f>Лист1!$A$2:$A$186</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="185"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1827,16 +1908,52 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44090</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$174</c:f>
+              <c:f>Лист1!$D$2:$D$186</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="185"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2328,6 +2445,51 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2363,10 +2525,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$174</c:f>
+              <c:f>Лист1!$A$2:$A$186</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="185"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -2885,16 +3047,52 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44090</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$174</c:f>
+              <c:f>Лист1!$E$2:$E$186</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="185"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3385,6 +3583,51 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="163">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="178">
                   <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
@@ -3401,8 +3644,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="167796592"/>
-        <c:axId val="167796976"/>
+        <c:axId val="340798376"/>
+        <c:axId val="341037288"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3444,13 +3687,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$A$2:$A$174</c15:sqref>
+                          <c15:sqref>Лист1!$A$2:$A$186</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="173"/>
+                      <c:ptCount val="185"/>
                       <c:pt idx="0">
                         <c:v>43906</c:v>
                       </c:pt>
@@ -3969,6 +4212,42 @@
                       </c:pt>
                       <c:pt idx="172">
                         <c:v>44078</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>44079</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>44080</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>44081</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>44082</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>44083</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>44084</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>44085</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>44086</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>44087</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>44088</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>44089</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>44090</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3978,13 +4257,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$B$2:$B$174</c15:sqref>
+                          <c15:sqref>Лист1!$B$2:$B$186</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="173"/>
+                      <c:ptCount val="185"/>
                       <c:pt idx="0">
                         <c:v>7</c:v>
                       </c:pt>
@@ -4476,6 +4755,51 @@
                       </c:pt>
                       <c:pt idx="163">
                         <c:v>35917</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>36104</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>36293</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>36479</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>36667</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>36852</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>37041</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>37232</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>37425</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>37620</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>37812</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>38008</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>38218</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>38436</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>38651</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>38867</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4487,7 +4811,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="167796592"/>
+        <c:axId val="340798376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4530,14 +4854,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167796976"/>
+        <c:crossAx val="341037288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="167796976"/>
+        <c:axId val="341037288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4588,7 +4912,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167796592"/>
+        <c:crossAx val="340798376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5248,19 +5572,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E175" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A1:E174"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E187" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A1:E186"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="1"/>
     <tableColumn id="3" name="Новых_x000a_ (за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(C2:C174)</totalsRowFormula>
+      <totalsRowFormula>SUM(C2:C186)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" name="Выздоровело_x000a_(за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(D2:D174)</totalsRowFormula>
+      <totalsRowFormula>SUM(D2:D186)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" name="Умерло_x000a_(за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(E2:E174)</totalsRowFormula>
+      <totalsRowFormula>SUM(E2:E186)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5530,7 +5854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E175"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8611,73 +8935,355 @@
       <c r="A166" s="1">
         <v>44070</v>
       </c>
-      <c r="B166" s="5"/>
+      <c r="B166">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B165+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>36104</v>
+      </c>
+      <c r="C166">
+        <v>187</v>
+      </c>
+      <c r="D166">
+        <v>86</v>
+      </c>
+      <c r="E166">
+        <v>9</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44071</v>
       </c>
-      <c r="B167" s="5"/>
+      <c r="B167">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B166+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>36293</v>
+      </c>
+      <c r="C167">
+        <v>189</v>
+      </c>
+      <c r="D167">
+        <v>95</v>
+      </c>
+      <c r="E167">
+        <v>15</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44072</v>
       </c>
-      <c r="B168" s="5"/>
+      <c r="B168">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B167+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>36479</v>
+      </c>
+      <c r="C168">
+        <v>186</v>
+      </c>
+      <c r="D168">
+        <v>68</v>
+      </c>
+      <c r="E168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44073</v>
       </c>
-      <c r="B169" s="5"/>
+      <c r="B169">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B168+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>36667</v>
+      </c>
+      <c r="C169">
+        <v>188</v>
+      </c>
+      <c r="D169">
+        <v>96</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44074</v>
       </c>
-      <c r="B170" s="5"/>
+      <c r="B170">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B169+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>36852</v>
+      </c>
+      <c r="C170">
+        <v>185</v>
+      </c>
+      <c r="D170">
+        <v>86</v>
+      </c>
+      <c r="E170">
+        <v>19</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44075</v>
       </c>
-      <c r="B171" s="5"/>
+      <c r="B171">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B170+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>37041</v>
+      </c>
+      <c r="C171">
+        <v>189</v>
+      </c>
+      <c r="D171">
+        <v>106</v>
+      </c>
+      <c r="E171">
+        <v>21</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44076</v>
       </c>
-      <c r="B172" s="5"/>
+      <c r="B172">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B171+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>37232</v>
+      </c>
+      <c r="C172">
+        <v>191</v>
+      </c>
+      <c r="D172">
+        <v>112</v>
+      </c>
+      <c r="E172">
+        <v>22</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44077</v>
       </c>
-      <c r="B173" s="5"/>
+      <c r="B173">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B172+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>37425</v>
+      </c>
+      <c r="C173">
+        <v>193</v>
+      </c>
+      <c r="D173">
+        <v>101</v>
+      </c>
+      <c r="E173">
+        <v>20</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44078</v>
       </c>
-      <c r="B174" s="5"/>
+      <c r="B174">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B173+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>37620</v>
+      </c>
+      <c r="C174">
+        <v>195</v>
+      </c>
+      <c r="D174">
+        <v>96</v>
+      </c>
+      <c r="E174">
+        <v>19</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
+      <c r="A175" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B175">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B174+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>37812</v>
+      </c>
       <c r="C175">
-        <f>SUM(C2:C174)</f>
-        <v>35873</v>
+        <v>192</v>
       </c>
       <c r="D175">
-        <f>SUM(D2:D174)</f>
-        <v>25444</v>
+        <v>75</v>
       </c>
       <c r="E175">
-        <f>SUM(E2:E174)</f>
-        <v>2392</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B176">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B175+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>38008</v>
+      </c>
+      <c r="C176">
+        <v>196</v>
+      </c>
+      <c r="D176">
+        <v>65</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B177">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B176+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>38218</v>
+      </c>
+      <c r="C177">
+        <v>210</v>
+      </c>
+      <c r="D177">
+        <v>123</v>
+      </c>
+      <c r="E177">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B178">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B177+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>38436</v>
+      </c>
+      <c r="C178">
+        <v>218</v>
+      </c>
+      <c r="D178">
+        <v>111</v>
+      </c>
+      <c r="E178">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B179">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B178+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>38651</v>
+      </c>
+      <c r="C179">
+        <v>215</v>
+      </c>
+      <c r="D179">
+        <v>112</v>
+      </c>
+      <c r="E179">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B180">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B179+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>38867</v>
+      </c>
+      <c r="C180">
+        <v>216</v>
+      </c>
+      <c r="D180">
+        <v>105</v>
+      </c>
+      <c r="E180">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B181" s="5"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B182" s="5"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B183" s="5"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B184" s="5"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B185" s="5"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B186" s="5"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="C187">
+        <f>SUM(C2:C186)</f>
+        <v>38823</v>
+      </c>
+      <c r="D187">
+        <f>SUM(D2:D186)</f>
+        <v>26881</v>
+      </c>
+      <c r="E187">
+        <f>SUM(E2:E186)</f>
+        <v>2607</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C174">
+  <conditionalFormatting sqref="C2:C186">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -8691,7 +9297,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D174">
+  <conditionalFormatting sqref="D2:D186">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -8705,7 +9311,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E174">
+  <conditionalFormatting sqref="E2:E186">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -8738,7 +9344,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C174</xm:sqref>
+          <xm:sqref>C2:C186</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F3B7423B-FF62-465B-AA64-D42FBA1A5938}">
@@ -8751,7 +9357,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D174</xm:sqref>
+          <xm:sqref>D2:D186</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6F3ABBF4-01C3-4350-80D4-DD6EEE19BBFB}">
@@ -8762,7 +9368,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E174</xm:sqref>
+          <xm:sqref>E2:E186</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -247,10 +247,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$186</c:f>
+              <c:f>Лист1!$A$2:$A$200</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="185"/>
+                <c:ptCount val="199"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -805,16 +805,58 @@
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$186</c:f>
+              <c:f>Лист1!$C$2:$C$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="185"/>
+                <c:ptCount val="199"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1351,6 +1393,24 @@
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,10 +1446,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$186</c:f>
+              <c:f>Лист1!$A$2:$A$200</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="185"/>
+                <c:ptCount val="199"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -1944,16 +2004,58 @@
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$186</c:f>
+              <c:f>Лист1!$D$2:$D$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="185"/>
+                <c:ptCount val="199"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2490,6 +2592,24 @@
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2525,10 +2645,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$186</c:f>
+              <c:f>Лист1!$A$2:$A$200</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="185"/>
+                <c:ptCount val="199"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -3083,16 +3203,58 @@
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$186</c:f>
+              <c:f>Лист1!$E$2:$E$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="185"/>
+                <c:ptCount val="199"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3629,6 +3791,24 @@
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3644,8 +3824,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="340798376"/>
-        <c:axId val="341037288"/>
+        <c:axId val="99453880"/>
+        <c:axId val="164368464"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3687,13 +3867,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$A$2:$A$186</c15:sqref>
+                          <c15:sqref>Лист1!$A$2:$A$200</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="185"/>
+                      <c:ptCount val="199"/>
                       <c:pt idx="0">
                         <c:v>43906</c:v>
                       </c:pt>
@@ -4248,6 +4428,48 @@
                       </c:pt>
                       <c:pt idx="184">
                         <c:v>44090</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>44091</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>44092</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>44093</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>44094</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>44095</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>44096</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>44097</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>44098</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>44099</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>44100</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>44101</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>44102</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>44103</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>44104</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4257,13 +4479,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$B$2:$B$186</c15:sqref>
+                          <c15:sqref>Лист1!$B$2:$B$200</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="185"/>
+                      <c:ptCount val="199"/>
                       <c:pt idx="0">
                         <c:v>7</c:v>
                       </c:pt>
@@ -4800,6 +5022,24 @@
                       </c:pt>
                       <c:pt idx="178">
                         <c:v>38867</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>39070</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>39276</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>39475</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>39681</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>39888</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>40099</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4811,7 +5051,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="340798376"/>
+        <c:axId val="99453880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4854,14 +5094,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341037288"/>
+        <c:crossAx val="164368464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="341037288"/>
+        <c:axId val="164368464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4912,7 +5152,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340798376"/>
+        <c:crossAx val="99453880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5572,19 +5812,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E187" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A1:E186"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E201" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A1:E200"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="1"/>
     <tableColumn id="3" name="Новых_x000a_ (за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(C2:C186)</totalsRowFormula>
+      <totalsRowFormula>SUM(C2:C200)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" name="Выздоровело_x000a_(за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(D2:D186)</totalsRowFormula>
+      <totalsRowFormula>SUM(D2:D200)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" name="Умерло_x000a_(за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(E2:E186)</totalsRowFormula>
+      <totalsRowFormula>SUM(E2:E200)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5854,7 +6094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9235,55 +9475,223 @@
       <c r="A181" s="1">
         <v>44085</v>
       </c>
-      <c r="B181" s="5"/>
+      <c r="B181">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B180+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>39070</v>
+      </c>
+      <c r="C181">
+        <v>203</v>
+      </c>
+      <c r="D181">
+        <v>105</v>
+      </c>
+      <c r="E181">
+        <v>23</v>
+      </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44086</v>
       </c>
-      <c r="B182" s="5"/>
+      <c r="B182">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B181+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>39276</v>
+      </c>
+      <c r="C182">
+        <v>206</v>
+      </c>
+      <c r="D182">
+        <v>104</v>
+      </c>
+      <c r="E182">
+        <v>20</v>
+      </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44087</v>
       </c>
-      <c r="B183" s="5"/>
+      <c r="B183">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B182+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>39475</v>
+      </c>
+      <c r="C183">
+        <v>199</v>
+      </c>
+      <c r="D183">
+        <v>100</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44088</v>
       </c>
-      <c r="B184" s="5"/>
+      <c r="B184">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B183+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>39681</v>
+      </c>
+      <c r="C184">
+        <v>206</v>
+      </c>
+      <c r="D184">
+        <v>104</v>
+      </c>
+      <c r="E184">
+        <v>26</v>
+      </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44089</v>
       </c>
-      <c r="B185" s="5"/>
+      <c r="B185">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B184+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>39888</v>
+      </c>
+      <c r="C185">
+        <v>207</v>
+      </c>
+      <c r="D185">
+        <v>105</v>
+      </c>
+      <c r="E185">
+        <v>25</v>
+      </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44090</v>
       </c>
-      <c r="B186" s="5"/>
+      <c r="B186">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B185+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>40099</v>
+      </c>
+      <c r="C186">
+        <v>211</v>
+      </c>
+      <c r="D186">
+        <v>107</v>
+      </c>
+      <c r="E186">
+        <v>24</v>
+      </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="C187">
-        <f>SUM(C2:C186)</f>
-        <v>38823</v>
-      </c>
-      <c r="D187">
-        <f>SUM(D2:D186)</f>
-        <v>26881</v>
-      </c>
-      <c r="E187">
-        <f>SUM(E2:E186)</f>
-        <v>2607</v>
+      <c r="A187" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B187" s="5"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B188" s="5"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B189" s="5"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B190" s="5"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B191" s="5"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B192" s="5"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B193" s="5"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B194" s="5"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B195" s="5"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B196" s="5"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B197" s="5"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B198" s="5"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B199" s="5"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B200" s="5"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="C201">
+        <f>SUM(C2:C200)</f>
+        <v>40055</v>
+      </c>
+      <c r="D201">
+        <f>SUM(D2:D200)</f>
+        <v>27506</v>
+      </c>
+      <c r="E201">
+        <f>SUM(E2:E200)</f>
+        <v>2725</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C186">
+  <conditionalFormatting sqref="C2:C200">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -9297,7 +9705,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D186">
+  <conditionalFormatting sqref="D2:D200">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -9311,7 +9719,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E186">
+  <conditionalFormatting sqref="E2:E200">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -9344,7 +9752,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C186</xm:sqref>
+          <xm:sqref>C2:C200</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F3B7423B-FF62-465B-AA64-D42FBA1A5938}">
@@ -9357,7 +9765,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D186</xm:sqref>
+          <xm:sqref>D2:D200</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6F3ABBF4-01C3-4350-80D4-DD6EEE19BBFB}">
@@ -9368,7 +9776,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E186</xm:sqref>
+          <xm:sqref>E2:E200</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1412,6 +1412,12 @@
                 <c:pt idx="184">
                   <c:v>211</c:v>
                 </c:pt>
+                <c:pt idx="185">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>212</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2611,6 +2617,12 @@
                 <c:pt idx="184">
                   <c:v>107</c:v>
                 </c:pt>
+                <c:pt idx="185">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>106</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3810,6 +3822,12 @@
                 <c:pt idx="184">
                   <c:v>24</c:v>
                 </c:pt>
+                <c:pt idx="185">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>14</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3824,8 +3842,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="99453880"/>
-        <c:axId val="164368464"/>
+        <c:axId val="166750648"/>
+        <c:axId val="168917480"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -5041,6 +5059,12 @@
                       <c:pt idx="184">
                         <c:v>40099</c:v>
                       </c:pt>
+                      <c:pt idx="185">
+                        <c:v>40305</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>40517</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -5051,7 +5075,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="99453880"/>
+        <c:axId val="166750648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5094,14 +5118,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164368464"/>
+        <c:crossAx val="168917480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164368464"/>
+        <c:axId val="168917480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5152,7 +5176,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99453880"/>
+        <c:crossAx val="166750648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9595,13 +9619,41 @@
       <c r="A187" s="1">
         <v>44091</v>
       </c>
-      <c r="B187" s="5"/>
+      <c r="B187">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B186+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>40305</v>
+      </c>
+      <c r="C187">
+        <v>206</v>
+      </c>
+      <c r="D187">
+        <v>105</v>
+      </c>
+      <c r="E187">
+        <v>23</v>
+      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44092</v>
       </c>
-      <c r="B188" s="5"/>
+      <c r="B188">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B187+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>40517</v>
+      </c>
+      <c r="C188">
+        <v>212</v>
+      </c>
+      <c r="D188">
+        <v>106</v>
+      </c>
+      <c r="E188">
+        <v>14</v>
+      </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
@@ -9679,15 +9731,15 @@
       <c r="A201" s="1"/>
       <c r="C201">
         <f>SUM(C2:C200)</f>
-        <v>40055</v>
+        <v>40473</v>
       </c>
       <c r="D201">
         <f>SUM(D2:D200)</f>
-        <v>27506</v>
+        <v>27717</v>
       </c>
       <c r="E201">
         <f>SUM(E2:E200)</f>
-        <v>2725</v>
+        <v>2762</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1418,6 +1418,12 @@
                 <c:pt idx="186">
                   <c:v>212</c:v>
                 </c:pt>
+                <c:pt idx="187">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>209</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2623,6 +2629,12 @@
                 <c:pt idx="186">
                   <c:v>106</c:v>
                 </c:pt>
+                <c:pt idx="187">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>105</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3828,6 +3840,12 @@
                 <c:pt idx="186">
                   <c:v>14</c:v>
                 </c:pt>
+                <c:pt idx="187">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3842,8 +3860,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="166750648"/>
-        <c:axId val="168917480"/>
+        <c:axId val="11519448"/>
+        <c:axId val="112450368"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -5065,6 +5083,12 @@
                       <c:pt idx="186">
                         <c:v>40517</c:v>
                       </c:pt>
+                      <c:pt idx="187">
+                        <c:v>40731</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>40940</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -5075,7 +5099,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="166750648"/>
+        <c:axId val="11519448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5118,14 +5142,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168917480"/>
+        <c:crossAx val="112450368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168917480"/>
+        <c:axId val="112450368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5176,7 +5200,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166750648"/>
+        <c:crossAx val="11519448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9659,13 +9683,41 @@
       <c r="A189" s="1">
         <v>44093</v>
       </c>
-      <c r="B189" s="5"/>
+      <c r="B189">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B188+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>40731</v>
+      </c>
+      <c r="C189">
+        <v>214</v>
+      </c>
+      <c r="D189">
+        <v>108</v>
+      </c>
+      <c r="E189">
+        <v>15</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44094</v>
       </c>
-      <c r="B190" s="5"/>
+      <c r="B190">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B189+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>40940</v>
+      </c>
+      <c r="C190">
+        <v>209</v>
+      </c>
+      <c r="D190">
+        <v>105</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
@@ -9731,15 +9783,15 @@
       <c r="A201" s="1"/>
       <c r="C201">
         <f>SUM(C2:C200)</f>
-        <v>40473</v>
+        <v>40896</v>
       </c>
       <c r="D201">
         <f>SUM(D2:D200)</f>
-        <v>27717</v>
+        <v>27930</v>
       </c>
       <c r="E201">
         <f>SUM(E2:E200)</f>
-        <v>2762</v>
+        <v>2777</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -1424,6 +1424,9 @@
                 <c:pt idx="188">
                   <c:v>209</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>211</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2635,6 +2638,9 @@
                 <c:pt idx="188">
                   <c:v>105</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>106</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3846,6 +3852,9 @@
                 <c:pt idx="188">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3860,8 +3869,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="11519448"/>
-        <c:axId val="112450368"/>
+        <c:axId val="10007896"/>
+        <c:axId val="3737504"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -5089,6 +5098,9 @@
                       <c:pt idx="188">
                         <c:v>40940</c:v>
                       </c:pt>
+                      <c:pt idx="189">
+                        <c:v>41151</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -5099,7 +5111,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="11519448"/>
+        <c:axId val="10007896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5142,14 +5154,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112450368"/>
+        <c:crossAx val="3737504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="112450368"/>
+        <c:axId val="3737504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5200,7 +5212,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11519448"/>
+        <c:crossAx val="10007896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9723,7 +9735,21 @@
       <c r="A191" s="1">
         <v>44095</v>
       </c>
-      <c r="B191" s="5"/>
+      <c r="B191">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B190+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>41151</v>
+      </c>
+      <c r="C191">
+        <v>211</v>
+      </c>
+      <c r="D191">
+        <v>106</v>
+      </c>
+      <c r="E191">
+        <v>25</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
@@ -9783,15 +9809,15 @@
       <c r="A201" s="1"/>
       <c r="C201">
         <f>SUM(C2:C200)</f>
-        <v>40896</v>
+        <v>41107</v>
       </c>
       <c r="D201">
         <f>SUM(D2:D200)</f>
-        <v>27930</v>
+        <v>28036</v>
       </c>
       <c r="E201">
         <f>SUM(E2:E200)</f>
-        <v>2777</v>
+        <v>2802</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus_SPb_2020.xlsx
+++ b/Coronavirus_SPb_2020.xlsx
@@ -80,7 +80,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -92,7 +92,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -247,10 +246,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$200</c:f>
+              <c:f>Лист1!$A$2:$A$210</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="209"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -847,16 +846,46 @@
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$200</c:f>
+              <c:f>Лист1!$C$2:$C$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="209"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1426,6 +1455,42 @@
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1461,10 +1526,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$200</c:f>
+              <c:f>Лист1!$A$2:$A$210</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="209"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -2061,16 +2126,46 @@
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$200</c:f>
+              <c:f>Лист1!$D$2:$D$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="209"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2640,6 +2735,42 @@
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2675,10 +2806,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$200</c:f>
+              <c:f>Лист1!$A$2:$A$210</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="209"/>
                 <c:pt idx="0">
                   <c:v>43906</c:v>
                 </c:pt>
@@ -3275,16 +3406,46 @@
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$200</c:f>
+              <c:f>Лист1!$E$2:$E$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="209"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3853,6 +4014,42 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="189">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="201">
                   <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3869,8 +4066,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="10007896"/>
-        <c:axId val="3737504"/>
+        <c:axId val="166620128"/>
+        <c:axId val="166621536"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3912,13 +4109,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$A$2:$A$200</c15:sqref>
+                          <c15:sqref>Лист1!$A$2:$A$210</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="199"/>
+                      <c:ptCount val="209"/>
                       <c:pt idx="0">
                         <c:v>43906</c:v>
                       </c:pt>
@@ -4515,6 +4712,36 @@
                       </c:pt>
                       <c:pt idx="198">
                         <c:v>44104</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>44105</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>44106</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>44107</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>44108</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>44109</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>44110</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>44111</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>44112</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>44113</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>44114</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4524,13 +4751,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$B$2:$B$200</c15:sqref>
+                          <c15:sqref>Лист1!$B$2:$B$210</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="199"/>
+                      <c:ptCount val="209"/>
                       <c:pt idx="0">
                         <c:v>7</c:v>
                       </c:pt>
@@ -5100,6 +5327,63 @@
                       </c:pt>
                       <c:pt idx="189">
                         <c:v>41151</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>41359</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>41574</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>41798</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>42030</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>42257</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>42494</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>42745</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>43021</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>43306</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>43608</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>43966</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>44358</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5111,7 +5395,7 @@
         </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="10007896"/>
+        <c:axId val="166620128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5154,14 +5438,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3737504"/>
+        <c:crossAx val="166621536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="3737504"/>
+        <c:axId val="166621536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5212,7 +5496,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10007896"/>
+        <c:crossAx val="166620128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5872,19 +6156,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E201" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A1:E200"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E211" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A1:E210"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Дата" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" name="Всего_x000a_(на дату)" dataDxfId="1"/>
     <tableColumn id="3" name="Новых_x000a_ (за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(C2:C200)</totalsRowFormula>
+      <totalsRowFormula>SUM(C2:C210)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" name="Выздоровело_x000a_(за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(D2:D200)</totalsRowFormula>
+      <totalsRowFormula>SUM(D2:D210)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" name="Умерло_x000a_(за сутки)" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(E2:E200)</totalsRowFormula>
+      <totalsRowFormula>SUM(E2:E210)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6154,7 +6438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9755,73 +10039,336 @@
       <c r="A192" s="1">
         <v>44096</v>
       </c>
-      <c r="B192" s="5"/>
+      <c r="B192">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B191+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>41359</v>
+      </c>
+      <c r="C192">
+        <v>208</v>
+      </c>
+      <c r="D192">
+        <v>105</v>
+      </c>
+      <c r="E192">
+        <v>15</v>
+      </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44097</v>
       </c>
-      <c r="B193" s="5"/>
+      <c r="B193">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B192+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>41574</v>
+      </c>
+      <c r="C193">
+        <v>215</v>
+      </c>
+      <c r="D193">
+        <v>110</v>
+      </c>
+      <c r="E193">
+        <v>22</v>
+      </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44098</v>
       </c>
-      <c r="B194" s="5"/>
+      <c r="B194">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B193+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>41798</v>
+      </c>
+      <c r="C194">
+        <v>224</v>
+      </c>
+      <c r="D194">
+        <v>210</v>
+      </c>
+      <c r="E194">
+        <v>19</v>
+      </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44099</v>
       </c>
-      <c r="B195" s="5"/>
+      <c r="B195">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B194+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>42030</v>
+      </c>
+      <c r="C195">
+        <v>232</v>
+      </c>
+      <c r="D195">
+        <v>116</v>
+      </c>
+      <c r="E195">
+        <v>27</v>
+      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44100</v>
       </c>
-      <c r="B196" s="5"/>
+      <c r="B196">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B195+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>42257</v>
+      </c>
+      <c r="C196">
+        <v>227</v>
+      </c>
+      <c r="D196">
+        <v>114</v>
+      </c>
+      <c r="E196">
+        <v>9</v>
+      </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44101</v>
       </c>
-      <c r="B197" s="5"/>
+      <c r="B197">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B196+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>42494</v>
+      </c>
+      <c r="C197">
+        <v>237</v>
+      </c>
+      <c r="D197">
+        <v>119</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44102</v>
       </c>
-      <c r="B198" s="5"/>
+      <c r="B198">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B197+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>42745</v>
+      </c>
+      <c r="C198">
+        <v>251</v>
+      </c>
+      <c r="D198">
+        <v>126</v>
+      </c>
+      <c r="E198">
+        <v>30</v>
+      </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44103</v>
       </c>
-      <c r="B199" s="5"/>
+      <c r="B199">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B198+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>43021</v>
+      </c>
+      <c r="C199">
+        <v>276</v>
+      </c>
+      <c r="D199">
+        <v>138</v>
+      </c>
+      <c r="E199">
+        <v>26</v>
+      </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44104</v>
       </c>
-      <c r="B200" s="5"/>
+      <c r="B200">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B199+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>43306</v>
+      </c>
+      <c r="C200">
+        <v>285</v>
+      </c>
+      <c r="D200">
+        <v>243</v>
+      </c>
+      <c r="E200">
+        <v>22</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
+      <c r="A201" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B201">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B200+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>43608</v>
+      </c>
       <c r="C201">
-        <f>SUM(C2:C200)</f>
-        <v>41107</v>
+        <v>302</v>
       </c>
       <c r="D201">
-        <f>SUM(D2:D200)</f>
-        <v>28036</v>
+        <v>51</v>
       </c>
       <c r="E201">
-        <f>SUM(E2:E200)</f>
-        <v>2802</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B202">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B201+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>43966</v>
+      </c>
+      <c r="C202">
+        <v>358</v>
+      </c>
+      <c r="D202">
+        <v>179</v>
+      </c>
+      <c r="E202">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B203">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B202+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v>44358</v>
+      </c>
+      <c r="C203">
+        <v>392</v>
+      </c>
+      <c r="D203">
+        <v>196</v>
+      </c>
+      <c r="E203">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B204" t="str">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B203+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B205" t="str">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B204+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B206" t="str">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B205+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B207" t="str">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B206+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B208" t="str">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B207+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B209" t="str">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B208+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B210" t="str">
+        <f>IF(Таблица1[[#This Row],[Новых
+ (за сутки)]]=0,"",B209+Таблица1[[#This Row],[Новых
+ (за сутки)]])</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="C211">
+        <f>SUM(C2:C210)</f>
+        <v>44314</v>
+      </c>
+      <c r="D211">
+        <f>SUM(D2:D210)</f>
+        <v>29743</v>
+      </c>
+      <c r="E211">
+        <f>SUM(E2:E210)</f>
+        <v>3059</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C200">
+  <conditionalFormatting sqref="C2:C210">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -9835,7 +10382,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D200">
+  <conditionalFormatting sqref="D2:D210">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -9849,7 +10396,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E200">
+  <conditionalFormatting sqref="E2:E210">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -9882,7 +10429,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C200</xm:sqref>
+          <xm:sqref>C2:C210</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F3B7423B-FF62-465B-AA64-D42FBA1A5938}">
@@ -9895,7 +10442,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D200</xm:sqref>
+          <xm:sqref>D2:D210</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6F3ABBF4-01C3-4350-80D4-DD6EEE19BBFB}">
@@ -9906,7 +10453,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E200</xm:sqref>
+          <xm:sqref>E2:E210</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
